--- a/document/WBS_Control_3D_Viewer_By_Gesture.xlsx
+++ b/document/WBS_Control_3D_Viewer_By_Gesture.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
   <si>
     <t>WBS ID</t>
   </si>
@@ -1821,7 +1821,7 @@
       <pane xSplit="69" ySplit="7" topLeftCell="BR8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="HR1" sqref="HR1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N49" sqref="N49"/>
+      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -8440,9 +8440,11 @@
         <v>44075</v>
       </c>
       <c r="G31" s="152">
-        <v>0.3</v>
-      </c>
-      <c r="H31" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H31" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I31" s="175"/>
       <c r="J31" s="176"/>
       <c r="K31" s="161"/>
@@ -8688,9 +8690,11 @@
         <v>44075</v>
       </c>
       <c r="G32" s="152">
-        <v>0.35</v>
-      </c>
-      <c r="H32" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H32" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I32" s="175"/>
       <c r="J32" s="176"/>
       <c r="K32" s="161"/>
@@ -8936,9 +8940,11 @@
         <v>44077</v>
       </c>
       <c r="G33" s="152">
-        <v>0.4</v>
-      </c>
-      <c r="H33" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I33" s="175"/>
       <c r="J33" s="176"/>
       <c r="K33" s="161"/>
@@ -9430,9 +9436,11 @@
         <v>44078</v>
       </c>
       <c r="G35" s="152">
-        <v>0.5</v>
-      </c>
-      <c r="H35" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H35" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I35" s="175"/>
       <c r="J35" s="176"/>
       <c r="K35" s="161"/>
@@ -9677,8 +9685,12 @@
       <c r="F36" s="31">
         <v>44078</v>
       </c>
-      <c r="G36" s="152"/>
-      <c r="H36" s="63"/>
+      <c r="G36" s="152">
+        <v>1</v>
+      </c>
+      <c r="H36" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I36" s="175"/>
       <c r="J36" s="176"/>
       <c r="K36" s="161"/>
@@ -9924,7 +9936,7 @@
         <v>44081</v>
       </c>
       <c r="G37" s="152">
-        <v>0.2</v>
+        <v>0.75</v>
       </c>
       <c r="H37" s="63"/>
       <c r="I37" s="175"/>
@@ -10171,7 +10183,9 @@
       <c r="F38" s="31">
         <v>44081</v>
       </c>
-      <c r="G38" s="34"/>
+      <c r="G38" s="152">
+        <v>0.5</v>
+      </c>
       <c r="H38" s="63"/>
       <c r="I38" s="175"/>
       <c r="J38" s="176"/>
@@ -10663,7 +10677,9 @@
       <c r="F40" s="31">
         <v>44082</v>
       </c>
-      <c r="G40" s="34"/>
+      <c r="G40" s="152">
+        <v>0.3</v>
+      </c>
       <c r="H40" s="63"/>
       <c r="I40" s="175"/>
       <c r="J40" s="176"/>
@@ -11650,7 +11666,7 @@
         <v>44084</v>
       </c>
       <c r="G44" s="152">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" s="63"/>
       <c r="I44" s="175"/>

--- a/document/WBS_Control_3D_Viewer_By_Gesture.xlsx
+++ b/document/WBS_Control_3D_Viewer_By_Gesture.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="112">
   <si>
     <t>WBS ID</t>
   </si>
@@ -1034,7 +1034,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="188">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="16" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1583,6 +1583,9 @@
     <xf numFmtId="164" fontId="16" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="ColLevel_1" xfId="1" builtinId="2" iLevel="0"/>
@@ -1821,7 +1824,7 @@
       <pane xSplit="69" ySplit="7" topLeftCell="BR8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="HR1" sqref="HR1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="G60" sqref="G60"/>
+      <selection pane="bottomRight" activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -9936,9 +9939,11 @@
         <v>44081</v>
       </c>
       <c r="G37" s="152">
-        <v>0.75</v>
-      </c>
-      <c r="H37" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I37" s="175"/>
       <c r="J37" s="176"/>
       <c r="K37" s="161"/>
@@ -10184,9 +10189,11 @@
         <v>44081</v>
       </c>
       <c r="G38" s="152">
-        <v>0.5</v>
-      </c>
-      <c r="H38" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I38" s="175"/>
       <c r="J38" s="176"/>
       <c r="K38" s="161"/>
@@ -10431,8 +10438,12 @@
       <c r="F39" s="31">
         <v>44081</v>
       </c>
-      <c r="G39" s="34"/>
-      <c r="H39" s="63"/>
+      <c r="G39" s="152">
+        <v>1</v>
+      </c>
+      <c r="H39" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I39" s="175"/>
       <c r="J39" s="176"/>
       <c r="K39" s="161"/>
@@ -10678,9 +10689,11 @@
         <v>44082</v>
       </c>
       <c r="G40" s="152">
-        <v>0.3</v>
-      </c>
-      <c r="H40" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I40" s="175"/>
       <c r="J40" s="176"/>
       <c r="K40" s="161"/>
@@ -11418,9 +11431,11 @@
         <v>44083</v>
       </c>
       <c r="G43" s="152">
-        <v>0.75</v>
-      </c>
-      <c r="H43" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I43" s="175"/>
       <c r="J43" s="176"/>
       <c r="K43" s="161"/>
@@ -11666,9 +11681,11 @@
         <v>44084</v>
       </c>
       <c r="G44" s="152">
-        <v>0.5</v>
-      </c>
-      <c r="H44" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I44" s="175"/>
       <c r="J44" s="176"/>
       <c r="K44" s="161"/>
@@ -11914,7 +11931,7 @@
         <v>44085</v>
       </c>
       <c r="G45" s="152">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H45" s="63"/>
       <c r="I45" s="175"/>
@@ -12408,7 +12425,7 @@
         <v>44088</v>
       </c>
       <c r="G47" s="152">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H47" s="63"/>
       <c r="I47" s="175"/>
@@ -13154,9 +13171,11 @@
         <v>44090</v>
       </c>
       <c r="G50" s="152">
-        <v>0.8</v>
-      </c>
-      <c r="H50" s="63"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="153" t="s">
+        <v>102</v>
+      </c>
       <c r="I50" s="175"/>
       <c r="J50" s="176"/>
       <c r="K50" s="161"/>
@@ -13401,7 +13420,9 @@
       <c r="F51" s="31">
         <v>44090</v>
       </c>
-      <c r="G51" s="34"/>
+      <c r="G51" s="152">
+        <v>0.5</v>
+      </c>
       <c r="H51" s="63"/>
       <c r="I51" s="175"/>
       <c r="J51" s="176"/>
@@ -13647,7 +13668,9 @@
       <c r="F52" s="78">
         <v>44090</v>
       </c>
-      <c r="G52" s="79"/>
+      <c r="G52" s="188">
+        <v>0.4</v>
+      </c>
       <c r="H52" s="80"/>
       <c r="I52" s="175"/>
       <c r="J52" s="176"/>

--- a/document/WBS_Control_3D_Viewer_By_Gesture.xlsx
+++ b/document/WBS_Control_3D_Viewer_By_Gesture.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="112">
   <si>
     <t>WBS ID</t>
   </si>
@@ -1034,7 +1034,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="16" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
@@ -1215,9 +1215,6 @@
     <xf numFmtId="9" fontId="5" fillId="4" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1261,9 +1258,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="2" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,7 +1812,7 @@
       <pane xSplit="69" ySplit="7" topLeftCell="BR8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="HR1" sqref="HR1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H52" sqref="H52"/>
+      <selection pane="bottomRight" activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
@@ -1831,18 +1825,18 @@
     <col min="6" max="6" width="11.5" style="24" customWidth="1" outlineLevel="2"/>
     <col min="7" max="7" width="7.8984375" style="3" customWidth="1" outlineLevel="2"/>
     <col min="8" max="8" width="7.5" style="3" customWidth="1" outlineLevel="2"/>
-    <col min="9" max="9" width="3.3984375" style="167" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="3.3984375" style="165" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="3.3984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="11" max="11" width="2.8984375" style="162" customWidth="1" outlineLevel="1"/>
+    <col min="11" max="11" width="2.8984375" style="160" customWidth="1" outlineLevel="1"/>
     <col min="12" max="15" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="16" max="17" width="2.8984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="18" max="18" width="2.8984375" style="162" customWidth="1" outlineLevel="1"/>
+    <col min="18" max="18" width="2.8984375" style="160" customWidth="1" outlineLevel="1"/>
     <col min="19" max="22" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="23" max="24" width="2.8984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="25" max="29" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="30" max="31" width="2.8984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="32" max="36" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="37" max="37" width="2.8984375" style="167" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="37" max="37" width="2.8984375" style="165" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="38" max="38" width="2.8984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="39" max="43" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="44" max="45" width="2.8984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -1853,64 +1847,64 @@
     <col min="60" max="64" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
     <col min="65" max="66" width="2.8984375" style="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="67" max="68" width="2.8984375" style="3" customWidth="1" outlineLevel="1"/>
-    <col min="69" max="69" width="2.8984375" style="146" customWidth="1" outlineLevel="1"/>
-    <col min="70" max="70" width="10.69921875" style="146"/>
+    <col min="69" max="69" width="2.8984375" style="144" customWidth="1" outlineLevel="1"/>
+    <col min="70" max="70" width="10.69921875" style="144"/>
     <col min="71" max="16384" width="10.69921875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:235" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" s="10"/>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
       <c r="H1" s="7"/>
-      <c r="I1" s="163"/>
-      <c r="K1" s="152"/>
-      <c r="R1" s="152"/>
-      <c r="AK1" s="163"/>
-      <c r="BQ1" s="145"/>
-      <c r="BR1" s="145"/>
+      <c r="I1" s="161"/>
+      <c r="K1" s="150"/>
+      <c r="R1" s="150"/>
+      <c r="AK1" s="161"/>
+      <c r="BQ1" s="143"/>
+      <c r="BR1" s="143"/>
     </row>
     <row r="2" spans="1:235" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="132" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
       <c r="E2" s="25"/>
       <c r="F2" s="22"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="163"/>
-      <c r="K2" s="152"/>
-      <c r="R2" s="152"/>
-      <c r="AK2" s="163"/>
-      <c r="BQ2" s="145"/>
-      <c r="BR2" s="145"/>
+      <c r="I2" s="161"/>
+      <c r="K2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="AK2" s="161"/>
+      <c r="BQ2" s="143"/>
+      <c r="BR2" s="143"/>
     </row>
     <row r="3" spans="1:235" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="134" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
       <c r="E3" s="25"/>
       <c r="F3" s="22"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-      <c r="I3" s="163"/>
-      <c r="K3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="AK3" s="163"/>
-      <c r="BQ3" s="145"/>
-      <c r="BR3" s="145"/>
+      <c r="I3" s="161"/>
+      <c r="K3" s="150"/>
+      <c r="R3" s="150"/>
+      <c r="AK3" s="161"/>
+      <c r="BQ3" s="143"/>
+      <c r="BR3" s="143"/>
     </row>
     <row r="4" spans="1:235" s="8" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
@@ -1922,170 +1916,170 @@
       <c r="E4" s="25"/>
       <c r="F4" s="22"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="135"/>
-      <c r="I4" s="163"/>
-      <c r="K4" s="152"/>
-      <c r="R4" s="152"/>
-      <c r="AK4" s="163"/>
-      <c r="BQ4" s="145"/>
-      <c r="BR4" s="145"/>
-      <c r="BZ4" s="92"/>
-      <c r="CA4" s="92"/>
-      <c r="CB4" s="92"/>
-      <c r="CC4" s="92"/>
-      <c r="CD4" s="92"/>
-      <c r="CE4" s="92"/>
-      <c r="CF4" s="92"/>
-      <c r="CG4" s="92"/>
-      <c r="CH4" s="92"/>
-      <c r="CI4" s="92"/>
-      <c r="CJ4" s="92"/>
-      <c r="CK4" s="94"/>
-      <c r="CL4" s="94"/>
-      <c r="CM4" s="94"/>
-      <c r="CN4" s="94"/>
-      <c r="CO4" s="94"/>
-      <c r="CP4" s="94"/>
-      <c r="CQ4" s="94"/>
-      <c r="CR4" s="94"/>
-      <c r="CS4" s="94"/>
-      <c r="CT4" s="94"/>
-      <c r="CU4" s="94"/>
-      <c r="CV4" s="94"/>
-      <c r="CW4" s="94"/>
-      <c r="CX4" s="94"/>
-      <c r="CY4" s="94"/>
-      <c r="CZ4" s="94"/>
-      <c r="DA4" s="94"/>
-      <c r="DB4" s="94"/>
-      <c r="DC4" s="94"/>
-      <c r="DD4" s="94"/>
-      <c r="DE4" s="94"/>
-      <c r="DF4" s="94"/>
-      <c r="DG4" s="94"/>
-      <c r="DH4" s="94"/>
-      <c r="DI4" s="94"/>
-      <c r="DJ4" s="94"/>
-      <c r="DK4" s="94"/>
-      <c r="DL4" s="94"/>
-      <c r="DM4" s="94"/>
-      <c r="DN4" s="94"/>
-      <c r="DO4" s="94"/>
-      <c r="DP4" s="94"/>
-      <c r="DQ4" s="94"/>
-      <c r="DR4" s="94"/>
-      <c r="DS4" s="94"/>
-      <c r="DT4" s="94"/>
-      <c r="DU4" s="94"/>
-      <c r="DV4" s="94"/>
-      <c r="DW4" s="94"/>
-      <c r="DX4" s="94"/>
-      <c r="DY4" s="94"/>
-      <c r="DZ4" s="94"/>
-      <c r="EA4" s="94"/>
-      <c r="EB4" s="94"/>
-      <c r="EC4" s="94"/>
-      <c r="ED4" s="94"/>
-      <c r="EE4" s="94"/>
-      <c r="EF4" s="94"/>
-      <c r="EG4" s="94"/>
-      <c r="EH4" s="94"/>
-      <c r="EI4" s="94"/>
-      <c r="EJ4" s="94"/>
-      <c r="EK4" s="94"/>
-      <c r="EL4" s="94"/>
-      <c r="EM4" s="94"/>
-      <c r="EN4" s="94"/>
-      <c r="EO4" s="94"/>
-      <c r="EP4" s="94"/>
-      <c r="EQ4" s="94"/>
-      <c r="ER4" s="94"/>
-      <c r="ES4" s="94"/>
-      <c r="ET4" s="94"/>
-      <c r="EU4" s="94"/>
-      <c r="EV4" s="94"/>
-      <c r="EW4" s="94"/>
-      <c r="EX4" s="94"/>
-      <c r="EY4" s="94"/>
-      <c r="EZ4" s="94"/>
-      <c r="FA4" s="94"/>
-      <c r="FB4" s="94"/>
-      <c r="FC4" s="94"/>
-      <c r="FD4" s="94"/>
-      <c r="FE4" s="94"/>
-      <c r="FF4" s="94"/>
-      <c r="FG4" s="94"/>
-      <c r="FH4" s="94"/>
-      <c r="FI4" s="94"/>
-      <c r="FJ4" s="94"/>
-      <c r="FK4" s="94"/>
-      <c r="FL4" s="94"/>
-      <c r="FM4" s="94"/>
-      <c r="FN4" s="94"/>
-      <c r="FO4" s="94"/>
-      <c r="FP4" s="94"/>
-      <c r="FQ4" s="94"/>
-      <c r="FR4" s="94"/>
-      <c r="FS4" s="94"/>
-      <c r="FT4" s="94"/>
-      <c r="FU4" s="94"/>
-      <c r="FV4" s="94"/>
-      <c r="FW4" s="94"/>
-      <c r="FX4" s="94"/>
-      <c r="FY4" s="94"/>
-      <c r="FZ4" s="94"/>
-      <c r="GA4" s="94"/>
-      <c r="GB4" s="94"/>
-      <c r="GC4" s="94"/>
-      <c r="GD4" s="94"/>
-      <c r="GE4" s="94"/>
-      <c r="GF4" s="94"/>
-      <c r="GG4" s="94"/>
-      <c r="GH4" s="94"/>
-      <c r="GI4" s="94"/>
-      <c r="GJ4" s="94"/>
-      <c r="GK4" s="94"/>
-      <c r="GL4" s="94"/>
-      <c r="GM4" s="94"/>
-      <c r="GN4" s="94"/>
-      <c r="GO4" s="94"/>
-      <c r="GP4" s="94"/>
-      <c r="GQ4" s="94"/>
-      <c r="GR4" s="94"/>
-      <c r="GS4" s="94"/>
-      <c r="GT4" s="94"/>
-      <c r="GU4" s="94"/>
-      <c r="GV4" s="94"/>
-      <c r="GW4" s="94"/>
-      <c r="GX4" s="94"/>
-      <c r="GY4" s="94"/>
-      <c r="GZ4" s="94"/>
-      <c r="HA4" s="94"/>
-      <c r="HB4" s="94"/>
-      <c r="HC4" s="94"/>
-      <c r="HD4" s="94"/>
-      <c r="HE4" s="94"/>
-      <c r="HF4" s="94"/>
-      <c r="HG4" s="94"/>
-      <c r="HH4" s="94"/>
-      <c r="HI4" s="94"/>
-      <c r="HJ4" s="94"/>
-      <c r="HK4" s="94"/>
-      <c r="HL4" s="94"/>
-      <c r="HM4" s="94"/>
-      <c r="HN4" s="94"/>
-      <c r="HO4" s="94"/>
-      <c r="HP4" s="94"/>
-      <c r="HQ4" s="94"/>
-      <c r="HR4" s="94"/>
-      <c r="HS4" s="94"/>
-      <c r="HT4" s="94"/>
-      <c r="HU4" s="94"/>
-      <c r="HV4" s="94"/>
-      <c r="HW4" s="94"/>
-      <c r="HX4" s="94"/>
-      <c r="HY4" s="94"/>
-      <c r="HZ4" s="94"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="161"/>
+      <c r="K4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="AK4" s="161"/>
+      <c r="BQ4" s="143"/>
+      <c r="BR4" s="143"/>
+      <c r="BZ4" s="90"/>
+      <c r="CA4" s="90"/>
+      <c r="CB4" s="90"/>
+      <c r="CC4" s="90"/>
+      <c r="CD4" s="90"/>
+      <c r="CE4" s="90"/>
+      <c r="CF4" s="90"/>
+      <c r="CG4" s="90"/>
+      <c r="CH4" s="90"/>
+      <c r="CI4" s="90"/>
+      <c r="CJ4" s="90"/>
+      <c r="CK4" s="92"/>
+      <c r="CL4" s="92"/>
+      <c r="CM4" s="92"/>
+      <c r="CN4" s="92"/>
+      <c r="CO4" s="92"/>
+      <c r="CP4" s="92"/>
+      <c r="CQ4" s="92"/>
+      <c r="CR4" s="92"/>
+      <c r="CS4" s="92"/>
+      <c r="CT4" s="92"/>
+      <c r="CU4" s="92"/>
+      <c r="CV4" s="92"/>
+      <c r="CW4" s="92"/>
+      <c r="CX4" s="92"/>
+      <c r="CY4" s="92"/>
+      <c r="CZ4" s="92"/>
+      <c r="DA4" s="92"/>
+      <c r="DB4" s="92"/>
+      <c r="DC4" s="92"/>
+      <c r="DD4" s="92"/>
+      <c r="DE4" s="92"/>
+      <c r="DF4" s="92"/>
+      <c r="DG4" s="92"/>
+      <c r="DH4" s="92"/>
+      <c r="DI4" s="92"/>
+      <c r="DJ4" s="92"/>
+      <c r="DK4" s="92"/>
+      <c r="DL4" s="92"/>
+      <c r="DM4" s="92"/>
+      <c r="DN4" s="92"/>
+      <c r="DO4" s="92"/>
+      <c r="DP4" s="92"/>
+      <c r="DQ4" s="92"/>
+      <c r="DR4" s="92"/>
+      <c r="DS4" s="92"/>
+      <c r="DT4" s="92"/>
+      <c r="DU4" s="92"/>
+      <c r="DV4" s="92"/>
+      <c r="DW4" s="92"/>
+      <c r="DX4" s="92"/>
+      <c r="DY4" s="92"/>
+      <c r="DZ4" s="92"/>
+      <c r="EA4" s="92"/>
+      <c r="EB4" s="92"/>
+      <c r="EC4" s="92"/>
+      <c r="ED4" s="92"/>
+      <c r="EE4" s="92"/>
+      <c r="EF4" s="92"/>
+      <c r="EG4" s="92"/>
+      <c r="EH4" s="92"/>
+      <c r="EI4" s="92"/>
+      <c r="EJ4" s="92"/>
+      <c r="EK4" s="92"/>
+      <c r="EL4" s="92"/>
+      <c r="EM4" s="92"/>
+      <c r="EN4" s="92"/>
+      <c r="EO4" s="92"/>
+      <c r="EP4" s="92"/>
+      <c r="EQ4" s="92"/>
+      <c r="ER4" s="92"/>
+      <c r="ES4" s="92"/>
+      <c r="ET4" s="92"/>
+      <c r="EU4" s="92"/>
+      <c r="EV4" s="92"/>
+      <c r="EW4" s="92"/>
+      <c r="EX4" s="92"/>
+      <c r="EY4" s="92"/>
+      <c r="EZ4" s="92"/>
+      <c r="FA4" s="92"/>
+      <c r="FB4" s="92"/>
+      <c r="FC4" s="92"/>
+      <c r="FD4" s="92"/>
+      <c r="FE4" s="92"/>
+      <c r="FF4" s="92"/>
+      <c r="FG4" s="92"/>
+      <c r="FH4" s="92"/>
+      <c r="FI4" s="92"/>
+      <c r="FJ4" s="92"/>
+      <c r="FK4" s="92"/>
+      <c r="FL4" s="92"/>
+      <c r="FM4" s="92"/>
+      <c r="FN4" s="92"/>
+      <c r="FO4" s="92"/>
+      <c r="FP4" s="92"/>
+      <c r="FQ4" s="92"/>
+      <c r="FR4" s="92"/>
+      <c r="FS4" s="92"/>
+      <c r="FT4" s="92"/>
+      <c r="FU4" s="92"/>
+      <c r="FV4" s="92"/>
+      <c r="FW4" s="92"/>
+      <c r="FX4" s="92"/>
+      <c r="FY4" s="92"/>
+      <c r="FZ4" s="92"/>
+      <c r="GA4" s="92"/>
+      <c r="GB4" s="92"/>
+      <c r="GC4" s="92"/>
+      <c r="GD4" s="92"/>
+      <c r="GE4" s="92"/>
+      <c r="GF4" s="92"/>
+      <c r="GG4" s="92"/>
+      <c r="GH4" s="92"/>
+      <c r="GI4" s="92"/>
+      <c r="GJ4" s="92"/>
+      <c r="GK4" s="92"/>
+      <c r="GL4" s="92"/>
+      <c r="GM4" s="92"/>
+      <c r="GN4" s="92"/>
+      <c r="GO4" s="92"/>
+      <c r="GP4" s="92"/>
+      <c r="GQ4" s="92"/>
+      <c r="GR4" s="92"/>
+      <c r="GS4" s="92"/>
+      <c r="GT4" s="92"/>
+      <c r="GU4" s="92"/>
+      <c r="GV4" s="92"/>
+      <c r="GW4" s="92"/>
+      <c r="GX4" s="92"/>
+      <c r="GY4" s="92"/>
+      <c r="GZ4" s="92"/>
+      <c r="HA4" s="92"/>
+      <c r="HB4" s="92"/>
+      <c r="HC4" s="92"/>
+      <c r="HD4" s="92"/>
+      <c r="HE4" s="92"/>
+      <c r="HF4" s="92"/>
+      <c r="HG4" s="92"/>
+      <c r="HH4" s="92"/>
+      <c r="HI4" s="92"/>
+      <c r="HJ4" s="92"/>
+      <c r="HK4" s="92"/>
+      <c r="HL4" s="92"/>
+      <c r="HM4" s="92"/>
+      <c r="HN4" s="92"/>
+      <c r="HO4" s="92"/>
+      <c r="HP4" s="92"/>
+      <c r="HQ4" s="92"/>
+      <c r="HR4" s="92"/>
+      <c r="HS4" s="92"/>
+      <c r="HT4" s="92"/>
+      <c r="HU4" s="92"/>
+      <c r="HV4" s="92"/>
+      <c r="HW4" s="92"/>
+      <c r="HX4" s="92"/>
+      <c r="HY4" s="92"/>
+      <c r="HZ4" s="92"/>
     </row>
     <row r="5" spans="1:235" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
@@ -2096,92 +2090,92 @@
       <c r="F5" s="23"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="164"/>
-      <c r="K5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="AK5" s="164"/>
+      <c r="I5" s="162"/>
+      <c r="K5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="AK5" s="162"/>
     </row>
     <row r="6" spans="1:235" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="179" t="s">
+      <c r="B6" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="179" t="s">
+      <c r="C6" s="177" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="181" t="s">
+      <c r="D6" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="181" t="s">
+      <c r="E6" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="183"/>
-      <c r="G6" s="183"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="176" t="s">
+      <c r="F6" s="181"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="177"/>
-      <c r="K6" s="177"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="177"/>
-      <c r="N6" s="177"/>
-      <c r="O6" s="177"/>
-      <c r="P6" s="177"/>
-      <c r="Q6" s="177"/>
-      <c r="R6" s="177"/>
-      <c r="S6" s="177"/>
-      <c r="T6" s="177"/>
-      <c r="U6" s="177"/>
-      <c r="V6" s="177"/>
-      <c r="W6" s="177"/>
-      <c r="X6" s="177"/>
-      <c r="Y6" s="177"/>
-      <c r="Z6" s="177"/>
-      <c r="AA6" s="177"/>
-      <c r="AB6" s="177"/>
-      <c r="AC6" s="177"/>
-      <c r="AD6" s="177"/>
-      <c r="AE6" s="177"/>
-      <c r="AF6" s="177"/>
-      <c r="AG6" s="177"/>
-      <c r="AH6" s="177"/>
-      <c r="AI6" s="177"/>
-      <c r="AJ6" s="177"/>
-      <c r="AK6" s="177"/>
-      <c r="AL6" s="177"/>
-      <c r="AM6" s="178"/>
-      <c r="AN6" s="176" t="s">
+      <c r="J6" s="175"/>
+      <c r="K6" s="175"/>
+      <c r="L6" s="175"/>
+      <c r="M6" s="175"/>
+      <c r="N6" s="175"/>
+      <c r="O6" s="175"/>
+      <c r="P6" s="175"/>
+      <c r="Q6" s="175"/>
+      <c r="R6" s="175"/>
+      <c r="S6" s="175"/>
+      <c r="T6" s="175"/>
+      <c r="U6" s="175"/>
+      <c r="V6" s="175"/>
+      <c r="W6" s="175"/>
+      <c r="X6" s="175"/>
+      <c r="Y6" s="175"/>
+      <c r="Z6" s="175"/>
+      <c r="AA6" s="175"/>
+      <c r="AB6" s="175"/>
+      <c r="AC6" s="175"/>
+      <c r="AD6" s="175"/>
+      <c r="AE6" s="175"/>
+      <c r="AF6" s="175"/>
+      <c r="AG6" s="175"/>
+      <c r="AH6" s="175"/>
+      <c r="AI6" s="175"/>
+      <c r="AJ6" s="175"/>
+      <c r="AK6" s="175"/>
+      <c r="AL6" s="175"/>
+      <c r="AM6" s="176"/>
+      <c r="AN6" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="AO6" s="177"/>
-      <c r="AP6" s="177"/>
-      <c r="AQ6" s="177"/>
-      <c r="AR6" s="177"/>
-      <c r="AS6" s="177"/>
-      <c r="AT6" s="177"/>
-      <c r="AU6" s="177"/>
-      <c r="AV6" s="177"/>
-      <c r="AW6" s="177"/>
-      <c r="AX6" s="177"/>
-      <c r="AY6" s="177"/>
-      <c r="AZ6" s="177"/>
-      <c r="BA6" s="177"/>
-      <c r="BB6" s="177"/>
-      <c r="BC6" s="177"/>
-      <c r="BD6" s="177"/>
-      <c r="BE6" s="177"/>
-      <c r="BF6" s="177"/>
-      <c r="BG6" s="177"/>
-      <c r="BH6" s="177"/>
-      <c r="BI6" s="177"/>
-      <c r="BJ6" s="177"/>
-      <c r="BK6" s="177"/>
-      <c r="BL6" s="177"/>
-      <c r="BM6" s="177"/>
-      <c r="BN6" s="177"/>
-      <c r="BO6" s="177"/>
-      <c r="BP6" s="177"/>
-      <c r="BQ6" s="178"/>
+      <c r="AO6" s="175"/>
+      <c r="AP6" s="175"/>
+      <c r="AQ6" s="175"/>
+      <c r="AR6" s="175"/>
+      <c r="AS6" s="175"/>
+      <c r="AT6" s="175"/>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="175"/>
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="175"/>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="175"/>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="175"/>
+      <c r="BC6" s="175"/>
+      <c r="BD6" s="175"/>
+      <c r="BE6" s="175"/>
+      <c r="BF6" s="175"/>
+      <c r="BG6" s="175"/>
+      <c r="BH6" s="175"/>
+      <c r="BI6" s="175"/>
+      <c r="BJ6" s="175"/>
+      <c r="BK6" s="175"/>
+      <c r="BL6" s="175"/>
+      <c r="BM6" s="175"/>
+      <c r="BN6" s="175"/>
+      <c r="BO6" s="175"/>
+      <c r="BP6" s="175"/>
+      <c r="BQ6" s="176"/>
       <c r="BZ6" s="49"/>
       <c r="CA6" s="49"/>
       <c r="CB6" s="49"/>
@@ -2341,10 +2335,10 @@
       <c r="HZ6" s="6"/>
     </row>
     <row r="7" spans="1:235" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="180"/>
-      <c r="C7" s="180"/>
-      <c r="D7" s="182"/>
-      <c r="E7" s="147" t="s">
+      <c r="B7" s="178"/>
+      <c r="C7" s="178"/>
+      <c r="D7" s="180"/>
+      <c r="E7" s="145" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="51" t="s">
@@ -2356,187 +2350,187 @@
       <c r="H7" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="171">
+      <c r="I7" s="169">
         <v>44044</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="70">
         <v>44045</v>
       </c>
-      <c r="K7" s="172">
+      <c r="K7" s="170">
         <v>44046</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="70">
         <v>44047</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="70">
         <v>44048</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="70">
         <v>44049</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="70">
         <v>44050</v>
       </c>
-      <c r="P7" s="71">
+      <c r="P7" s="70">
         <v>44051</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="70">
         <v>44052</v>
       </c>
-      <c r="R7" s="172">
+      <c r="R7" s="170">
         <v>44053</v>
       </c>
-      <c r="S7" s="71">
+      <c r="S7" s="70">
         <v>44054</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="72">
         <v>44055</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="72">
         <v>44056</v>
       </c>
-      <c r="V7" s="73">
+      <c r="V7" s="72">
         <v>44057</v>
       </c>
-      <c r="W7" s="71">
+      <c r="W7" s="70">
         <v>44058</v>
       </c>
-      <c r="X7" s="71">
+      <c r="X7" s="70">
         <v>44059</v>
       </c>
-      <c r="Y7" s="71">
+      <c r="Y7" s="70">
         <v>44060</v>
       </c>
-      <c r="Z7" s="71">
+      <c r="Z7" s="70">
         <v>44061</v>
       </c>
-      <c r="AA7" s="71">
+      <c r="AA7" s="70">
         <v>44062</v>
       </c>
-      <c r="AB7" s="71">
+      <c r="AB7" s="70">
         <v>44063</v>
       </c>
-      <c r="AC7" s="71">
+      <c r="AC7" s="70">
         <v>44064</v>
       </c>
-      <c r="AD7" s="71">
+      <c r="AD7" s="70">
         <v>44065</v>
       </c>
-      <c r="AE7" s="71">
+      <c r="AE7" s="70">
         <v>44066</v>
       </c>
-      <c r="AF7" s="71">
+      <c r="AF7" s="70">
         <v>44067</v>
       </c>
-      <c r="AG7" s="71">
+      <c r="AG7" s="70">
         <v>44068</v>
       </c>
-      <c r="AH7" s="71">
+      <c r="AH7" s="70">
         <v>44069</v>
       </c>
-      <c r="AI7" s="71">
+      <c r="AI7" s="70">
         <v>44070</v>
       </c>
-      <c r="AJ7" s="71">
+      <c r="AJ7" s="70">
         <v>44071</v>
       </c>
-      <c r="AK7" s="171">
+      <c r="AK7" s="169">
         <v>44072</v>
       </c>
-      <c r="AL7" s="71">
+      <c r="AL7" s="70">
         <v>44073</v>
       </c>
-      <c r="AM7" s="71">
+      <c r="AM7" s="70">
         <v>44074</v>
       </c>
-      <c r="AN7" s="71">
+      <c r="AN7" s="70">
         <v>44075</v>
       </c>
-      <c r="AO7" s="73">
+      <c r="AO7" s="72">
         <v>44076</v>
       </c>
-      <c r="AP7" s="71">
+      <c r="AP7" s="70">
         <v>44077</v>
       </c>
-      <c r="AQ7" s="71">
+      <c r="AQ7" s="70">
         <v>44078</v>
       </c>
-      <c r="AR7" s="71">
+      <c r="AR7" s="70">
         <v>44079</v>
       </c>
-      <c r="AS7" s="71">
+      <c r="AS7" s="70">
         <v>44080</v>
       </c>
-      <c r="AT7" s="71">
+      <c r="AT7" s="70">
         <v>44081</v>
       </c>
-      <c r="AU7" s="71">
+      <c r="AU7" s="70">
         <v>44082</v>
       </c>
-      <c r="AV7" s="71">
+      <c r="AV7" s="70">
         <v>44083</v>
       </c>
-      <c r="AW7" s="71">
+      <c r="AW7" s="70">
         <v>44084</v>
       </c>
-      <c r="AX7" s="71">
+      <c r="AX7" s="70">
         <v>44085</v>
       </c>
-      <c r="AY7" s="71">
+      <c r="AY7" s="70">
         <v>44086</v>
       </c>
-      <c r="AZ7" s="71">
+      <c r="AZ7" s="70">
         <v>44087</v>
       </c>
-      <c r="BA7" s="71">
+      <c r="BA7" s="70">
         <v>44088</v>
       </c>
-      <c r="BB7" s="71">
+      <c r="BB7" s="70">
         <v>44089</v>
       </c>
-      <c r="BC7" s="71">
+      <c r="BC7" s="70">
         <v>44090</v>
       </c>
-      <c r="BD7" s="71">
+      <c r="BD7" s="70">
         <v>44091</v>
       </c>
-      <c r="BE7" s="71">
+      <c r="BE7" s="70">
         <v>44092</v>
       </c>
-      <c r="BF7" s="71">
+      <c r="BF7" s="70">
         <v>44093</v>
       </c>
-      <c r="BG7" s="71">
+      <c r="BG7" s="70">
         <v>44094</v>
       </c>
-      <c r="BH7" s="71">
+      <c r="BH7" s="70">
         <v>44095</v>
       </c>
-      <c r="BI7" s="71">
+      <c r="BI7" s="70">
         <v>44096</v>
       </c>
-      <c r="BJ7" s="71">
+      <c r="BJ7" s="70">
         <v>44097</v>
       </c>
-      <c r="BK7" s="71">
+      <c r="BK7" s="70">
         <v>44098</v>
       </c>
-      <c r="BL7" s="71">
+      <c r="BL7" s="70">
         <v>44099</v>
       </c>
-      <c r="BM7" s="71">
+      <c r="BM7" s="70">
         <v>44100</v>
       </c>
-      <c r="BN7" s="71">
+      <c r="BN7" s="70">
         <v>44101</v>
       </c>
-      <c r="BO7" s="71">
+      <c r="BO7" s="70">
         <v>44102</v>
       </c>
-      <c r="BP7" s="71">
+      <c r="BP7" s="70">
         <v>44103</v>
       </c>
-      <c r="BQ7" s="141">
+      <c r="BQ7" s="139">
         <v>44104</v>
       </c>
       <c r="BZ7" s="49"/>
@@ -2697,86 +2691,86 @@
       <c r="HY7" s="6"/>
       <c r="HZ7" s="6"/>
     </row>
-    <row r="8" spans="1:235" s="85" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:235" s="83" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="67" t="s">
+      <c r="D8" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="68">
+      <c r="E8" s="67">
         <v>44053</v>
       </c>
-      <c r="F8" s="68">
+      <c r="F8" s="67">
         <v>44056</v>
       </c>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="2"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="154"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
+      <c r="K8" s="152"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="154"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
-      <c r="U8" s="86"/>
-      <c r="V8" s="86"/>
+      <c r="R8" s="152"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
       <c r="W8" s="2"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="86"/>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="86"/>
-      <c r="AB8" s="86"/>
-      <c r="AC8" s="86"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
       <c r="AD8" s="2"/>
       <c r="AE8" s="1"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
-      <c r="AI8" s="86"/>
-      <c r="AJ8" s="86"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="84"/>
       <c r="AK8" s="2"/>
       <c r="AL8" s="1"/>
-      <c r="AM8" s="86"/>
-      <c r="AN8" s="86"/>
-      <c r="AO8" s="86"/>
-      <c r="AP8" s="86"/>
-      <c r="AQ8" s="86"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
       <c r="AR8" s="2"/>
       <c r="AS8" s="1"/>
-      <c r="AT8" s="86"/>
-      <c r="AU8" s="86"/>
-      <c r="AV8" s="86"/>
-      <c r="AW8" s="86"/>
-      <c r="AX8" s="86"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="84"/>
       <c r="AY8" s="2"/>
       <c r="AZ8" s="1"/>
-      <c r="BA8" s="86"/>
-      <c r="BB8" s="86"/>
-      <c r="BC8" s="86"/>
-      <c r="BD8" s="86"/>
-      <c r="BE8" s="86"/>
+      <c r="BA8" s="84"/>
+      <c r="BB8" s="84"/>
+      <c r="BC8" s="84"/>
+      <c r="BD8" s="84"/>
+      <c r="BE8" s="84"/>
       <c r="BF8" s="2"/>
       <c r="BG8" s="1"/>
-      <c r="BH8" s="86"/>
-      <c r="BI8" s="86"/>
-      <c r="BJ8" s="86"/>
-      <c r="BK8" s="86"/>
-      <c r="BL8" s="86"/>
+      <c r="BH8" s="84"/>
+      <c r="BI8" s="84"/>
+      <c r="BJ8" s="84"/>
+      <c r="BK8" s="84"/>
+      <c r="BL8" s="84"/>
       <c r="BM8" s="2"/>
       <c r="BN8" s="1"/>
-      <c r="BO8" s="86"/>
-      <c r="BP8" s="86"/>
-      <c r="BQ8" s="138"/>
+      <c r="BO8" s="84"/>
+      <c r="BP8" s="84"/>
+      <c r="BQ8" s="136"/>
       <c r="BR8" s="6"/>
       <c r="BS8" s="6"/>
       <c r="BT8" s="6"/>
@@ -2942,7 +2936,7 @@
       <c r="HX8" s="6"/>
       <c r="HY8" s="6"/>
       <c r="HZ8" s="6"/>
-      <c r="IA8" s="87"/>
+      <c r="IA8" s="85"/>
     </row>
     <row r="9" spans="1:235" s="54" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
@@ -2955,75 +2949,75 @@
       <c r="D9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="69">
+      <c r="E9" s="68">
         <v>44053</v>
       </c>
-      <c r="F9" s="69">
+      <c r="F9" s="68">
         <v>44054</v>
       </c>
       <c r="G9" s="55"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="155"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="173"/>
+      <c r="K9" s="153"/>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
       <c r="N9" s="56"/>
       <c r="O9" s="56"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="175"/>
-      <c r="R9" s="155"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="173"/>
+      <c r="R9" s="153"/>
       <c r="S9" s="56"/>
       <c r="T9" s="56"/>
       <c r="U9" s="56"/>
       <c r="V9" s="56"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="175"/>
+      <c r="W9" s="172"/>
+      <c r="X9" s="173"/>
       <c r="Y9" s="56"/>
       <c r="Z9" s="56"/>
       <c r="AA9" s="56"/>
       <c r="AB9" s="56"/>
       <c r="AC9" s="56"/>
-      <c r="AD9" s="174"/>
-      <c r="AE9" s="175"/>
+      <c r="AD9" s="172"/>
+      <c r="AE9" s="173"/>
       <c r="AF9" s="56"/>
       <c r="AG9" s="56"/>
       <c r="AH9" s="56"/>
       <c r="AI9" s="56"/>
       <c r="AJ9" s="56"/>
-      <c r="AK9" s="174"/>
-      <c r="AL9" s="175"/>
+      <c r="AK9" s="172"/>
+      <c r="AL9" s="173"/>
       <c r="AM9" s="56"/>
       <c r="AN9" s="56"/>
       <c r="AO9" s="56"/>
       <c r="AP9" s="56"/>
       <c r="AQ9" s="56"/>
-      <c r="AR9" s="174"/>
-      <c r="AS9" s="175"/>
+      <c r="AR9" s="172"/>
+      <c r="AS9" s="173"/>
       <c r="AT9" s="56"/>
       <c r="AU9" s="56"/>
       <c r="AV9" s="56"/>
       <c r="AW9" s="56"/>
       <c r="AX9" s="56"/>
-      <c r="AY9" s="174"/>
-      <c r="AZ9" s="175"/>
+      <c r="AY9" s="172"/>
+      <c r="AZ9" s="173"/>
       <c r="BA9" s="56"/>
       <c r="BB9" s="56"/>
       <c r="BC9" s="56"/>
       <c r="BD9" s="56"/>
       <c r="BE9" s="56"/>
-      <c r="BF9" s="174"/>
-      <c r="BG9" s="175"/>
+      <c r="BF9" s="172"/>
+      <c r="BG9" s="173"/>
       <c r="BH9" s="56"/>
       <c r="BI9" s="56"/>
       <c r="BJ9" s="56"/>
       <c r="BK9" s="56"/>
       <c r="BL9" s="56"/>
-      <c r="BM9" s="174"/>
-      <c r="BN9" s="175"/>
+      <c r="BM9" s="172"/>
+      <c r="BN9" s="173"/>
       <c r="BO9" s="56"/>
       <c r="BP9" s="56"/>
-      <c r="BQ9" s="139"/>
+      <c r="BQ9" s="137"/>
       <c r="BR9" s="6"/>
       <c r="BS9" s="6"/>
       <c r="BT9" s="6"/>
@@ -3189,7 +3183,7 @@
       <c r="HX9" s="6"/>
       <c r="HY9" s="6"/>
       <c r="HZ9" s="6"/>
-      <c r="IA9" s="63"/>
+      <c r="IA9" s="62"/>
     </row>
     <row r="10" spans="1:235" s="58" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
@@ -3208,73 +3202,73 @@
       <c r="F10" s="31">
         <v>44053</v>
       </c>
-      <c r="G10" s="148">
+      <c r="G10" s="146">
         <v>1</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="174"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="156"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="173"/>
+      <c r="K10" s="154"/>
       <c r="L10" s="57"/>
       <c r="M10" s="57"/>
       <c r="N10" s="57"/>
       <c r="O10" s="57"/>
-      <c r="P10" s="174"/>
-      <c r="Q10" s="175"/>
-      <c r="R10" s="168"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="173"/>
+      <c r="R10" s="166"/>
       <c r="S10" s="57"/>
       <c r="T10" s="57"/>
       <c r="U10" s="57"/>
       <c r="V10" s="57"/>
-      <c r="W10" s="174"/>
-      <c r="X10" s="175"/>
+      <c r="W10" s="172"/>
+      <c r="X10" s="173"/>
       <c r="Y10" s="57"/>
       <c r="Z10" s="57"/>
       <c r="AA10" s="57"/>
       <c r="AB10" s="57"/>
       <c r="AC10" s="57"/>
-      <c r="AD10" s="174"/>
-      <c r="AE10" s="175"/>
+      <c r="AD10" s="172"/>
+      <c r="AE10" s="173"/>
       <c r="AF10" s="57"/>
       <c r="AG10" s="57"/>
       <c r="AH10" s="57"/>
       <c r="AI10" s="57"/>
       <c r="AJ10" s="57"/>
-      <c r="AK10" s="174"/>
-      <c r="AL10" s="175"/>
+      <c r="AK10" s="172"/>
+      <c r="AL10" s="173"/>
       <c r="AM10" s="57"/>
       <c r="AN10" s="57"/>
       <c r="AO10" s="57"/>
       <c r="AP10" s="57"/>
       <c r="AQ10" s="57"/>
-      <c r="AR10" s="174"/>
-      <c r="AS10" s="175"/>
+      <c r="AR10" s="172"/>
+      <c r="AS10" s="173"/>
       <c r="AT10" s="57"/>
       <c r="AU10" s="57"/>
       <c r="AV10" s="57"/>
       <c r="AW10" s="57"/>
       <c r="AX10" s="57"/>
-      <c r="AY10" s="174"/>
-      <c r="AZ10" s="175"/>
+      <c r="AY10" s="172"/>
+      <c r="AZ10" s="173"/>
       <c r="BA10" s="57"/>
       <c r="BB10" s="57"/>
       <c r="BC10" s="57"/>
       <c r="BD10" s="57"/>
       <c r="BE10" s="57"/>
-      <c r="BF10" s="174"/>
-      <c r="BG10" s="175"/>
+      <c r="BF10" s="172"/>
+      <c r="BG10" s="173"/>
       <c r="BH10" s="57"/>
       <c r="BI10" s="57"/>
       <c r="BJ10" s="57"/>
       <c r="BK10" s="57"/>
       <c r="BL10" s="57"/>
-      <c r="BM10" s="174"/>
-      <c r="BN10" s="175"/>
+      <c r="BM10" s="172"/>
+      <c r="BN10" s="173"/>
       <c r="BO10" s="57"/>
       <c r="BP10" s="57"/>
-      <c r="BQ10" s="140"/>
+      <c r="BQ10" s="138"/>
       <c r="BR10" s="6"/>
       <c r="BS10" s="6"/>
       <c r="BT10" s="6"/>
@@ -3440,7 +3434,7 @@
       <c r="HX10" s="6"/>
       <c r="HY10" s="6"/>
       <c r="HZ10" s="6"/>
-      <c r="IA10" s="64"/>
+      <c r="IA10" s="63"/>
     </row>
     <row r="11" spans="1:235" s="58" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
@@ -3459,73 +3453,73 @@
       <c r="F11" s="31">
         <v>44054</v>
       </c>
-      <c r="G11" s="148">
+      <c r="G11" s="146">
         <v>1</v>
       </c>
-      <c r="H11" s="80" t="s">
+      <c r="H11" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="I11" s="174"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="156"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="173"/>
+      <c r="K11" s="154"/>
       <c r="L11" s="57"/>
       <c r="M11" s="57"/>
       <c r="N11" s="57"/>
       <c r="O11" s="57"/>
-      <c r="P11" s="174"/>
-      <c r="Q11" s="175"/>
-      <c r="R11" s="159"/>
-      <c r="S11" s="72"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="157"/>
+      <c r="S11" s="71"/>
       <c r="T11" s="57"/>
       <c r="U11" s="57"/>
       <c r="V11" s="57"/>
-      <c r="W11" s="174"/>
-      <c r="X11" s="175"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="173"/>
       <c r="Y11" s="57"/>
       <c r="Z11" s="57"/>
       <c r="AA11" s="57"/>
       <c r="AB11" s="57"/>
       <c r="AC11" s="57"/>
-      <c r="AD11" s="174"/>
-      <c r="AE11" s="175"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="173"/>
       <c r="AF11" s="57"/>
       <c r="AG11" s="57"/>
       <c r="AH11" s="57"/>
       <c r="AI11" s="57"/>
       <c r="AJ11" s="57"/>
-      <c r="AK11" s="174"/>
-      <c r="AL11" s="175"/>
+      <c r="AK11" s="172"/>
+      <c r="AL11" s="173"/>
       <c r="AM11" s="57"/>
       <c r="AN11" s="57"/>
       <c r="AO11" s="57"/>
       <c r="AP11" s="57"/>
       <c r="AQ11" s="57"/>
-      <c r="AR11" s="174"/>
-      <c r="AS11" s="175"/>
+      <c r="AR11" s="172"/>
+      <c r="AS11" s="173"/>
       <c r="AT11" s="57"/>
       <c r="AU11" s="57"/>
       <c r="AV11" s="57"/>
       <c r="AW11" s="57"/>
       <c r="AX11" s="57"/>
-      <c r="AY11" s="174"/>
-      <c r="AZ11" s="175"/>
+      <c r="AY11" s="172"/>
+      <c r="AZ11" s="173"/>
       <c r="BA11" s="57"/>
       <c r="BB11" s="57"/>
       <c r="BC11" s="57"/>
       <c r="BD11" s="57"/>
       <c r="BE11" s="57"/>
-      <c r="BF11" s="174"/>
-      <c r="BG11" s="175"/>
+      <c r="BF11" s="172"/>
+      <c r="BG11" s="173"/>
       <c r="BH11" s="57"/>
       <c r="BI11" s="57"/>
       <c r="BJ11" s="57"/>
       <c r="BK11" s="57"/>
       <c r="BL11" s="57"/>
-      <c r="BM11" s="174"/>
-      <c r="BN11" s="175"/>
+      <c r="BM11" s="172"/>
+      <c r="BN11" s="173"/>
       <c r="BO11" s="57"/>
       <c r="BP11" s="57"/>
-      <c r="BQ11" s="140"/>
+      <c r="BQ11" s="138"/>
       <c r="BR11" s="6"/>
       <c r="BS11" s="6"/>
       <c r="BT11" s="6"/>
@@ -3691,7 +3685,7 @@
       <c r="HX11" s="6"/>
       <c r="HY11" s="6"/>
       <c r="HZ11" s="6"/>
-      <c r="IA11" s="64"/>
+      <c r="IA11" s="63"/>
     </row>
     <row r="12" spans="1:235" s="58" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -3710,73 +3704,73 @@
       <c r="F12" s="31">
         <v>44054</v>
       </c>
-      <c r="G12" s="148">
+      <c r="G12" s="146">
         <v>1</v>
       </c>
-      <c r="H12" s="80" t="s">
+      <c r="H12" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="I12" s="174"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="156"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="154"/>
       <c r="L12" s="57"/>
       <c r="M12" s="57"/>
       <c r="N12" s="57"/>
       <c r="O12" s="57"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="175"/>
-      <c r="R12" s="156"/>
-      <c r="S12" s="72"/>
+      <c r="P12" s="172"/>
+      <c r="Q12" s="173"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="71"/>
       <c r="T12" s="57"/>
       <c r="U12" s="57"/>
       <c r="V12" s="57"/>
-      <c r="W12" s="174"/>
-      <c r="X12" s="175"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="173"/>
       <c r="Y12" s="57"/>
       <c r="Z12" s="57"/>
       <c r="AA12" s="57"/>
       <c r="AB12" s="57"/>
       <c r="AC12" s="57"/>
-      <c r="AD12" s="174"/>
-      <c r="AE12" s="175"/>
+      <c r="AD12" s="172"/>
+      <c r="AE12" s="173"/>
       <c r="AF12" s="57"/>
       <c r="AG12" s="57"/>
       <c r="AH12" s="57"/>
       <c r="AI12" s="57"/>
       <c r="AJ12" s="57"/>
-      <c r="AK12" s="174"/>
-      <c r="AL12" s="175"/>
+      <c r="AK12" s="172"/>
+      <c r="AL12" s="173"/>
       <c r="AM12" s="57"/>
       <c r="AN12" s="57"/>
       <c r="AO12" s="57"/>
       <c r="AP12" s="57"/>
       <c r="AQ12" s="57"/>
-      <c r="AR12" s="174"/>
-      <c r="AS12" s="175"/>
+      <c r="AR12" s="172"/>
+      <c r="AS12" s="173"/>
       <c r="AT12" s="57"/>
       <c r="AU12" s="57"/>
       <c r="AV12" s="57"/>
       <c r="AW12" s="57"/>
       <c r="AX12" s="57"/>
-      <c r="AY12" s="174"/>
-      <c r="AZ12" s="175"/>
+      <c r="AY12" s="172"/>
+      <c r="AZ12" s="173"/>
       <c r="BA12" s="57"/>
       <c r="BB12" s="57"/>
       <c r="BC12" s="57"/>
       <c r="BD12" s="57"/>
       <c r="BE12" s="57"/>
-      <c r="BF12" s="174"/>
-      <c r="BG12" s="175"/>
+      <c r="BF12" s="172"/>
+      <c r="BG12" s="173"/>
       <c r="BH12" s="57"/>
       <c r="BI12" s="57"/>
       <c r="BJ12" s="57"/>
       <c r="BK12" s="57"/>
       <c r="BL12" s="57"/>
-      <c r="BM12" s="174"/>
-      <c r="BN12" s="175"/>
+      <c r="BM12" s="172"/>
+      <c r="BN12" s="173"/>
       <c r="BO12" s="57"/>
       <c r="BP12" s="57"/>
-      <c r="BQ12" s="140"/>
+      <c r="BQ12" s="138"/>
       <c r="BR12" s="6"/>
       <c r="BS12" s="6"/>
       <c r="BT12" s="6"/>
@@ -3942,9 +3936,9 @@
       <c r="HX12" s="6"/>
       <c r="HY12" s="6"/>
       <c r="HZ12" s="6"/>
-      <c r="IA12" s="64"/>
+      <c r="IA12" s="63"/>
     </row>
-    <row r="13" spans="1:235" s="70" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:235" s="69" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="36" t="s">
         <v>58</v>
@@ -3955,75 +3949,75 @@
       <c r="D13" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="68">
         <v>44055</v>
       </c>
-      <c r="F13" s="69">
+      <c r="F13" s="68">
         <v>44055</v>
       </c>
       <c r="G13" s="55"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="174"/>
-      <c r="J13" s="175"/>
-      <c r="K13" s="155"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="173"/>
+      <c r="K13" s="153"/>
       <c r="L13" s="56"/>
       <c r="M13" s="56"/>
       <c r="N13" s="56"/>
       <c r="O13" s="56"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="175"/>
-      <c r="R13" s="155"/>
+      <c r="P13" s="172"/>
+      <c r="Q13" s="173"/>
+      <c r="R13" s="153"/>
       <c r="S13" s="56"/>
       <c r="T13" s="56"/>
       <c r="U13" s="56"/>
       <c r="V13" s="56"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="175"/>
+      <c r="W13" s="172"/>
+      <c r="X13" s="173"/>
       <c r="Y13" s="56"/>
       <c r="Z13" s="56"/>
       <c r="AA13" s="56"/>
       <c r="AB13" s="56"/>
       <c r="AC13" s="56"/>
-      <c r="AD13" s="174"/>
-      <c r="AE13" s="175"/>
+      <c r="AD13" s="172"/>
+      <c r="AE13" s="173"/>
       <c r="AF13" s="56"/>
       <c r="AG13" s="56"/>
       <c r="AH13" s="56"/>
       <c r="AI13" s="56"/>
       <c r="AJ13" s="56"/>
-      <c r="AK13" s="174"/>
-      <c r="AL13" s="175"/>
+      <c r="AK13" s="172"/>
+      <c r="AL13" s="173"/>
       <c r="AM13" s="56"/>
       <c r="AN13" s="56"/>
       <c r="AO13" s="56"/>
       <c r="AP13" s="56"/>
       <c r="AQ13" s="56"/>
-      <c r="AR13" s="174"/>
-      <c r="AS13" s="175"/>
+      <c r="AR13" s="172"/>
+      <c r="AS13" s="173"/>
       <c r="AT13" s="56"/>
       <c r="AU13" s="56"/>
       <c r="AV13" s="56"/>
       <c r="AW13" s="56"/>
       <c r="AX13" s="56"/>
-      <c r="AY13" s="174"/>
-      <c r="AZ13" s="175"/>
+      <c r="AY13" s="172"/>
+      <c r="AZ13" s="173"/>
       <c r="BA13" s="56"/>
       <c r="BB13" s="56"/>
       <c r="BC13" s="56"/>
       <c r="BD13" s="56"/>
       <c r="BE13" s="56"/>
-      <c r="BF13" s="174"/>
-      <c r="BG13" s="175"/>
+      <c r="BF13" s="172"/>
+      <c r="BG13" s="173"/>
       <c r="BH13" s="56"/>
       <c r="BI13" s="56"/>
       <c r="BJ13" s="56"/>
       <c r="BK13" s="56"/>
       <c r="BL13" s="56"/>
-      <c r="BM13" s="174"/>
-      <c r="BN13" s="175"/>
+      <c r="BM13" s="172"/>
+      <c r="BN13" s="173"/>
       <c r="BO13" s="56"/>
       <c r="BP13" s="56"/>
-      <c r="BQ13" s="139"/>
+      <c r="BQ13" s="137"/>
       <c r="BR13" s="6"/>
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
@@ -4207,73 +4201,73 @@
       <c r="F14" s="31">
         <v>44055</v>
       </c>
-      <c r="G14" s="148">
+      <c r="G14" s="146">
         <v>1</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="174"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="156"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="154"/>
       <c r="L14" s="57"/>
       <c r="M14" s="57"/>
       <c r="N14" s="57"/>
       <c r="O14" s="57"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="175"/>
-      <c r="R14" s="156"/>
+      <c r="P14" s="172"/>
+      <c r="Q14" s="173"/>
+      <c r="R14" s="154"/>
       <c r="S14" s="57"/>
-      <c r="T14" s="72"/>
+      <c r="T14" s="71"/>
       <c r="U14" s="57"/>
       <c r="V14" s="57"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="175"/>
+      <c r="W14" s="172"/>
+      <c r="X14" s="173"/>
       <c r="Y14" s="57"/>
       <c r="Z14" s="57"/>
       <c r="AA14" s="57"/>
       <c r="AB14" s="57"/>
       <c r="AC14" s="57"/>
-      <c r="AD14" s="174"/>
-      <c r="AE14" s="175"/>
+      <c r="AD14" s="172"/>
+      <c r="AE14" s="173"/>
       <c r="AF14" s="57"/>
       <c r="AG14" s="57"/>
       <c r="AH14" s="57"/>
       <c r="AI14" s="57"/>
       <c r="AJ14" s="57"/>
-      <c r="AK14" s="174"/>
-      <c r="AL14" s="175"/>
+      <c r="AK14" s="172"/>
+      <c r="AL14" s="173"/>
       <c r="AM14" s="57"/>
       <c r="AN14" s="57"/>
       <c r="AO14" s="57"/>
       <c r="AP14" s="57"/>
       <c r="AQ14" s="57"/>
-      <c r="AR14" s="174"/>
-      <c r="AS14" s="175"/>
+      <c r="AR14" s="172"/>
+      <c r="AS14" s="173"/>
       <c r="AT14" s="57"/>
       <c r="AU14" s="57"/>
       <c r="AV14" s="57"/>
       <c r="AW14" s="57"/>
       <c r="AX14" s="57"/>
-      <c r="AY14" s="174"/>
-      <c r="AZ14" s="175"/>
+      <c r="AY14" s="172"/>
+      <c r="AZ14" s="173"/>
       <c r="BA14" s="57"/>
       <c r="BB14" s="57"/>
       <c r="BC14" s="57"/>
       <c r="BD14" s="57"/>
       <c r="BE14" s="57"/>
-      <c r="BF14" s="174"/>
-      <c r="BG14" s="175"/>
+      <c r="BF14" s="172"/>
+      <c r="BG14" s="173"/>
       <c r="BH14" s="57"/>
       <c r="BI14" s="57"/>
       <c r="BJ14" s="57"/>
       <c r="BK14" s="57"/>
       <c r="BL14" s="57"/>
-      <c r="BM14" s="174"/>
-      <c r="BN14" s="175"/>
+      <c r="BM14" s="172"/>
+      <c r="BN14" s="173"/>
       <c r="BO14" s="57"/>
       <c r="BP14" s="57"/>
-      <c r="BQ14" s="140"/>
+      <c r="BQ14" s="138"/>
       <c r="BR14" s="6"/>
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
@@ -4457,73 +4451,73 @@
       <c r="F15" s="31">
         <v>44055</v>
       </c>
-      <c r="G15" s="148">
+      <c r="G15" s="146">
         <v>1</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I15" s="174"/>
-      <c r="J15" s="175"/>
-      <c r="K15" s="156"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
+      <c r="K15" s="154"/>
       <c r="L15" s="57"/>
       <c r="M15" s="57"/>
       <c r="N15" s="57"/>
       <c r="O15" s="57"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="175"/>
-      <c r="R15" s="156"/>
+      <c r="P15" s="172"/>
+      <c r="Q15" s="173"/>
+      <c r="R15" s="154"/>
       <c r="S15" s="57"/>
-      <c r="T15" s="72"/>
+      <c r="T15" s="71"/>
       <c r="U15" s="57"/>
       <c r="V15" s="57"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="175"/>
+      <c r="W15" s="172"/>
+      <c r="X15" s="173"/>
       <c r="Y15" s="57"/>
       <c r="Z15" s="57"/>
       <c r="AA15" s="57"/>
       <c r="AB15" s="57"/>
       <c r="AC15" s="57"/>
-      <c r="AD15" s="174"/>
-      <c r="AE15" s="175"/>
+      <c r="AD15" s="172"/>
+      <c r="AE15" s="173"/>
       <c r="AF15" s="57"/>
       <c r="AG15" s="57"/>
       <c r="AH15" s="57"/>
       <c r="AI15" s="57"/>
       <c r="AJ15" s="57"/>
-      <c r="AK15" s="174"/>
-      <c r="AL15" s="175"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="173"/>
       <c r="AM15" s="57"/>
       <c r="AN15" s="57"/>
       <c r="AO15" s="57"/>
       <c r="AP15" s="57"/>
       <c r="AQ15" s="57"/>
-      <c r="AR15" s="174"/>
-      <c r="AS15" s="175"/>
+      <c r="AR15" s="172"/>
+      <c r="AS15" s="173"/>
       <c r="AT15" s="57"/>
       <c r="AU15" s="57"/>
       <c r="AV15" s="57"/>
       <c r="AW15" s="57"/>
       <c r="AX15" s="57"/>
-      <c r="AY15" s="174"/>
-      <c r="AZ15" s="175"/>
+      <c r="AY15" s="172"/>
+      <c r="AZ15" s="173"/>
       <c r="BA15" s="57"/>
       <c r="BB15" s="57"/>
       <c r="BC15" s="57"/>
       <c r="BD15" s="57"/>
       <c r="BE15" s="57"/>
-      <c r="BF15" s="174"/>
-      <c r="BG15" s="175"/>
+      <c r="BF15" s="172"/>
+      <c r="BG15" s="173"/>
       <c r="BH15" s="57"/>
       <c r="BI15" s="57"/>
       <c r="BJ15" s="57"/>
       <c r="BK15" s="57"/>
       <c r="BL15" s="57"/>
-      <c r="BM15" s="174"/>
-      <c r="BN15" s="175"/>
+      <c r="BM15" s="172"/>
+      <c r="BN15" s="173"/>
       <c r="BO15" s="57"/>
       <c r="BP15" s="57"/>
-      <c r="BQ15" s="140"/>
+      <c r="BQ15" s="138"/>
       <c r="BR15" s="6"/>
       <c r="BS15" s="6"/>
       <c r="BT15" s="6"/>
@@ -4690,7 +4684,7 @@
       <c r="HY15" s="6"/>
       <c r="HZ15" s="6"/>
     </row>
-    <row r="16" spans="1:235" s="70" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:235" s="69" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="36" t="s">
         <v>72</v>
@@ -4707,69 +4701,69 @@
       <c r="F16" s="48">
         <v>44056</v>
       </c>
-      <c r="G16" s="74"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="174"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="155"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="79"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="153"/>
       <c r="L16" s="56"/>
       <c r="M16" s="56"/>
       <c r="N16" s="56"/>
       <c r="O16" s="56"/>
-      <c r="P16" s="174"/>
-      <c r="Q16" s="175"/>
-      <c r="R16" s="155"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="173"/>
+      <c r="R16" s="153"/>
       <c r="S16" s="56"/>
       <c r="T16" s="56"/>
       <c r="U16" s="56"/>
       <c r="V16" s="54"/>
-      <c r="W16" s="174"/>
-      <c r="X16" s="175"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="173"/>
       <c r="Y16" s="56"/>
       <c r="Z16" s="56"/>
       <c r="AA16" s="56"/>
       <c r="AB16" s="56"/>
       <c r="AC16" s="56"/>
-      <c r="AD16" s="174"/>
-      <c r="AE16" s="175"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="173"/>
       <c r="AF16" s="56"/>
       <c r="AG16" s="56"/>
       <c r="AH16" s="56"/>
       <c r="AI16" s="56"/>
       <c r="AJ16" s="56"/>
-      <c r="AK16" s="174"/>
-      <c r="AL16" s="175"/>
+      <c r="AK16" s="172"/>
+      <c r="AL16" s="173"/>
       <c r="AM16" s="56"/>
       <c r="AN16" s="56"/>
       <c r="AO16" s="56"/>
       <c r="AP16" s="56"/>
       <c r="AQ16" s="56"/>
-      <c r="AR16" s="174"/>
-      <c r="AS16" s="175"/>
+      <c r="AR16" s="172"/>
+      <c r="AS16" s="173"/>
       <c r="AT16" s="56"/>
       <c r="AU16" s="56"/>
       <c r="AV16" s="56"/>
       <c r="AW16" s="56"/>
       <c r="AX16" s="56"/>
-      <c r="AY16" s="174"/>
-      <c r="AZ16" s="175"/>
+      <c r="AY16" s="172"/>
+      <c r="AZ16" s="173"/>
       <c r="BA16" s="56"/>
       <c r="BB16" s="56"/>
       <c r="BC16" s="56"/>
       <c r="BD16" s="56"/>
       <c r="BE16" s="56"/>
-      <c r="BF16" s="174"/>
-      <c r="BG16" s="175"/>
+      <c r="BF16" s="172"/>
+      <c r="BG16" s="173"/>
       <c r="BH16" s="56"/>
       <c r="BI16" s="56"/>
       <c r="BJ16" s="56"/>
       <c r="BK16" s="56"/>
       <c r="BL16" s="56"/>
-      <c r="BM16" s="174"/>
-      <c r="BN16" s="175"/>
+      <c r="BM16" s="172"/>
+      <c r="BN16" s="173"/>
       <c r="BO16" s="56"/>
       <c r="BP16" s="56"/>
-      <c r="BQ16" s="139"/>
+      <c r="BQ16" s="137"/>
       <c r="BR16" s="6"/>
       <c r="BS16" s="6"/>
       <c r="BT16" s="6"/>
@@ -4953,73 +4947,73 @@
       <c r="F17" s="31">
         <v>44056</v>
       </c>
-      <c r="G17" s="149">
+      <c r="G17" s="147">
         <v>1</v>
       </c>
-      <c r="H17" s="82" t="s">
+      <c r="H17" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I17" s="174"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="156"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
+      <c r="K17" s="154"/>
       <c r="L17" s="57"/>
       <c r="M17" s="57"/>
       <c r="N17" s="57"/>
       <c r="O17" s="57"/>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="175"/>
-      <c r="R17" s="156"/>
+      <c r="P17" s="172"/>
+      <c r="Q17" s="173"/>
+      <c r="R17" s="154"/>
       <c r="S17" s="57"/>
       <c r="T17" s="57"/>
-      <c r="U17" s="72"/>
+      <c r="U17" s="71"/>
       <c r="V17" s="58"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="175"/>
+      <c r="W17" s="172"/>
+      <c r="X17" s="173"/>
       <c r="Y17" s="57"/>
       <c r="Z17" s="57"/>
       <c r="AA17" s="57"/>
       <c r="AB17" s="57"/>
       <c r="AC17" s="57"/>
-      <c r="AD17" s="174"/>
-      <c r="AE17" s="175"/>
+      <c r="AD17" s="172"/>
+      <c r="AE17" s="173"/>
       <c r="AF17" s="57"/>
       <c r="AG17" s="57"/>
       <c r="AH17" s="57"/>
       <c r="AI17" s="57"/>
       <c r="AJ17" s="57"/>
-      <c r="AK17" s="174"/>
-      <c r="AL17" s="175"/>
+      <c r="AK17" s="172"/>
+      <c r="AL17" s="173"/>
       <c r="AM17" s="57"/>
       <c r="AN17" s="57"/>
       <c r="AO17" s="57"/>
       <c r="AP17" s="57"/>
       <c r="AQ17" s="57"/>
-      <c r="AR17" s="174"/>
-      <c r="AS17" s="175"/>
+      <c r="AR17" s="172"/>
+      <c r="AS17" s="173"/>
       <c r="AT17" s="57"/>
       <c r="AU17" s="57"/>
       <c r="AV17" s="57"/>
       <c r="AW17" s="57"/>
       <c r="AX17" s="57"/>
-      <c r="AY17" s="174"/>
-      <c r="AZ17" s="175"/>
+      <c r="AY17" s="172"/>
+      <c r="AZ17" s="173"/>
       <c r="BA17" s="57"/>
       <c r="BB17" s="57"/>
       <c r="BC17" s="57"/>
       <c r="BD17" s="57"/>
       <c r="BE17" s="57"/>
-      <c r="BF17" s="174"/>
-      <c r="BG17" s="175"/>
+      <c r="BF17" s="172"/>
+      <c r="BG17" s="173"/>
       <c r="BH17" s="57"/>
       <c r="BI17" s="57"/>
       <c r="BJ17" s="57"/>
       <c r="BK17" s="57"/>
       <c r="BL17" s="57"/>
-      <c r="BM17" s="174"/>
-      <c r="BN17" s="175"/>
+      <c r="BM17" s="172"/>
+      <c r="BN17" s="173"/>
       <c r="BO17" s="57"/>
       <c r="BP17" s="57"/>
-      <c r="BQ17" s="140"/>
+      <c r="BQ17" s="138"/>
       <c r="BR17" s="6"/>
       <c r="BS17" s="6"/>
       <c r="BT17" s="6"/>
@@ -5203,73 +5197,73 @@
       <c r="F18" s="31">
         <v>44056</v>
       </c>
-      <c r="G18" s="149">
+      <c r="G18" s="147">
         <v>1</v>
       </c>
-      <c r="H18" s="82" t="s">
+      <c r="H18" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="I18" s="174"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="156"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="154"/>
       <c r="L18" s="57"/>
       <c r="M18" s="57"/>
       <c r="N18" s="57"/>
       <c r="O18" s="57"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="175"/>
-      <c r="R18" s="156"/>
+      <c r="P18" s="172"/>
+      <c r="Q18" s="173"/>
+      <c r="R18" s="154"/>
       <c r="S18" s="57"/>
       <c r="T18" s="57"/>
-      <c r="U18" s="72"/>
+      <c r="U18" s="71"/>
       <c r="V18" s="58"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="175"/>
+      <c r="W18" s="172"/>
+      <c r="X18" s="173"/>
       <c r="Y18" s="57"/>
       <c r="Z18" s="57"/>
       <c r="AA18" s="57"/>
       <c r="AB18" s="57"/>
       <c r="AC18" s="57"/>
-      <c r="AD18" s="174"/>
-      <c r="AE18" s="175"/>
+      <c r="AD18" s="172"/>
+      <c r="AE18" s="173"/>
       <c r="AF18" s="57"/>
       <c r="AG18" s="57"/>
       <c r="AH18" s="57"/>
       <c r="AI18" s="57"/>
       <c r="AJ18" s="57"/>
-      <c r="AK18" s="174"/>
-      <c r="AL18" s="175"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="173"/>
       <c r="AM18" s="57"/>
       <c r="AN18" s="57"/>
       <c r="AO18" s="57"/>
       <c r="AP18" s="57"/>
       <c r="AQ18" s="57"/>
-      <c r="AR18" s="174"/>
-      <c r="AS18" s="175"/>
+      <c r="AR18" s="172"/>
+      <c r="AS18" s="173"/>
       <c r="AT18" s="57"/>
       <c r="AU18" s="57"/>
       <c r="AV18" s="57"/>
       <c r="AW18" s="57"/>
       <c r="AX18" s="57"/>
-      <c r="AY18" s="174"/>
-      <c r="AZ18" s="175"/>
+      <c r="AY18" s="172"/>
+      <c r="AZ18" s="173"/>
       <c r="BA18" s="57"/>
       <c r="BB18" s="57"/>
       <c r="BC18" s="57"/>
       <c r="BD18" s="57"/>
       <c r="BE18" s="57"/>
-      <c r="BF18" s="174"/>
-      <c r="BG18" s="175"/>
+      <c r="BF18" s="172"/>
+      <c r="BG18" s="173"/>
       <c r="BH18" s="57"/>
       <c r="BI18" s="57"/>
       <c r="BJ18" s="57"/>
       <c r="BK18" s="57"/>
       <c r="BL18" s="57"/>
-      <c r="BM18" s="174"/>
-      <c r="BN18" s="175"/>
+      <c r="BM18" s="172"/>
+      <c r="BN18" s="173"/>
       <c r="BO18" s="57"/>
       <c r="BP18" s="57"/>
-      <c r="BQ18" s="140"/>
+      <c r="BQ18" s="138"/>
       <c r="BR18" s="6"/>
       <c r="BS18" s="6"/>
       <c r="BT18" s="6"/>
@@ -5455,67 +5449,67 @@
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="60"/>
-      <c r="I19" s="174"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="157"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
+      <c r="K19" s="155"/>
       <c r="L19" s="53"/>
       <c r="M19" s="53"/>
       <c r="N19" s="53"/>
       <c r="O19" s="53"/>
-      <c r="P19" s="174"/>
-      <c r="Q19" s="175"/>
-      <c r="R19" s="157"/>
+      <c r="P19" s="172"/>
+      <c r="Q19" s="173"/>
+      <c r="R19" s="155"/>
       <c r="S19" s="53"/>
       <c r="T19" s="53"/>
       <c r="U19" s="53"/>
       <c r="V19" s="53"/>
-      <c r="W19" s="174"/>
-      <c r="X19" s="175"/>
+      <c r="W19" s="172"/>
+      <c r="X19" s="173"/>
       <c r="Y19" s="53"/>
       <c r="Z19" s="53"/>
       <c r="AA19" s="53"/>
       <c r="AB19" s="53"/>
       <c r="AC19" s="53"/>
-      <c r="AD19" s="174"/>
-      <c r="AE19" s="175"/>
+      <c r="AD19" s="172"/>
+      <c r="AE19" s="173"/>
       <c r="AF19" s="53"/>
       <c r="AG19" s="53"/>
       <c r="AH19" s="53"/>
       <c r="AI19" s="53"/>
       <c r="AJ19" s="53"/>
-      <c r="AK19" s="174"/>
-      <c r="AL19" s="175"/>
+      <c r="AK19" s="172"/>
+      <c r="AL19" s="173"/>
       <c r="AM19" s="53"/>
       <c r="AN19" s="53"/>
       <c r="AO19" s="53"/>
       <c r="AP19" s="53"/>
       <c r="AQ19" s="53"/>
-      <c r="AR19" s="174"/>
-      <c r="AS19" s="175"/>
+      <c r="AR19" s="172"/>
+      <c r="AS19" s="173"/>
       <c r="AT19" s="53"/>
       <c r="AU19" s="53"/>
       <c r="AV19" s="53"/>
       <c r="AW19" s="53"/>
       <c r="AX19" s="53"/>
-      <c r="AY19" s="174"/>
-      <c r="AZ19" s="175"/>
+      <c r="AY19" s="172"/>
+      <c r="AZ19" s="173"/>
       <c r="BA19" s="53"/>
       <c r="BB19" s="53"/>
       <c r="BC19" s="53"/>
       <c r="BD19" s="53"/>
       <c r="BE19" s="53"/>
-      <c r="BF19" s="174"/>
-      <c r="BG19" s="175"/>
+      <c r="BF19" s="172"/>
+      <c r="BG19" s="173"/>
       <c r="BH19" s="53"/>
       <c r="BI19" s="53"/>
       <c r="BJ19" s="53"/>
       <c r="BK19" s="53"/>
       <c r="BL19" s="53"/>
-      <c r="BM19" s="174"/>
-      <c r="BN19" s="175"/>
+      <c r="BM19" s="172"/>
+      <c r="BN19" s="173"/>
       <c r="BO19" s="53"/>
       <c r="BP19" s="53"/>
-      <c r="BQ19" s="142"/>
+      <c r="BQ19" s="140"/>
       <c r="BR19" s="6"/>
       <c r="BS19" s="49"/>
       <c r="BT19" s="49"/>
@@ -5701,67 +5695,67 @@
       </c>
       <c r="G20" s="34"/>
       <c r="H20" s="61"/>
-      <c r="I20" s="174"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="158"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="156"/>
       <c r="L20" s="54"/>
       <c r="M20" s="54"/>
       <c r="N20" s="54"/>
       <c r="O20" s="54"/>
-      <c r="P20" s="174"/>
-      <c r="Q20" s="175"/>
-      <c r="R20" s="158"/>
+      <c r="P20" s="172"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="156"/>
       <c r="S20" s="54"/>
       <c r="T20" s="54"/>
       <c r="U20" s="54"/>
       <c r="V20" s="54"/>
-      <c r="W20" s="174"/>
-      <c r="X20" s="175"/>
+      <c r="W20" s="172"/>
+      <c r="X20" s="173"/>
       <c r="Y20" s="54"/>
       <c r="Z20" s="54"/>
       <c r="AA20" s="54"/>
       <c r="AB20" s="54"/>
       <c r="AC20" s="54"/>
-      <c r="AD20" s="174"/>
-      <c r="AE20" s="175"/>
+      <c r="AD20" s="172"/>
+      <c r="AE20" s="173"/>
       <c r="AF20" s="54"/>
       <c r="AG20" s="54"/>
       <c r="AH20" s="54"/>
       <c r="AI20" s="54"/>
       <c r="AJ20" s="54"/>
-      <c r="AK20" s="174"/>
-      <c r="AL20" s="175"/>
+      <c r="AK20" s="172"/>
+      <c r="AL20" s="173"/>
       <c r="AM20" s="54"/>
       <c r="AN20" s="54"/>
       <c r="AO20" s="54"/>
       <c r="AP20" s="54"/>
       <c r="AQ20" s="54"/>
-      <c r="AR20" s="174"/>
-      <c r="AS20" s="175"/>
+      <c r="AR20" s="172"/>
+      <c r="AS20" s="173"/>
       <c r="AT20" s="54"/>
       <c r="AU20" s="54"/>
       <c r="AV20" s="54"/>
       <c r="AW20" s="54"/>
       <c r="AX20" s="54"/>
-      <c r="AY20" s="174"/>
-      <c r="AZ20" s="175"/>
+      <c r="AY20" s="172"/>
+      <c r="AZ20" s="173"/>
       <c r="BA20" s="54"/>
       <c r="BB20" s="54"/>
       <c r="BC20" s="54"/>
       <c r="BD20" s="54"/>
       <c r="BE20" s="54"/>
-      <c r="BF20" s="174"/>
-      <c r="BG20" s="175"/>
+      <c r="BF20" s="172"/>
+      <c r="BG20" s="173"/>
       <c r="BH20" s="54"/>
       <c r="BI20" s="54"/>
       <c r="BJ20" s="54"/>
       <c r="BK20" s="54"/>
       <c r="BL20" s="54"/>
-      <c r="BM20" s="174"/>
-      <c r="BN20" s="175"/>
+      <c r="BM20" s="172"/>
+      <c r="BN20" s="173"/>
       <c r="BO20" s="54"/>
       <c r="BP20" s="54"/>
-      <c r="BQ20" s="137"/>
+      <c r="BQ20" s="135"/>
       <c r="BR20" s="6"/>
       <c r="BS20" s="49"/>
       <c r="BT20" s="49"/>
@@ -5945,73 +5939,73 @@
       <c r="F21" s="31">
         <v>44061</v>
       </c>
-      <c r="G21" s="150">
+      <c r="G21" s="148">
         <v>1</v>
       </c>
-      <c r="H21" s="151" t="s">
+      <c r="H21" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I21" s="174"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="159"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="157"/>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
-      <c r="P21" s="174"/>
-      <c r="Q21" s="175"/>
-      <c r="R21" s="159"/>
+      <c r="P21" s="172"/>
+      <c r="Q21" s="173"/>
+      <c r="R21" s="157"/>
       <c r="S21" s="58"/>
       <c r="T21" s="58"/>
       <c r="U21" s="58"/>
       <c r="V21" s="58"/>
-      <c r="W21" s="174"/>
-      <c r="X21" s="175"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="72"/>
+      <c r="W21" s="172"/>
+      <c r="X21" s="173"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="58"/>
       <c r="AC21" s="58"/>
-      <c r="AD21" s="174"/>
-      <c r="AE21" s="175"/>
+      <c r="AD21" s="172"/>
+      <c r="AE21" s="173"/>
       <c r="AF21" s="58"/>
       <c r="AG21" s="58"/>
       <c r="AH21" s="58"/>
       <c r="AI21" s="58"/>
       <c r="AJ21" s="58"/>
-      <c r="AK21" s="174"/>
-      <c r="AL21" s="175"/>
+      <c r="AK21" s="172"/>
+      <c r="AL21" s="173"/>
       <c r="AM21" s="58"/>
       <c r="AN21" s="58"/>
       <c r="AO21" s="58"/>
       <c r="AP21" s="58"/>
       <c r="AQ21" s="58"/>
-      <c r="AR21" s="174"/>
-      <c r="AS21" s="175"/>
+      <c r="AR21" s="172"/>
+      <c r="AS21" s="173"/>
       <c r="AT21" s="58"/>
       <c r="AU21" s="58"/>
       <c r="AV21" s="58"/>
       <c r="AW21" s="58"/>
       <c r="AX21" s="58"/>
-      <c r="AY21" s="174"/>
-      <c r="AZ21" s="175"/>
+      <c r="AY21" s="172"/>
+      <c r="AZ21" s="173"/>
       <c r="BA21" s="58"/>
       <c r="BB21" s="58"/>
       <c r="BC21" s="58"/>
       <c r="BD21" s="58"/>
       <c r="BE21" s="58"/>
-      <c r="BF21" s="174"/>
-      <c r="BG21" s="175"/>
+      <c r="BF21" s="172"/>
+      <c r="BG21" s="173"/>
       <c r="BH21" s="58"/>
       <c r="BI21" s="58"/>
       <c r="BJ21" s="58"/>
       <c r="BK21" s="58"/>
       <c r="BL21" s="58"/>
-      <c r="BM21" s="174"/>
-      <c r="BN21" s="175"/>
+      <c r="BM21" s="172"/>
+      <c r="BN21" s="173"/>
       <c r="BO21" s="58"/>
       <c r="BP21" s="58"/>
-      <c r="BQ21" s="143"/>
+      <c r="BQ21" s="141"/>
       <c r="BR21" s="6"/>
       <c r="BS21" s="49"/>
       <c r="BT21" s="49"/>
@@ -6195,73 +6189,73 @@
       <c r="F22" s="31">
         <v>44063</v>
       </c>
-      <c r="G22" s="150">
+      <c r="G22" s="148">
         <v>1</v>
       </c>
-      <c r="H22" s="151" t="s">
+      <c r="H22" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="174"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="159"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="173"/>
+      <c r="K22" s="157"/>
       <c r="L22" s="58"/>
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
-      <c r="P22" s="174"/>
-      <c r="Q22" s="175"/>
-      <c r="R22" s="159"/>
+      <c r="P22" s="172"/>
+      <c r="Q22" s="173"/>
+      <c r="R22" s="157"/>
       <c r="S22" s="58"/>
       <c r="T22" s="58"/>
       <c r="U22" s="58"/>
       <c r="V22" s="58"/>
-      <c r="W22" s="174"/>
-      <c r="X22" s="175"/>
+      <c r="W22" s="172"/>
+      <c r="X22" s="173"/>
       <c r="Y22" s="58"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="71"/>
       <c r="AC22" s="58"/>
-      <c r="AD22" s="174"/>
-      <c r="AE22" s="175"/>
+      <c r="AD22" s="172"/>
+      <c r="AE22" s="173"/>
       <c r="AF22" s="58"/>
       <c r="AG22" s="58"/>
       <c r="AH22" s="58"/>
       <c r="AI22" s="58"/>
       <c r="AJ22" s="58"/>
-      <c r="AK22" s="174"/>
-      <c r="AL22" s="175"/>
+      <c r="AK22" s="172"/>
+      <c r="AL22" s="173"/>
       <c r="AM22" s="58"/>
       <c r="AN22" s="58"/>
       <c r="AO22" s="58"/>
       <c r="AP22" s="58"/>
       <c r="AQ22" s="58"/>
-      <c r="AR22" s="174"/>
-      <c r="AS22" s="175"/>
+      <c r="AR22" s="172"/>
+      <c r="AS22" s="173"/>
       <c r="AT22" s="58"/>
       <c r="AU22" s="58"/>
       <c r="AV22" s="58"/>
       <c r="AW22" s="58"/>
       <c r="AX22" s="58"/>
-      <c r="AY22" s="174"/>
-      <c r="AZ22" s="175"/>
+      <c r="AY22" s="172"/>
+      <c r="AZ22" s="173"/>
       <c r="BA22" s="58"/>
       <c r="BB22" s="58"/>
       <c r="BC22" s="58"/>
       <c r="BD22" s="58"/>
       <c r="BE22" s="58"/>
-      <c r="BF22" s="174"/>
-      <c r="BG22" s="175"/>
+      <c r="BF22" s="172"/>
+      <c r="BG22" s="173"/>
       <c r="BH22" s="58"/>
       <c r="BI22" s="58"/>
       <c r="BJ22" s="58"/>
       <c r="BK22" s="58"/>
       <c r="BL22" s="58"/>
-      <c r="BM22" s="174"/>
-      <c r="BN22" s="175"/>
+      <c r="BM22" s="172"/>
+      <c r="BN22" s="173"/>
       <c r="BO22" s="58"/>
       <c r="BP22" s="58"/>
-      <c r="BQ22" s="143"/>
+      <c r="BQ22" s="141"/>
       <c r="BR22" s="6"/>
       <c r="BS22" s="49"/>
       <c r="BT22" s="49"/>
@@ -6447,67 +6441,67 @@
       </c>
       <c r="G23" s="34"/>
       <c r="H23" s="61"/>
-      <c r="I23" s="174"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="158"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="173"/>
+      <c r="K23" s="156"/>
       <c r="L23" s="54"/>
       <c r="M23" s="54"/>
       <c r="N23" s="54"/>
       <c r="O23" s="54"/>
-      <c r="P23" s="174"/>
-      <c r="Q23" s="175"/>
-      <c r="R23" s="158"/>
+      <c r="P23" s="172"/>
+      <c r="Q23" s="173"/>
+      <c r="R23" s="156"/>
       <c r="S23" s="54"/>
       <c r="T23" s="54"/>
       <c r="U23" s="54"/>
       <c r="V23" s="54"/>
-      <c r="W23" s="174"/>
-      <c r="X23" s="175"/>
+      <c r="W23" s="172"/>
+      <c r="X23" s="173"/>
       <c r="Y23" s="54"/>
       <c r="Z23" s="54"/>
       <c r="AA23" s="54"/>
       <c r="AB23" s="54"/>
       <c r="AC23" s="54"/>
-      <c r="AD23" s="174"/>
-      <c r="AE23" s="175"/>
+      <c r="AD23" s="172"/>
+      <c r="AE23" s="173"/>
       <c r="AF23" s="54"/>
       <c r="AG23" s="54"/>
       <c r="AH23" s="54"/>
       <c r="AI23" s="54"/>
       <c r="AJ23" s="54"/>
-      <c r="AK23" s="174"/>
-      <c r="AL23" s="175"/>
+      <c r="AK23" s="172"/>
+      <c r="AL23" s="173"/>
       <c r="AM23" s="54"/>
       <c r="AN23" s="54"/>
       <c r="AO23" s="54"/>
       <c r="AP23" s="54"/>
       <c r="AQ23" s="54"/>
-      <c r="AR23" s="174"/>
-      <c r="AS23" s="175"/>
+      <c r="AR23" s="172"/>
+      <c r="AS23" s="173"/>
       <c r="AT23" s="54"/>
       <c r="AU23" s="54"/>
       <c r="AV23" s="54"/>
       <c r="AW23" s="54"/>
       <c r="AX23" s="54"/>
-      <c r="AY23" s="174"/>
-      <c r="AZ23" s="175"/>
+      <c r="AY23" s="172"/>
+      <c r="AZ23" s="173"/>
       <c r="BA23" s="54"/>
       <c r="BB23" s="54"/>
       <c r="BC23" s="54"/>
       <c r="BD23" s="54"/>
       <c r="BE23" s="54"/>
-      <c r="BF23" s="174"/>
-      <c r="BG23" s="175"/>
+      <c r="BF23" s="172"/>
+      <c r="BG23" s="173"/>
       <c r="BH23" s="54"/>
       <c r="BI23" s="54"/>
       <c r="BJ23" s="54"/>
       <c r="BK23" s="54"/>
       <c r="BL23" s="54"/>
-      <c r="BM23" s="174"/>
-      <c r="BN23" s="175"/>
+      <c r="BM23" s="172"/>
+      <c r="BN23" s="173"/>
       <c r="BO23" s="54"/>
       <c r="BP23" s="54"/>
-      <c r="BQ23" s="137"/>
+      <c r="BQ23" s="135"/>
       <c r="BR23" s="6"/>
       <c r="BS23" s="49"/>
       <c r="BT23" s="49"/>
@@ -6691,72 +6685,72 @@
       <c r="F24" s="31">
         <v>44063</v>
       </c>
-      <c r="G24" s="150">
+      <c r="G24" s="148">
         <v>1</v>
       </c>
-      <c r="H24" s="151" t="s">
+      <c r="H24" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I24" s="174"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="159"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
+      <c r="K24" s="157"/>
       <c r="L24" s="58"/>
       <c r="M24" s="58"/>
       <c r="N24" s="58"/>
       <c r="O24" s="58"/>
-      <c r="P24" s="174"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="159"/>
+      <c r="P24" s="172"/>
+      <c r="Q24" s="173"/>
+      <c r="R24" s="157"/>
       <c r="S24" s="58"/>
       <c r="T24" s="58"/>
       <c r="U24" s="58"/>
       <c r="V24" s="58"/>
-      <c r="W24" s="174"/>
-      <c r="X24" s="175"/>
+      <c r="W24" s="172"/>
+      <c r="X24" s="173"/>
       <c r="Y24" s="58"/>
       <c r="Z24" s="58"/>
       <c r="AA24" s="58"/>
-      <c r="AB24" s="72"/>
-      <c r="AD24" s="174"/>
-      <c r="AE24" s="175"/>
+      <c r="AB24" s="71"/>
+      <c r="AD24" s="172"/>
+      <c r="AE24" s="173"/>
       <c r="AF24" s="58"/>
       <c r="AG24" s="58"/>
       <c r="AH24" s="58"/>
       <c r="AI24" s="58"/>
       <c r="AJ24" s="58"/>
-      <c r="AK24" s="174"/>
-      <c r="AL24" s="175"/>
+      <c r="AK24" s="172"/>
+      <c r="AL24" s="173"/>
       <c r="AM24" s="58"/>
       <c r="AN24" s="58"/>
       <c r="AO24" s="58"/>
       <c r="AP24" s="58"/>
       <c r="AQ24" s="58"/>
-      <c r="AR24" s="174"/>
-      <c r="AS24" s="175"/>
+      <c r="AR24" s="172"/>
+      <c r="AS24" s="173"/>
       <c r="AT24" s="58"/>
       <c r="AU24" s="58"/>
       <c r="AV24" s="58"/>
       <c r="AW24" s="58"/>
       <c r="AX24" s="58"/>
-      <c r="AY24" s="174"/>
-      <c r="AZ24" s="175"/>
+      <c r="AY24" s="172"/>
+      <c r="AZ24" s="173"/>
       <c r="BA24" s="58"/>
       <c r="BB24" s="58"/>
       <c r="BC24" s="58"/>
       <c r="BD24" s="58"/>
       <c r="BE24" s="58"/>
-      <c r="BF24" s="174"/>
-      <c r="BG24" s="175"/>
+      <c r="BF24" s="172"/>
+      <c r="BG24" s="173"/>
       <c r="BH24" s="58"/>
       <c r="BI24" s="58"/>
       <c r="BJ24" s="58"/>
       <c r="BK24" s="58"/>
       <c r="BL24" s="58"/>
-      <c r="BM24" s="174"/>
-      <c r="BN24" s="175"/>
+      <c r="BM24" s="172"/>
+      <c r="BN24" s="173"/>
       <c r="BO24" s="58"/>
       <c r="BP24" s="58"/>
-      <c r="BQ24" s="143"/>
+      <c r="BQ24" s="141"/>
       <c r="BR24" s="6"/>
       <c r="BS24" s="49"/>
       <c r="BT24" s="49"/>
@@ -6940,73 +6934,73 @@
       <c r="F25" s="31">
         <v>44068</v>
       </c>
-      <c r="G25" s="150">
+      <c r="G25" s="148">
         <v>1</v>
       </c>
-      <c r="H25" s="151" t="s">
+      <c r="H25" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="174"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="159"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
+      <c r="K25" s="157"/>
       <c r="L25" s="58"/>
       <c r="M25" s="58"/>
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
-      <c r="P25" s="174"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="159"/>
+      <c r="P25" s="172"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="157"/>
       <c r="S25" s="58"/>
       <c r="T25" s="58"/>
       <c r="U25" s="58"/>
       <c r="V25" s="58"/>
-      <c r="W25" s="174"/>
-      <c r="X25" s="175"/>
+      <c r="W25" s="172"/>
+      <c r="X25" s="173"/>
       <c r="Y25" s="58"/>
       <c r="Z25" s="58"/>
       <c r="AA25" s="58"/>
-      <c r="AB25" s="72"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="174"/>
-      <c r="AE25" s="175"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
+      <c r="AB25" s="71"/>
+      <c r="AC25" s="71"/>
+      <c r="AD25" s="172"/>
+      <c r="AE25" s="173"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
       <c r="AH25" s="58"/>
       <c r="AI25" s="58"/>
       <c r="AJ25" s="58"/>
-      <c r="AK25" s="174"/>
-      <c r="AL25" s="175"/>
+      <c r="AK25" s="172"/>
+      <c r="AL25" s="173"/>
       <c r="AM25" s="58"/>
       <c r="AN25" s="58"/>
       <c r="AO25" s="58"/>
       <c r="AP25" s="58"/>
       <c r="AQ25" s="58"/>
-      <c r="AR25" s="174"/>
-      <c r="AS25" s="175"/>
+      <c r="AR25" s="172"/>
+      <c r="AS25" s="173"/>
       <c r="AT25" s="58"/>
       <c r="AU25" s="58"/>
       <c r="AV25" s="58"/>
       <c r="AW25" s="58"/>
       <c r="AX25" s="58"/>
-      <c r="AY25" s="174"/>
-      <c r="AZ25" s="175"/>
+      <c r="AY25" s="172"/>
+      <c r="AZ25" s="173"/>
       <c r="BA25" s="58"/>
       <c r="BB25" s="58"/>
       <c r="BC25" s="58"/>
       <c r="BD25" s="58"/>
       <c r="BE25" s="58"/>
-      <c r="BF25" s="174"/>
-      <c r="BG25" s="175"/>
+      <c r="BF25" s="172"/>
+      <c r="BG25" s="173"/>
       <c r="BH25" s="58"/>
       <c r="BI25" s="58"/>
       <c r="BJ25" s="58"/>
       <c r="BK25" s="58"/>
       <c r="BL25" s="58"/>
-      <c r="BM25" s="174"/>
-      <c r="BN25" s="175"/>
+      <c r="BM25" s="172"/>
+      <c r="BN25" s="173"/>
       <c r="BO25" s="58"/>
       <c r="BP25" s="58"/>
-      <c r="BQ25" s="143"/>
+      <c r="BQ25" s="141"/>
       <c r="BR25" s="6"/>
       <c r="BS25" s="49"/>
       <c r="BT25" s="49"/>
@@ -7190,73 +7184,73 @@
       <c r="F26" s="31">
         <v>44069</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="148">
         <v>1</v>
       </c>
-      <c r="H26" s="151" t="s">
+      <c r="H26" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I26" s="174"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="159"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
+      <c r="K26" s="157"/>
       <c r="L26" s="58"/>
       <c r="M26" s="58"/>
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
-      <c r="P26" s="174"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="159"/>
+      <c r="P26" s="172"/>
+      <c r="Q26" s="173"/>
+      <c r="R26" s="157"/>
       <c r="S26" s="58"/>
       <c r="T26" s="58"/>
       <c r="U26" s="58"/>
       <c r="V26" s="58"/>
-      <c r="W26" s="174"/>
-      <c r="X26" s="175"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="173"/>
       <c r="Y26" s="58"/>
       <c r="Z26" s="58"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="58"/>
       <c r="AC26" s="58"/>
-      <c r="AD26" s="174"/>
-      <c r="AE26" s="175"/>
+      <c r="AD26" s="172"/>
+      <c r="AE26" s="173"/>
       <c r="AF26" s="58"/>
       <c r="AG26" s="58"/>
-      <c r="AH26" s="72"/>
+      <c r="AH26" s="71"/>
       <c r="AI26" s="58"/>
       <c r="AJ26" s="58"/>
-      <c r="AK26" s="174"/>
-      <c r="AL26" s="175"/>
+      <c r="AK26" s="172"/>
+      <c r="AL26" s="173"/>
       <c r="AM26" s="58"/>
       <c r="AN26" s="58"/>
       <c r="AO26" s="58"/>
       <c r="AP26" s="58"/>
       <c r="AQ26" s="58"/>
-      <c r="AR26" s="174"/>
-      <c r="AS26" s="175"/>
+      <c r="AR26" s="172"/>
+      <c r="AS26" s="173"/>
       <c r="AT26" s="58"/>
       <c r="AU26" s="58"/>
       <c r="AV26" s="58"/>
       <c r="AW26" s="58"/>
       <c r="AX26" s="58"/>
-      <c r="AY26" s="174"/>
-      <c r="AZ26" s="175"/>
+      <c r="AY26" s="172"/>
+      <c r="AZ26" s="173"/>
       <c r="BA26" s="58"/>
       <c r="BB26" s="58"/>
       <c r="BC26" s="58"/>
       <c r="BD26" s="58"/>
       <c r="BE26" s="58"/>
-      <c r="BF26" s="174"/>
-      <c r="BG26" s="175"/>
+      <c r="BF26" s="172"/>
+      <c r="BG26" s="173"/>
       <c r="BH26" s="58"/>
       <c r="BI26" s="58"/>
       <c r="BJ26" s="58"/>
       <c r="BK26" s="58"/>
       <c r="BL26" s="58"/>
-      <c r="BM26" s="174"/>
-      <c r="BN26" s="175"/>
+      <c r="BM26" s="172"/>
+      <c r="BN26" s="173"/>
       <c r="BO26" s="58"/>
       <c r="BP26" s="58"/>
-      <c r="BQ26" s="143"/>
+      <c r="BQ26" s="141"/>
       <c r="BR26" s="6"/>
       <c r="BS26" s="49"/>
       <c r="BT26" s="49"/>
@@ -7440,73 +7434,73 @@
       <c r="F27" s="31">
         <v>44069</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="148">
         <v>1</v>
       </c>
-      <c r="H27" s="151" t="s">
+      <c r="H27" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="174"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="159"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
+      <c r="K27" s="157"/>
       <c r="L27" s="58"/>
       <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="58"/>
-      <c r="P27" s="174"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="159"/>
+      <c r="P27" s="172"/>
+      <c r="Q27" s="173"/>
+      <c r="R27" s="157"/>
       <c r="S27" s="58"/>
       <c r="T27" s="58"/>
       <c r="U27" s="58"/>
       <c r="V27" s="58"/>
-      <c r="W27" s="174"/>
-      <c r="X27" s="175"/>
+      <c r="W27" s="172"/>
+      <c r="X27" s="173"/>
       <c r="Y27" s="58"/>
       <c r="Z27" s="58"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="58"/>
       <c r="AC27" s="58"/>
-      <c r="AD27" s="174"/>
-      <c r="AE27" s="175"/>
+      <c r="AD27" s="172"/>
+      <c r="AE27" s="173"/>
       <c r="AF27" s="58"/>
       <c r="AG27" s="58"/>
-      <c r="AH27" s="72"/>
+      <c r="AH27" s="71"/>
       <c r="AI27" s="58"/>
       <c r="AJ27" s="58"/>
-      <c r="AK27" s="174"/>
-      <c r="AL27" s="175"/>
+      <c r="AK27" s="172"/>
+      <c r="AL27" s="173"/>
       <c r="AM27" s="58"/>
       <c r="AN27" s="58"/>
       <c r="AO27" s="58"/>
       <c r="AP27" s="58"/>
       <c r="AQ27" s="58"/>
-      <c r="AR27" s="174"/>
-      <c r="AS27" s="175"/>
+      <c r="AR27" s="172"/>
+      <c r="AS27" s="173"/>
       <c r="AT27" s="58"/>
       <c r="AU27" s="58"/>
       <c r="AV27" s="58"/>
       <c r="AW27" s="58"/>
       <c r="AX27" s="58"/>
-      <c r="AY27" s="174"/>
-      <c r="AZ27" s="175"/>
+      <c r="AY27" s="172"/>
+      <c r="AZ27" s="173"/>
       <c r="BA27" s="58"/>
       <c r="BB27" s="58"/>
       <c r="BC27" s="58"/>
       <c r="BD27" s="58"/>
       <c r="BE27" s="58"/>
-      <c r="BF27" s="174"/>
-      <c r="BG27" s="175"/>
+      <c r="BF27" s="172"/>
+      <c r="BG27" s="173"/>
       <c r="BH27" s="58"/>
       <c r="BI27" s="58"/>
       <c r="BJ27" s="58"/>
       <c r="BK27" s="58"/>
       <c r="BL27" s="58"/>
-      <c r="BM27" s="174"/>
-      <c r="BN27" s="175"/>
+      <c r="BM27" s="172"/>
+      <c r="BN27" s="173"/>
       <c r="BO27" s="58"/>
       <c r="BP27" s="58"/>
-      <c r="BQ27" s="143"/>
+      <c r="BQ27" s="141"/>
       <c r="BR27" s="6"/>
       <c r="BS27" s="49"/>
       <c r="BT27" s="49"/>
@@ -7692,67 +7686,67 @@
       </c>
       <c r="G28" s="34"/>
       <c r="H28" s="61"/>
-      <c r="I28" s="174"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="158"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
+      <c r="K28" s="156"/>
       <c r="L28" s="54"/>
       <c r="M28" s="54"/>
       <c r="N28" s="54"/>
       <c r="O28" s="54"/>
-      <c r="P28" s="174"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="158"/>
+      <c r="P28" s="172"/>
+      <c r="Q28" s="173"/>
+      <c r="R28" s="156"/>
       <c r="S28" s="54"/>
       <c r="T28" s="54"/>
       <c r="U28" s="54"/>
       <c r="V28" s="54"/>
-      <c r="W28" s="174"/>
-      <c r="X28" s="175"/>
+      <c r="W28" s="172"/>
+      <c r="X28" s="173"/>
       <c r="Y28" s="54"/>
       <c r="Z28" s="54"/>
       <c r="AA28" s="54"/>
       <c r="AB28" s="54"/>
       <c r="AC28" s="54"/>
-      <c r="AD28" s="174"/>
-      <c r="AE28" s="175"/>
+      <c r="AD28" s="172"/>
+      <c r="AE28" s="173"/>
       <c r="AF28" s="54"/>
       <c r="AG28" s="54"/>
       <c r="AH28" s="54"/>
       <c r="AI28" s="54"/>
       <c r="AJ28" s="54"/>
-      <c r="AK28" s="174"/>
-      <c r="AL28" s="175"/>
+      <c r="AK28" s="172"/>
+      <c r="AL28" s="173"/>
       <c r="AM28" s="54"/>
       <c r="AN28" s="54"/>
       <c r="AO28" s="54"/>
       <c r="AP28" s="54"/>
       <c r="AQ28" s="54"/>
-      <c r="AR28" s="174"/>
-      <c r="AS28" s="175"/>
+      <c r="AR28" s="172"/>
+      <c r="AS28" s="173"/>
       <c r="AT28" s="54"/>
       <c r="AU28" s="54"/>
       <c r="AV28" s="54"/>
       <c r="AW28" s="54"/>
       <c r="AX28" s="54"/>
-      <c r="AY28" s="174"/>
-      <c r="AZ28" s="175"/>
+      <c r="AY28" s="172"/>
+      <c r="AZ28" s="173"/>
       <c r="BA28" s="54"/>
       <c r="BB28" s="54"/>
       <c r="BC28" s="54"/>
       <c r="BD28" s="54"/>
       <c r="BE28" s="54"/>
-      <c r="BF28" s="174"/>
-      <c r="BG28" s="175"/>
+      <c r="BF28" s="172"/>
+      <c r="BG28" s="173"/>
       <c r="BH28" s="54"/>
       <c r="BI28" s="54"/>
       <c r="BJ28" s="54"/>
       <c r="BK28" s="54"/>
       <c r="BL28" s="54"/>
-      <c r="BM28" s="174"/>
-      <c r="BN28" s="175"/>
+      <c r="BM28" s="172"/>
+      <c r="BN28" s="173"/>
       <c r="BO28" s="54"/>
       <c r="BP28" s="54"/>
-      <c r="BQ28" s="137"/>
+      <c r="BQ28" s="135"/>
       <c r="BR28" s="6"/>
       <c r="BS28" s="49"/>
       <c r="BT28" s="49"/>
@@ -7936,73 +7930,73 @@
       <c r="F29" s="31">
         <v>44070</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="148">
         <v>1</v>
       </c>
-      <c r="H29" s="151" t="s">
+      <c r="H29" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I29" s="174"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="159"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
+      <c r="K29" s="157"/>
       <c r="L29" s="58"/>
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
       <c r="O29" s="58"/>
-      <c r="P29" s="174"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="159"/>
+      <c r="P29" s="172"/>
+      <c r="Q29" s="173"/>
+      <c r="R29" s="157"/>
       <c r="S29" s="58"/>
       <c r="T29" s="58"/>
       <c r="U29" s="58"/>
       <c r="V29" s="58"/>
-      <c r="W29" s="174"/>
-      <c r="X29" s="175"/>
+      <c r="W29" s="172"/>
+      <c r="X29" s="173"/>
       <c r="Y29" s="58"/>
       <c r="Z29" s="58"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
-      <c r="AD29" s="174"/>
-      <c r="AE29" s="175"/>
+      <c r="AD29" s="172"/>
+      <c r="AE29" s="173"/>
       <c r="AF29" s="58"/>
       <c r="AG29" s="58"/>
       <c r="AH29" s="58"/>
-      <c r="AI29" s="72"/>
+      <c r="AI29" s="71"/>
       <c r="AJ29" s="58"/>
-      <c r="AK29" s="174"/>
-      <c r="AL29" s="175"/>
+      <c r="AK29" s="172"/>
+      <c r="AL29" s="173"/>
       <c r="AM29" s="58"/>
       <c r="AN29" s="58"/>
       <c r="AO29" s="58"/>
       <c r="AP29" s="58"/>
       <c r="AQ29" s="58"/>
-      <c r="AR29" s="174"/>
-      <c r="AS29" s="175"/>
+      <c r="AR29" s="172"/>
+      <c r="AS29" s="173"/>
       <c r="AT29" s="58"/>
       <c r="AU29" s="58"/>
       <c r="AV29" s="58"/>
       <c r="AW29" s="58"/>
       <c r="AX29" s="58"/>
-      <c r="AY29" s="174"/>
-      <c r="AZ29" s="175"/>
+      <c r="AY29" s="172"/>
+      <c r="AZ29" s="173"/>
       <c r="BA29" s="58"/>
       <c r="BB29" s="58"/>
       <c r="BC29" s="58"/>
       <c r="BD29" s="58"/>
       <c r="BE29" s="58"/>
-      <c r="BF29" s="174"/>
-      <c r="BG29" s="175"/>
+      <c r="BF29" s="172"/>
+      <c r="BG29" s="173"/>
       <c r="BH29" s="58"/>
       <c r="BI29" s="58"/>
       <c r="BJ29" s="58"/>
       <c r="BK29" s="58"/>
       <c r="BL29" s="58"/>
-      <c r="BM29" s="174"/>
-      <c r="BN29" s="175"/>
+      <c r="BM29" s="172"/>
+      <c r="BN29" s="173"/>
       <c r="BO29" s="58"/>
       <c r="BP29" s="58"/>
-      <c r="BQ29" s="143"/>
+      <c r="BQ29" s="141"/>
       <c r="BR29" s="6"/>
       <c r="BS29" s="49"/>
       <c r="BT29" s="49"/>
@@ -8186,73 +8180,73 @@
       <c r="F30" s="31">
         <v>44071</v>
       </c>
-      <c r="G30" s="150">
+      <c r="G30" s="148">
         <v>1</v>
       </c>
-      <c r="H30" s="151" t="s">
+      <c r="H30" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I30" s="174"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="159"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="173"/>
+      <c r="K30" s="157"/>
       <c r="L30" s="58"/>
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
       <c r="O30" s="58"/>
-      <c r="P30" s="174"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="159"/>
+      <c r="P30" s="172"/>
+      <c r="Q30" s="173"/>
+      <c r="R30" s="157"/>
       <c r="S30" s="58"/>
       <c r="T30" s="58"/>
       <c r="U30" s="58"/>
       <c r="V30" s="58"/>
-      <c r="W30" s="174"/>
-      <c r="X30" s="175"/>
+      <c r="W30" s="172"/>
+      <c r="X30" s="173"/>
       <c r="Y30" s="58"/>
       <c r="Z30" s="58"/>
       <c r="AA30" s="58"/>
       <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
-      <c r="AD30" s="174"/>
-      <c r="AE30" s="175"/>
+      <c r="AD30" s="172"/>
+      <c r="AE30" s="173"/>
       <c r="AF30" s="58"/>
       <c r="AG30" s="58"/>
       <c r="AH30" s="58"/>
       <c r="AI30" s="58"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="174"/>
-      <c r="AL30" s="175"/>
+      <c r="AJ30" s="71"/>
+      <c r="AK30" s="172"/>
+      <c r="AL30" s="173"/>
       <c r="AM30" s="58"/>
       <c r="AN30" s="58"/>
       <c r="AO30" s="58"/>
       <c r="AP30" s="58"/>
       <c r="AQ30" s="58"/>
-      <c r="AR30" s="174"/>
-      <c r="AS30" s="175"/>
+      <c r="AR30" s="172"/>
+      <c r="AS30" s="173"/>
       <c r="AT30" s="58"/>
       <c r="AU30" s="58"/>
       <c r="AV30" s="58"/>
       <c r="AW30" s="58"/>
       <c r="AX30" s="58"/>
-      <c r="AY30" s="174"/>
-      <c r="AZ30" s="175"/>
+      <c r="AY30" s="172"/>
+      <c r="AZ30" s="173"/>
       <c r="BA30" s="58"/>
       <c r="BB30" s="58"/>
       <c r="BC30" s="58"/>
       <c r="BD30" s="58"/>
       <c r="BE30" s="58"/>
-      <c r="BF30" s="174"/>
-      <c r="BG30" s="175"/>
+      <c r="BF30" s="172"/>
+      <c r="BG30" s="173"/>
       <c r="BH30" s="58"/>
       <c r="BI30" s="58"/>
       <c r="BJ30" s="58"/>
       <c r="BK30" s="58"/>
       <c r="BL30" s="58"/>
-      <c r="BM30" s="174"/>
-      <c r="BN30" s="175"/>
+      <c r="BM30" s="172"/>
+      <c r="BN30" s="173"/>
       <c r="BO30" s="58"/>
       <c r="BP30" s="58"/>
-      <c r="BQ30" s="143"/>
+      <c r="BQ30" s="141"/>
       <c r="BR30" s="6"/>
       <c r="BS30" s="49"/>
       <c r="BT30" s="49"/>
@@ -8436,73 +8430,73 @@
       <c r="F31" s="31">
         <v>44075</v>
       </c>
-      <c r="G31" s="150">
+      <c r="G31" s="148">
         <v>1</v>
       </c>
-      <c r="H31" s="151" t="s">
+      <c r="H31" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I31" s="174"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="159"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
+      <c r="K31" s="157"/>
       <c r="L31" s="58"/>
       <c r="M31" s="58"/>
       <c r="N31" s="58"/>
       <c r="O31" s="58"/>
-      <c r="P31" s="174"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="159"/>
+      <c r="P31" s="172"/>
+      <c r="Q31" s="173"/>
+      <c r="R31" s="157"/>
       <c r="S31" s="58"/>
       <c r="T31" s="58"/>
       <c r="U31" s="58"/>
       <c r="V31" s="58"/>
-      <c r="W31" s="174"/>
-      <c r="X31" s="175"/>
+      <c r="W31" s="172"/>
+      <c r="X31" s="173"/>
       <c r="Y31" s="58"/>
       <c r="Z31" s="58"/>
       <c r="AA31" s="58"/>
       <c r="AB31" s="58"/>
       <c r="AC31" s="58"/>
-      <c r="AD31" s="174"/>
-      <c r="AE31" s="175"/>
+      <c r="AD31" s="172"/>
+      <c r="AE31" s="173"/>
       <c r="AF31" s="58"/>
       <c r="AG31" s="58"/>
       <c r="AH31" s="58"/>
       <c r="AI31" s="58"/>
-      <c r="AJ31" s="72"/>
-      <c r="AK31" s="174"/>
-      <c r="AL31" s="175"/>
-      <c r="AM31" s="72"/>
-      <c r="AN31" s="72"/>
+      <c r="AJ31" s="71"/>
+      <c r="AK31" s="172"/>
+      <c r="AL31" s="173"/>
+      <c r="AM31" s="71"/>
+      <c r="AN31" s="71"/>
       <c r="AO31" s="58"/>
       <c r="AP31" s="58"/>
       <c r="AQ31" s="58"/>
-      <c r="AR31" s="174"/>
-      <c r="AS31" s="175"/>
+      <c r="AR31" s="172"/>
+      <c r="AS31" s="173"/>
       <c r="AT31" s="58"/>
       <c r="AU31" s="58"/>
       <c r="AV31" s="58"/>
       <c r="AW31" s="58"/>
       <c r="AX31" s="58"/>
-      <c r="AY31" s="174"/>
-      <c r="AZ31" s="175"/>
+      <c r="AY31" s="172"/>
+      <c r="AZ31" s="173"/>
       <c r="BA31" s="58"/>
       <c r="BB31" s="58"/>
       <c r="BC31" s="58"/>
       <c r="BD31" s="58"/>
       <c r="BE31" s="58"/>
-      <c r="BF31" s="174"/>
-      <c r="BG31" s="175"/>
+      <c r="BF31" s="172"/>
+      <c r="BG31" s="173"/>
       <c r="BH31" s="58"/>
       <c r="BI31" s="58"/>
       <c r="BJ31" s="58"/>
       <c r="BK31" s="58"/>
       <c r="BL31" s="58"/>
-      <c r="BM31" s="174"/>
-      <c r="BN31" s="175"/>
+      <c r="BM31" s="172"/>
+      <c r="BN31" s="173"/>
       <c r="BO31" s="58"/>
       <c r="BP31" s="58"/>
-      <c r="BQ31" s="143"/>
+      <c r="BQ31" s="141"/>
       <c r="BR31" s="6"/>
       <c r="BS31" s="49"/>
       <c r="BT31" s="49"/>
@@ -8686,73 +8680,73 @@
       <c r="F32" s="31">
         <v>44075</v>
       </c>
-      <c r="G32" s="150">
+      <c r="G32" s="148">
         <v>1</v>
       </c>
-      <c r="H32" s="151" t="s">
+      <c r="H32" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I32" s="174"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="159"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
+      <c r="K32" s="157"/>
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
       <c r="N32" s="58"/>
       <c r="O32" s="58"/>
-      <c r="P32" s="174"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="159"/>
+      <c r="P32" s="172"/>
+      <c r="Q32" s="173"/>
+      <c r="R32" s="157"/>
       <c r="S32" s="58"/>
       <c r="T32" s="58"/>
       <c r="U32" s="58"/>
       <c r="V32" s="58"/>
-      <c r="W32" s="174"/>
-      <c r="X32" s="175"/>
+      <c r="W32" s="172"/>
+      <c r="X32" s="173"/>
       <c r="Y32" s="58"/>
       <c r="Z32" s="58"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58"/>
       <c r="AC32" s="58"/>
-      <c r="AD32" s="174"/>
-      <c r="AE32" s="175"/>
+      <c r="AD32" s="172"/>
+      <c r="AE32" s="173"/>
       <c r="AF32" s="58"/>
       <c r="AG32" s="58"/>
       <c r="AH32" s="58"/>
       <c r="AI32" s="58"/>
       <c r="AJ32" s="58"/>
-      <c r="AK32" s="174"/>
-      <c r="AL32" s="175"/>
+      <c r="AK32" s="172"/>
+      <c r="AL32" s="173"/>
       <c r="AM32" s="58"/>
-      <c r="AN32" s="72"/>
+      <c r="AN32" s="71"/>
       <c r="AO32" s="58"/>
       <c r="AP32" s="58"/>
       <c r="AQ32" s="58"/>
-      <c r="AR32" s="174"/>
-      <c r="AS32" s="175"/>
+      <c r="AR32" s="172"/>
+      <c r="AS32" s="173"/>
       <c r="AT32" s="58"/>
       <c r="AU32" s="58"/>
       <c r="AV32" s="58"/>
       <c r="AW32" s="58"/>
       <c r="AX32" s="58"/>
-      <c r="AY32" s="174"/>
-      <c r="AZ32" s="175"/>
+      <c r="AY32" s="172"/>
+      <c r="AZ32" s="173"/>
       <c r="BA32" s="58"/>
       <c r="BB32" s="58"/>
       <c r="BC32" s="58"/>
       <c r="BD32" s="58"/>
       <c r="BE32" s="58"/>
-      <c r="BF32" s="174"/>
-      <c r="BG32" s="175"/>
+      <c r="BF32" s="172"/>
+      <c r="BG32" s="173"/>
       <c r="BH32" s="58"/>
       <c r="BI32" s="58"/>
       <c r="BJ32" s="58"/>
       <c r="BK32" s="58"/>
       <c r="BL32" s="58"/>
-      <c r="BM32" s="174"/>
-      <c r="BN32" s="175"/>
+      <c r="BM32" s="172"/>
+      <c r="BN32" s="173"/>
       <c r="BO32" s="58"/>
       <c r="BP32" s="58"/>
-      <c r="BQ32" s="143"/>
+      <c r="BQ32" s="141"/>
       <c r="BR32" s="6"/>
       <c r="BS32" s="49"/>
       <c r="BT32" s="49"/>
@@ -8936,73 +8930,73 @@
       <c r="F33" s="31">
         <v>44077</v>
       </c>
-      <c r="G33" s="150">
+      <c r="G33" s="148">
         <v>1</v>
       </c>
-      <c r="H33" s="151" t="s">
+      <c r="H33" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I33" s="174"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="159"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="157"/>
       <c r="L33" s="58"/>
       <c r="M33" s="58"/>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
-      <c r="P33" s="174"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="159"/>
+      <c r="P33" s="172"/>
+      <c r="Q33" s="173"/>
+      <c r="R33" s="157"/>
       <c r="S33" s="58"/>
       <c r="T33" s="58"/>
       <c r="U33" s="58"/>
       <c r="V33" s="58"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="175"/>
+      <c r="W33" s="172"/>
+      <c r="X33" s="173"/>
       <c r="Y33" s="58"/>
       <c r="Z33" s="58"/>
       <c r="AA33" s="58"/>
       <c r="AB33" s="58"/>
       <c r="AC33" s="58"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="175"/>
+      <c r="AD33" s="172"/>
+      <c r="AE33" s="173"/>
       <c r="AF33" s="58"/>
       <c r="AG33" s="58"/>
       <c r="AH33" s="58"/>
       <c r="AI33" s="58"/>
       <c r="AJ33" s="58"/>
-      <c r="AK33" s="174"/>
-      <c r="AL33" s="175"/>
+      <c r="AK33" s="172"/>
+      <c r="AL33" s="173"/>
       <c r="AM33" s="58"/>
-      <c r="AN33" s="72"/>
+      <c r="AN33" s="71"/>
       <c r="AO33" s="58"/>
-      <c r="AP33" s="72"/>
+      <c r="AP33" s="71"/>
       <c r="AQ33" s="58"/>
-      <c r="AR33" s="174"/>
-      <c r="AS33" s="175"/>
+      <c r="AR33" s="172"/>
+      <c r="AS33" s="173"/>
       <c r="AT33" s="58"/>
       <c r="AU33" s="58"/>
       <c r="AV33" s="58"/>
       <c r="AW33" s="58"/>
       <c r="AX33" s="58"/>
-      <c r="AY33" s="174"/>
-      <c r="AZ33" s="175"/>
+      <c r="AY33" s="172"/>
+      <c r="AZ33" s="173"/>
       <c r="BA33" s="58"/>
       <c r="BB33" s="58"/>
       <c r="BC33" s="58"/>
       <c r="BD33" s="58"/>
       <c r="BE33" s="58"/>
-      <c r="BF33" s="174"/>
-      <c r="BG33" s="175"/>
+      <c r="BF33" s="172"/>
+      <c r="BG33" s="173"/>
       <c r="BH33" s="58"/>
       <c r="BI33" s="58"/>
       <c r="BJ33" s="58"/>
       <c r="BK33" s="58"/>
       <c r="BL33" s="58"/>
-      <c r="BM33" s="174"/>
-      <c r="BN33" s="175"/>
+      <c r="BM33" s="172"/>
+      <c r="BN33" s="173"/>
       <c r="BO33" s="58"/>
       <c r="BP33" s="58"/>
-      <c r="BQ33" s="143"/>
+      <c r="BQ33" s="141"/>
       <c r="BR33" s="6"/>
       <c r="BS33" s="49"/>
       <c r="BT33" s="49"/>
@@ -9188,67 +9182,67 @@
       </c>
       <c r="G34" s="34"/>
       <c r="H34" s="61"/>
-      <c r="I34" s="174"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="158"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
+      <c r="K34" s="156"/>
       <c r="L34" s="54"/>
       <c r="M34" s="54"/>
       <c r="N34" s="54"/>
       <c r="O34" s="54"/>
-      <c r="P34" s="174"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="158"/>
+      <c r="P34" s="172"/>
+      <c r="Q34" s="173"/>
+      <c r="R34" s="156"/>
       <c r="S34" s="54"/>
       <c r="T34" s="54"/>
       <c r="U34" s="54"/>
       <c r="V34" s="54"/>
-      <c r="W34" s="174"/>
-      <c r="X34" s="175"/>
+      <c r="W34" s="172"/>
+      <c r="X34" s="173"/>
       <c r="Y34" s="54"/>
       <c r="Z34" s="54"/>
       <c r="AA34" s="54"/>
       <c r="AB34" s="54"/>
       <c r="AC34" s="54"/>
-      <c r="AD34" s="174"/>
-      <c r="AE34" s="175"/>
+      <c r="AD34" s="172"/>
+      <c r="AE34" s="173"/>
       <c r="AF34" s="54"/>
       <c r="AG34" s="54"/>
       <c r="AH34" s="54"/>
       <c r="AI34" s="54"/>
       <c r="AJ34" s="54"/>
-      <c r="AK34" s="174"/>
-      <c r="AL34" s="175"/>
+      <c r="AK34" s="172"/>
+      <c r="AL34" s="173"/>
       <c r="AM34" s="54"/>
       <c r="AN34" s="54"/>
       <c r="AO34" s="54"/>
       <c r="AP34" s="54"/>
       <c r="AQ34" s="54"/>
-      <c r="AR34" s="174"/>
-      <c r="AS34" s="175"/>
+      <c r="AR34" s="172"/>
+      <c r="AS34" s="173"/>
       <c r="AT34" s="54"/>
       <c r="AU34" s="54"/>
       <c r="AV34" s="54"/>
       <c r="AW34" s="54"/>
       <c r="AX34" s="54"/>
-      <c r="AY34" s="174"/>
-      <c r="AZ34" s="175"/>
+      <c r="AY34" s="172"/>
+      <c r="AZ34" s="173"/>
       <c r="BA34" s="54"/>
       <c r="BB34" s="54"/>
       <c r="BC34" s="54"/>
       <c r="BD34" s="54"/>
       <c r="BE34" s="54"/>
-      <c r="BF34" s="174"/>
-      <c r="BG34" s="175"/>
+      <c r="BF34" s="172"/>
+      <c r="BG34" s="173"/>
       <c r="BH34" s="54"/>
       <c r="BI34" s="54"/>
       <c r="BJ34" s="54"/>
       <c r="BK34" s="54"/>
       <c r="BL34" s="54"/>
-      <c r="BM34" s="174"/>
-      <c r="BN34" s="175"/>
+      <c r="BM34" s="172"/>
+      <c r="BN34" s="173"/>
       <c r="BO34" s="54"/>
       <c r="BP34" s="54"/>
-      <c r="BQ34" s="137"/>
+      <c r="BQ34" s="135"/>
       <c r="BR34" s="6"/>
       <c r="BS34" s="49"/>
       <c r="BT34" s="49"/>
@@ -9432,73 +9426,73 @@
       <c r="F35" s="31">
         <v>44078</v>
       </c>
-      <c r="G35" s="150">
+      <c r="G35" s="148">
         <v>1</v>
       </c>
-      <c r="H35" s="151" t="s">
+      <c r="H35" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I35" s="174"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="159"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="157"/>
       <c r="L35" s="58"/>
       <c r="M35" s="58"/>
       <c r="N35" s="58"/>
       <c r="O35" s="58"/>
-      <c r="P35" s="174"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="159"/>
+      <c r="P35" s="172"/>
+      <c r="Q35" s="173"/>
+      <c r="R35" s="157"/>
       <c r="S35" s="58"/>
       <c r="T35" s="58"/>
       <c r="U35" s="58"/>
       <c r="V35" s="58"/>
-      <c r="W35" s="174"/>
-      <c r="X35" s="175"/>
+      <c r="W35" s="172"/>
+      <c r="X35" s="173"/>
       <c r="Y35" s="58"/>
       <c r="Z35" s="58"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58"/>
       <c r="AC35" s="58"/>
-      <c r="AD35" s="174"/>
-      <c r="AE35" s="175"/>
+      <c r="AD35" s="172"/>
+      <c r="AE35" s="173"/>
       <c r="AF35" s="58"/>
       <c r="AG35" s="58"/>
       <c r="AH35" s="58"/>
       <c r="AI35" s="58"/>
       <c r="AJ35" s="58"/>
-      <c r="AK35" s="174"/>
-      <c r="AL35" s="175"/>
+      <c r="AK35" s="172"/>
+      <c r="AL35" s="173"/>
       <c r="AM35" s="58"/>
       <c r="AN35" s="58"/>
       <c r="AO35" s="58"/>
       <c r="AP35" s="58"/>
-      <c r="AQ35" s="72"/>
-      <c r="AR35" s="174"/>
-      <c r="AS35" s="175"/>
+      <c r="AQ35" s="71"/>
+      <c r="AR35" s="172"/>
+      <c r="AS35" s="173"/>
       <c r="AT35" s="58"/>
       <c r="AU35" s="58"/>
       <c r="AV35" s="58"/>
       <c r="AW35" s="58"/>
       <c r="AX35" s="58"/>
-      <c r="AY35" s="174"/>
-      <c r="AZ35" s="175"/>
+      <c r="AY35" s="172"/>
+      <c r="AZ35" s="173"/>
       <c r="BA35" s="58"/>
       <c r="BB35" s="58"/>
       <c r="BC35" s="58"/>
       <c r="BD35" s="58"/>
       <c r="BE35" s="58"/>
-      <c r="BF35" s="174"/>
-      <c r="BG35" s="175"/>
+      <c r="BF35" s="172"/>
+      <c r="BG35" s="173"/>
       <c r="BH35" s="58"/>
       <c r="BI35" s="58"/>
       <c r="BJ35" s="58"/>
       <c r="BK35" s="58"/>
       <c r="BL35" s="58"/>
-      <c r="BM35" s="174"/>
-      <c r="BN35" s="175"/>
+      <c r="BM35" s="172"/>
+      <c r="BN35" s="173"/>
       <c r="BO35" s="58"/>
       <c r="BP35" s="58"/>
-      <c r="BQ35" s="143"/>
+      <c r="BQ35" s="141"/>
       <c r="BR35" s="6"/>
       <c r="BS35" s="49"/>
       <c r="BT35" s="49"/>
@@ -9682,73 +9676,73 @@
       <c r="F36" s="31">
         <v>44078</v>
       </c>
-      <c r="G36" s="150">
+      <c r="G36" s="148">
         <v>1</v>
       </c>
-      <c r="H36" s="151" t="s">
+      <c r="H36" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I36" s="174"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="159"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
+      <c r="K36" s="157"/>
       <c r="L36" s="58"/>
       <c r="M36" s="58"/>
       <c r="N36" s="58"/>
       <c r="O36" s="58"/>
-      <c r="P36" s="174"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="159"/>
+      <c r="P36" s="172"/>
+      <c r="Q36" s="173"/>
+      <c r="R36" s="157"/>
       <c r="S36" s="58"/>
       <c r="T36" s="58"/>
       <c r="U36" s="58"/>
       <c r="V36" s="58"/>
-      <c r="W36" s="174"/>
-      <c r="X36" s="175"/>
+      <c r="W36" s="172"/>
+      <c r="X36" s="173"/>
       <c r="Y36" s="58"/>
       <c r="Z36" s="58"/>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58"/>
       <c r="AC36" s="58"/>
-      <c r="AD36" s="174"/>
-      <c r="AE36" s="175"/>
+      <c r="AD36" s="172"/>
+      <c r="AE36" s="173"/>
       <c r="AF36" s="58"/>
       <c r="AG36" s="58"/>
       <c r="AH36" s="58"/>
       <c r="AI36" s="58"/>
       <c r="AJ36" s="58"/>
-      <c r="AK36" s="174"/>
-      <c r="AL36" s="175"/>
+      <c r="AK36" s="172"/>
+      <c r="AL36" s="173"/>
       <c r="AM36" s="58"/>
       <c r="AN36" s="58"/>
       <c r="AO36" s="58"/>
       <c r="AP36" s="58"/>
-      <c r="AQ36" s="72"/>
-      <c r="AR36" s="174"/>
-      <c r="AS36" s="175"/>
+      <c r="AQ36" s="71"/>
+      <c r="AR36" s="172"/>
+      <c r="AS36" s="173"/>
       <c r="AT36" s="58"/>
       <c r="AU36" s="58"/>
       <c r="AV36" s="58"/>
       <c r="AW36" s="58"/>
       <c r="AX36" s="58"/>
-      <c r="AY36" s="174"/>
-      <c r="AZ36" s="175"/>
+      <c r="AY36" s="172"/>
+      <c r="AZ36" s="173"/>
       <c r="BA36" s="58"/>
       <c r="BB36" s="58"/>
       <c r="BC36" s="58"/>
       <c r="BD36" s="58"/>
       <c r="BE36" s="58"/>
-      <c r="BF36" s="174"/>
-      <c r="BG36" s="175"/>
+      <c r="BF36" s="172"/>
+      <c r="BG36" s="173"/>
       <c r="BH36" s="58"/>
       <c r="BI36" s="58"/>
       <c r="BJ36" s="58"/>
       <c r="BK36" s="58"/>
       <c r="BL36" s="58"/>
-      <c r="BM36" s="174"/>
-      <c r="BN36" s="175"/>
+      <c r="BM36" s="172"/>
+      <c r="BN36" s="173"/>
       <c r="BO36" s="58"/>
       <c r="BP36" s="58"/>
-      <c r="BQ36" s="143"/>
+      <c r="BQ36" s="141"/>
       <c r="BR36" s="6"/>
       <c r="BS36" s="49"/>
       <c r="BT36" s="49"/>
@@ -9932,73 +9926,73 @@
       <c r="F37" s="31">
         <v>44081</v>
       </c>
-      <c r="G37" s="150">
+      <c r="G37" s="148">
         <v>1</v>
       </c>
-      <c r="H37" s="151" t="s">
+      <c r="H37" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="174"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="159"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="173"/>
+      <c r="K37" s="157"/>
       <c r="L37" s="58"/>
       <c r="M37" s="58"/>
       <c r="N37" s="58"/>
       <c r="O37" s="58"/>
-      <c r="P37" s="174"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="159"/>
+      <c r="P37" s="172"/>
+      <c r="Q37" s="173"/>
+      <c r="R37" s="157"/>
       <c r="S37" s="58"/>
       <c r="T37" s="58"/>
       <c r="U37" s="58"/>
       <c r="V37" s="58"/>
-      <c r="W37" s="174"/>
-      <c r="X37" s="175"/>
+      <c r="W37" s="172"/>
+      <c r="X37" s="173"/>
       <c r="Y37" s="58"/>
       <c r="Z37" s="58"/>
       <c r="AA37" s="58"/>
       <c r="AB37" s="58"/>
       <c r="AC37" s="58"/>
-      <c r="AD37" s="174"/>
-      <c r="AE37" s="175"/>
+      <c r="AD37" s="172"/>
+      <c r="AE37" s="173"/>
       <c r="AF37" s="58"/>
       <c r="AG37" s="58"/>
       <c r="AH37" s="58"/>
       <c r="AI37" s="58"/>
       <c r="AJ37" s="58"/>
-      <c r="AK37" s="174"/>
-      <c r="AL37" s="175"/>
+      <c r="AK37" s="172"/>
+      <c r="AL37" s="173"/>
       <c r="AM37" s="58"/>
       <c r="AN37" s="58"/>
       <c r="AO37" s="58"/>
       <c r="AP37" s="58"/>
-      <c r="AQ37" s="72"/>
-      <c r="AR37" s="174"/>
-      <c r="AS37" s="175"/>
-      <c r="AT37" s="72"/>
+      <c r="AQ37" s="71"/>
+      <c r="AR37" s="172"/>
+      <c r="AS37" s="173"/>
+      <c r="AT37" s="71"/>
       <c r="AU37" s="58"/>
       <c r="AV37" s="58"/>
       <c r="AW37" s="58"/>
       <c r="AX37" s="58"/>
-      <c r="AY37" s="174"/>
-      <c r="AZ37" s="175"/>
+      <c r="AY37" s="172"/>
+      <c r="AZ37" s="173"/>
       <c r="BA37" s="58"/>
       <c r="BB37" s="58"/>
       <c r="BC37" s="58"/>
       <c r="BD37" s="58"/>
       <c r="BE37" s="58"/>
-      <c r="BF37" s="174"/>
-      <c r="BG37" s="175"/>
+      <c r="BF37" s="172"/>
+      <c r="BG37" s="173"/>
       <c r="BH37" s="58"/>
       <c r="BI37" s="58"/>
       <c r="BJ37" s="58"/>
       <c r="BK37" s="58"/>
       <c r="BL37" s="58"/>
-      <c r="BM37" s="174"/>
-      <c r="BN37" s="175"/>
+      <c r="BM37" s="172"/>
+      <c r="BN37" s="173"/>
       <c r="BO37" s="58"/>
       <c r="BP37" s="58"/>
-      <c r="BQ37" s="143"/>
+      <c r="BQ37" s="141"/>
       <c r="BR37" s="6"/>
       <c r="BS37" s="49"/>
       <c r="BT37" s="49"/>
@@ -10182,73 +10176,73 @@
       <c r="F38" s="31">
         <v>44081</v>
       </c>
-      <c r="G38" s="150">
+      <c r="G38" s="148">
         <v>1</v>
       </c>
-      <c r="H38" s="151" t="s">
+      <c r="H38" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I38" s="174"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="159"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="173"/>
+      <c r="K38" s="157"/>
       <c r="L38" s="58"/>
       <c r="M38" s="58"/>
       <c r="N38" s="58"/>
       <c r="O38" s="58"/>
-      <c r="P38" s="174"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="159"/>
+      <c r="P38" s="172"/>
+      <c r="Q38" s="173"/>
+      <c r="R38" s="157"/>
       <c r="S38" s="58"/>
       <c r="T38" s="58"/>
       <c r="U38" s="58"/>
       <c r="V38" s="58"/>
-      <c r="W38" s="174"/>
-      <c r="X38" s="175"/>
+      <c r="W38" s="172"/>
+      <c r="X38" s="173"/>
       <c r="Y38" s="58"/>
       <c r="Z38" s="58"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58"/>
       <c r="AC38" s="58"/>
-      <c r="AD38" s="174"/>
-      <c r="AE38" s="175"/>
+      <c r="AD38" s="172"/>
+      <c r="AE38" s="173"/>
       <c r="AF38" s="58"/>
       <c r="AG38" s="58"/>
       <c r="AH38" s="58"/>
       <c r="AI38" s="58"/>
       <c r="AJ38" s="58"/>
-      <c r="AK38" s="174"/>
-      <c r="AL38" s="175"/>
+      <c r="AK38" s="172"/>
+      <c r="AL38" s="173"/>
       <c r="AM38" s="58"/>
       <c r="AN38" s="58"/>
       <c r="AO38" s="58"/>
       <c r="AP38" s="58"/>
-      <c r="AQ38" s="72"/>
-      <c r="AR38" s="174"/>
-      <c r="AS38" s="175"/>
-      <c r="AT38" s="72"/>
+      <c r="AQ38" s="71"/>
+      <c r="AR38" s="172"/>
+      <c r="AS38" s="173"/>
+      <c r="AT38" s="71"/>
       <c r="AU38" s="58"/>
       <c r="AV38" s="58"/>
       <c r="AW38" s="58"/>
       <c r="AX38" s="58"/>
-      <c r="AY38" s="174"/>
-      <c r="AZ38" s="175"/>
+      <c r="AY38" s="172"/>
+      <c r="AZ38" s="173"/>
       <c r="BA38" s="58"/>
       <c r="BB38" s="58"/>
       <c r="BC38" s="58"/>
       <c r="BD38" s="58"/>
       <c r="BE38" s="58"/>
-      <c r="BF38" s="174"/>
-      <c r="BG38" s="175"/>
+      <c r="BF38" s="172"/>
+      <c r="BG38" s="173"/>
       <c r="BH38" s="58"/>
       <c r="BI38" s="58"/>
       <c r="BJ38" s="58"/>
       <c r="BK38" s="58"/>
       <c r="BL38" s="58"/>
-      <c r="BM38" s="174"/>
-      <c r="BN38" s="175"/>
+      <c r="BM38" s="172"/>
+      <c r="BN38" s="173"/>
       <c r="BO38" s="58"/>
       <c r="BP38" s="58"/>
-      <c r="BQ38" s="143"/>
+      <c r="BQ38" s="141"/>
       <c r="BR38" s="6"/>
       <c r="BS38" s="49"/>
       <c r="BT38" s="49"/>
@@ -10432,73 +10426,73 @@
       <c r="F39" s="31">
         <v>44081</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="148">
         <v>1</v>
       </c>
-      <c r="H39" s="151" t="s">
+      <c r="H39" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I39" s="174"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="159"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="173"/>
+      <c r="K39" s="157"/>
       <c r="L39" s="58"/>
       <c r="M39" s="58"/>
       <c r="N39" s="58"/>
       <c r="O39" s="58"/>
-      <c r="P39" s="174"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="159"/>
+      <c r="P39" s="172"/>
+      <c r="Q39" s="173"/>
+      <c r="R39" s="157"/>
       <c r="S39" s="58"/>
       <c r="T39" s="58"/>
       <c r="U39" s="58"/>
       <c r="V39" s="58"/>
-      <c r="W39" s="174"/>
-      <c r="X39" s="175"/>
+      <c r="W39" s="172"/>
+      <c r="X39" s="173"/>
       <c r="Y39" s="58"/>
       <c r="Z39" s="58"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58"/>
       <c r="AC39" s="58"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="175"/>
+      <c r="AD39" s="172"/>
+      <c r="AE39" s="173"/>
       <c r="AF39" s="58"/>
       <c r="AG39" s="58"/>
       <c r="AH39" s="58"/>
       <c r="AI39" s="58"/>
       <c r="AJ39" s="58"/>
-      <c r="AK39" s="174"/>
-      <c r="AL39" s="175"/>
+      <c r="AK39" s="172"/>
+      <c r="AL39" s="173"/>
       <c r="AM39" s="58"/>
       <c r="AN39" s="58"/>
       <c r="AO39" s="58"/>
       <c r="AP39" s="58"/>
       <c r="AQ39" s="58"/>
-      <c r="AR39" s="174"/>
-      <c r="AS39" s="175"/>
-      <c r="AT39" s="72"/>
+      <c r="AR39" s="172"/>
+      <c r="AS39" s="173"/>
+      <c r="AT39" s="71"/>
       <c r="AU39" s="58"/>
       <c r="AV39" s="58"/>
       <c r="AW39" s="58"/>
       <c r="AX39" s="58"/>
-      <c r="AY39" s="174"/>
-      <c r="AZ39" s="175"/>
+      <c r="AY39" s="172"/>
+      <c r="AZ39" s="173"/>
       <c r="BA39" s="58"/>
       <c r="BB39" s="58"/>
       <c r="BC39" s="58"/>
       <c r="BD39" s="58"/>
       <c r="BE39" s="58"/>
-      <c r="BF39" s="174"/>
-      <c r="BG39" s="175"/>
+      <c r="BF39" s="172"/>
+      <c r="BG39" s="173"/>
       <c r="BH39" s="58"/>
       <c r="BI39" s="58"/>
       <c r="BJ39" s="58"/>
       <c r="BK39" s="58"/>
       <c r="BL39" s="58"/>
-      <c r="BM39" s="174"/>
-      <c r="BN39" s="175"/>
+      <c r="BM39" s="172"/>
+      <c r="BN39" s="173"/>
       <c r="BO39" s="58"/>
       <c r="BP39" s="58"/>
-      <c r="BQ39" s="143"/>
+      <c r="BQ39" s="141"/>
       <c r="BR39" s="6"/>
       <c r="BS39" s="49"/>
       <c r="BT39" s="49"/>
@@ -10682,73 +10676,73 @@
       <c r="F40" s="31">
         <v>44082</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="148">
         <v>1</v>
       </c>
-      <c r="H40" s="151" t="s">
+      <c r="H40" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I40" s="174"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="159"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="157"/>
       <c r="L40" s="58"/>
       <c r="M40" s="58"/>
       <c r="N40" s="58"/>
       <c r="O40" s="58"/>
-      <c r="P40" s="174"/>
-      <c r="Q40" s="175"/>
-      <c r="R40" s="159"/>
+      <c r="P40" s="172"/>
+      <c r="Q40" s="173"/>
+      <c r="R40" s="157"/>
       <c r="S40" s="58"/>
       <c r="T40" s="58"/>
       <c r="U40" s="58"/>
       <c r="V40" s="58"/>
-      <c r="W40" s="174"/>
-      <c r="X40" s="175"/>
+      <c r="W40" s="172"/>
+      <c r="X40" s="173"/>
       <c r="Y40" s="58"/>
       <c r="Z40" s="58"/>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58"/>
       <c r="AC40" s="58"/>
-      <c r="AD40" s="174"/>
-      <c r="AE40" s="175"/>
+      <c r="AD40" s="172"/>
+      <c r="AE40" s="173"/>
       <c r="AF40" s="58"/>
       <c r="AG40" s="58"/>
       <c r="AH40" s="58"/>
       <c r="AI40" s="58"/>
       <c r="AJ40" s="58"/>
-      <c r="AK40" s="174"/>
-      <c r="AL40" s="175"/>
+      <c r="AK40" s="172"/>
+      <c r="AL40" s="173"/>
       <c r="AM40" s="58"/>
       <c r="AN40" s="58"/>
       <c r="AO40" s="58"/>
       <c r="AP40" s="58"/>
       <c r="AQ40" s="58"/>
-      <c r="AR40" s="174"/>
-      <c r="AS40" s="175"/>
+      <c r="AR40" s="172"/>
+      <c r="AS40" s="173"/>
       <c r="AT40" s="58"/>
-      <c r="AU40" s="72"/>
+      <c r="AU40" s="71"/>
       <c r="AV40" s="58"/>
       <c r="AW40" s="58"/>
       <c r="AX40" s="58"/>
-      <c r="AY40" s="174"/>
-      <c r="AZ40" s="175"/>
+      <c r="AY40" s="172"/>
+      <c r="AZ40" s="173"/>
       <c r="BA40" s="58"/>
       <c r="BB40" s="58"/>
       <c r="BC40" s="58"/>
       <c r="BD40" s="58"/>
       <c r="BE40" s="58"/>
-      <c r="BF40" s="174"/>
-      <c r="BG40" s="175"/>
+      <c r="BF40" s="172"/>
+      <c r="BG40" s="173"/>
       <c r="BH40" s="58"/>
       <c r="BI40" s="58"/>
       <c r="BJ40" s="58"/>
       <c r="BK40" s="58"/>
       <c r="BL40" s="58"/>
-      <c r="BM40" s="174"/>
-      <c r="BN40" s="175"/>
+      <c r="BM40" s="172"/>
+      <c r="BN40" s="173"/>
       <c r="BO40" s="58"/>
       <c r="BP40" s="58"/>
-      <c r="BQ40" s="143"/>
+      <c r="BQ40" s="141"/>
       <c r="BR40" s="6"/>
       <c r="BS40" s="49"/>
       <c r="BT40" s="49"/>
@@ -10934,67 +10928,67 @@
       </c>
       <c r="G41" s="39"/>
       <c r="H41" s="60"/>
-      <c r="I41" s="174"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="157"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="173"/>
+      <c r="K41" s="155"/>
       <c r="L41" s="53"/>
       <c r="M41" s="53"/>
       <c r="N41" s="53"/>
       <c r="O41" s="53"/>
-      <c r="P41" s="174"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="157"/>
+      <c r="P41" s="172"/>
+      <c r="Q41" s="173"/>
+      <c r="R41" s="155"/>
       <c r="S41" s="53"/>
       <c r="T41" s="53"/>
       <c r="U41" s="53"/>
       <c r="V41" s="53"/>
-      <c r="W41" s="174"/>
-      <c r="X41" s="175"/>
+      <c r="W41" s="172"/>
+      <c r="X41" s="173"/>
       <c r="Y41" s="53"/>
       <c r="Z41" s="53"/>
       <c r="AA41" s="53"/>
       <c r="AB41" s="53"/>
       <c r="AC41" s="53"/>
-      <c r="AD41" s="174"/>
-      <c r="AE41" s="175"/>
+      <c r="AD41" s="172"/>
+      <c r="AE41" s="173"/>
       <c r="AF41" s="53"/>
       <c r="AG41" s="53"/>
       <c r="AH41" s="53"/>
       <c r="AI41" s="53"/>
       <c r="AJ41" s="53"/>
-      <c r="AK41" s="174"/>
-      <c r="AL41" s="175"/>
+      <c r="AK41" s="172"/>
+      <c r="AL41" s="173"/>
       <c r="AM41" s="53"/>
       <c r="AN41" s="53"/>
       <c r="AO41" s="53"/>
       <c r="AP41" s="53"/>
       <c r="AQ41" s="53"/>
-      <c r="AR41" s="174"/>
-      <c r="AS41" s="175"/>
+      <c r="AR41" s="172"/>
+      <c r="AS41" s="173"/>
       <c r="AT41" s="53"/>
       <c r="AU41" s="53"/>
       <c r="AV41" s="53"/>
       <c r="AW41" s="53"/>
       <c r="AX41" s="53"/>
-      <c r="AY41" s="174"/>
-      <c r="AZ41" s="175"/>
+      <c r="AY41" s="172"/>
+      <c r="AZ41" s="173"/>
       <c r="BA41" s="53"/>
       <c r="BB41" s="53"/>
       <c r="BC41" s="53"/>
       <c r="BD41" s="53"/>
       <c r="BE41" s="53"/>
-      <c r="BF41" s="174"/>
-      <c r="BG41" s="175"/>
+      <c r="BF41" s="172"/>
+      <c r="BG41" s="173"/>
       <c r="BH41" s="53"/>
       <c r="BI41" s="53"/>
       <c r="BJ41" s="53"/>
       <c r="BK41" s="53"/>
       <c r="BL41" s="53"/>
-      <c r="BM41" s="174"/>
-      <c r="BN41" s="175"/>
+      <c r="BM41" s="172"/>
+      <c r="BN41" s="173"/>
       <c r="BO41" s="53"/>
       <c r="BP41" s="53"/>
-      <c r="BQ41" s="142"/>
+      <c r="BQ41" s="140"/>
       <c r="BR41" s="6"/>
       <c r="BS41" s="49"/>
       <c r="BT41" s="49"/>
@@ -11180,67 +11174,67 @@
       </c>
       <c r="G42" s="34"/>
       <c r="H42" s="61"/>
-      <c r="I42" s="174"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="158"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="156"/>
       <c r="L42" s="54"/>
       <c r="M42" s="54"/>
       <c r="N42" s="54"/>
       <c r="O42" s="54"/>
-      <c r="P42" s="174"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="158"/>
+      <c r="P42" s="172"/>
+      <c r="Q42" s="173"/>
+      <c r="R42" s="156"/>
       <c r="S42" s="54"/>
       <c r="T42" s="54"/>
       <c r="U42" s="54"/>
       <c r="V42" s="54"/>
-      <c r="W42" s="174"/>
-      <c r="X42" s="175"/>
+      <c r="W42" s="172"/>
+      <c r="X42" s="173"/>
       <c r="Y42" s="54"/>
       <c r="Z42" s="54"/>
       <c r="AA42" s="54"/>
       <c r="AB42" s="54"/>
       <c r="AC42" s="54"/>
-      <c r="AD42" s="174"/>
-      <c r="AE42" s="175"/>
+      <c r="AD42" s="172"/>
+      <c r="AE42" s="173"/>
       <c r="AF42" s="54"/>
       <c r="AG42" s="54"/>
       <c r="AH42" s="54"/>
       <c r="AI42" s="54"/>
       <c r="AJ42" s="54"/>
-      <c r="AK42" s="174"/>
-      <c r="AL42" s="175"/>
+      <c r="AK42" s="172"/>
+      <c r="AL42" s="173"/>
       <c r="AM42" s="54"/>
       <c r="AN42" s="54"/>
       <c r="AO42" s="54"/>
       <c r="AP42" s="54"/>
       <c r="AQ42" s="54"/>
-      <c r="AR42" s="174"/>
-      <c r="AS42" s="175"/>
+      <c r="AR42" s="172"/>
+      <c r="AS42" s="173"/>
       <c r="AT42" s="54"/>
       <c r="AU42" s="54"/>
       <c r="AV42" s="54"/>
       <c r="AW42" s="54"/>
       <c r="AX42" s="54"/>
-      <c r="AY42" s="174"/>
-      <c r="AZ42" s="175"/>
+      <c r="AY42" s="172"/>
+      <c r="AZ42" s="173"/>
       <c r="BA42" s="54"/>
       <c r="BB42" s="54"/>
       <c r="BC42" s="54"/>
       <c r="BD42" s="54"/>
       <c r="BE42" s="54"/>
-      <c r="BF42" s="174"/>
-      <c r="BG42" s="175"/>
+      <c r="BF42" s="172"/>
+      <c r="BG42" s="173"/>
       <c r="BH42" s="54"/>
       <c r="BI42" s="54"/>
       <c r="BJ42" s="54"/>
       <c r="BK42" s="54"/>
       <c r="BL42" s="54"/>
-      <c r="BM42" s="174"/>
-      <c r="BN42" s="175"/>
+      <c r="BM42" s="172"/>
+      <c r="BN42" s="173"/>
       <c r="BO42" s="54"/>
       <c r="BP42" s="54"/>
-      <c r="BQ42" s="137"/>
+      <c r="BQ42" s="135"/>
       <c r="BR42" s="6"/>
       <c r="BS42" s="49"/>
       <c r="BT42" s="49"/>
@@ -11424,73 +11418,73 @@
       <c r="F43" s="31">
         <v>44083</v>
       </c>
-      <c r="G43" s="150">
+      <c r="G43" s="148">
         <v>1</v>
       </c>
-      <c r="H43" s="151" t="s">
+      <c r="H43" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I43" s="174"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="159"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
+      <c r="K43" s="157"/>
       <c r="L43" s="58"/>
       <c r="M43" s="58"/>
       <c r="N43" s="58"/>
       <c r="O43" s="58"/>
-      <c r="P43" s="174"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="159"/>
+      <c r="P43" s="172"/>
+      <c r="Q43" s="173"/>
+      <c r="R43" s="157"/>
       <c r="S43" s="58"/>
       <c r="T43" s="58"/>
       <c r="U43" s="58"/>
       <c r="V43" s="58"/>
-      <c r="W43" s="174"/>
-      <c r="X43" s="175"/>
+      <c r="W43" s="172"/>
+      <c r="X43" s="173"/>
       <c r="Y43" s="58"/>
       <c r="Z43" s="58"/>
       <c r="AA43" s="58"/>
       <c r="AB43" s="58"/>
       <c r="AC43" s="58"/>
-      <c r="AD43" s="174"/>
-      <c r="AE43" s="175"/>
+      <c r="AD43" s="172"/>
+      <c r="AE43" s="173"/>
       <c r="AF43" s="58"/>
       <c r="AG43" s="58"/>
       <c r="AH43" s="58"/>
       <c r="AI43" s="58"/>
       <c r="AJ43" s="58"/>
-      <c r="AK43" s="174"/>
-      <c r="AL43" s="175"/>
+      <c r="AK43" s="172"/>
+      <c r="AL43" s="173"/>
       <c r="AM43" s="58"/>
       <c r="AN43" s="58"/>
       <c r="AO43" s="58"/>
       <c r="AP43" s="58"/>
       <c r="AQ43" s="58"/>
-      <c r="AR43" s="174"/>
-      <c r="AS43" s="175"/>
+      <c r="AR43" s="172"/>
+      <c r="AS43" s="173"/>
       <c r="AT43" s="58"/>
       <c r="AU43" s="58"/>
-      <c r="AV43" s="72"/>
+      <c r="AV43" s="71"/>
       <c r="AW43" s="58"/>
       <c r="AX43" s="58"/>
-      <c r="AY43" s="174"/>
-      <c r="AZ43" s="175"/>
+      <c r="AY43" s="172"/>
+      <c r="AZ43" s="173"/>
       <c r="BA43" s="58"/>
       <c r="BB43" s="58"/>
       <c r="BC43" s="58"/>
       <c r="BD43" s="58"/>
       <c r="BE43" s="58"/>
-      <c r="BF43" s="174"/>
-      <c r="BG43" s="175"/>
+      <c r="BF43" s="172"/>
+      <c r="BG43" s="173"/>
       <c r="BH43" s="58"/>
       <c r="BI43" s="58"/>
       <c r="BJ43" s="58"/>
       <c r="BK43" s="58"/>
       <c r="BL43" s="58"/>
-      <c r="BM43" s="174"/>
-      <c r="BN43" s="175"/>
+      <c r="BM43" s="172"/>
+      <c r="BN43" s="173"/>
       <c r="BO43" s="58"/>
       <c r="BP43" s="58"/>
-      <c r="BQ43" s="143"/>
+      <c r="BQ43" s="141"/>
       <c r="BR43" s="6"/>
       <c r="BS43" s="49"/>
       <c r="BT43" s="49"/>
@@ -11674,73 +11668,73 @@
       <c r="F44" s="31">
         <v>44084</v>
       </c>
-      <c r="G44" s="150">
+      <c r="G44" s="148">
         <v>1</v>
       </c>
-      <c r="H44" s="151" t="s">
+      <c r="H44" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I44" s="174"/>
-      <c r="J44" s="175"/>
-      <c r="K44" s="159"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="157"/>
       <c r="L44" s="58"/>
       <c r="M44" s="58"/>
       <c r="N44" s="58"/>
       <c r="O44" s="58"/>
-      <c r="P44" s="174"/>
-      <c r="Q44" s="175"/>
-      <c r="R44" s="159"/>
+      <c r="P44" s="172"/>
+      <c r="Q44" s="173"/>
+      <c r="R44" s="157"/>
       <c r="S44" s="58"/>
       <c r="T44" s="58"/>
       <c r="U44" s="58"/>
       <c r="V44" s="58"/>
-      <c r="W44" s="174"/>
-      <c r="X44" s="175"/>
+      <c r="W44" s="172"/>
+      <c r="X44" s="173"/>
       <c r="Y44" s="58"/>
       <c r="Z44" s="58"/>
       <c r="AA44" s="58"/>
       <c r="AB44" s="58"/>
       <c r="AC44" s="58"/>
-      <c r="AD44" s="174"/>
-      <c r="AE44" s="175"/>
+      <c r="AD44" s="172"/>
+      <c r="AE44" s="173"/>
       <c r="AF44" s="58"/>
       <c r="AG44" s="58"/>
       <c r="AH44" s="58"/>
       <c r="AI44" s="58"/>
       <c r="AJ44" s="58"/>
-      <c r="AK44" s="174"/>
-      <c r="AL44" s="175"/>
+      <c r="AK44" s="172"/>
+      <c r="AL44" s="173"/>
       <c r="AM44" s="58"/>
       <c r="AN44" s="58"/>
       <c r="AO44" s="58"/>
       <c r="AP44" s="58"/>
       <c r="AQ44" s="58"/>
-      <c r="AR44" s="174"/>
-      <c r="AS44" s="175"/>
+      <c r="AR44" s="172"/>
+      <c r="AS44" s="173"/>
       <c r="AT44" s="58"/>
       <c r="AU44" s="58"/>
-      <c r="AV44" s="72"/>
-      <c r="AW44" s="72"/>
+      <c r="AV44" s="71"/>
+      <c r="AW44" s="71"/>
       <c r="AX44" s="58"/>
-      <c r="AY44" s="174"/>
-      <c r="AZ44" s="175"/>
+      <c r="AY44" s="172"/>
+      <c r="AZ44" s="173"/>
       <c r="BA44" s="58"/>
       <c r="BB44" s="58"/>
       <c r="BC44" s="58"/>
       <c r="BD44" s="58"/>
       <c r="BE44" s="58"/>
-      <c r="BF44" s="174"/>
-      <c r="BG44" s="175"/>
+      <c r="BF44" s="172"/>
+      <c r="BG44" s="173"/>
       <c r="BH44" s="58"/>
       <c r="BI44" s="58"/>
       <c r="BJ44" s="58"/>
       <c r="BK44" s="58"/>
       <c r="BL44" s="58"/>
-      <c r="BM44" s="174"/>
-      <c r="BN44" s="175"/>
+      <c r="BM44" s="172"/>
+      <c r="BN44" s="173"/>
       <c r="BO44" s="58"/>
       <c r="BP44" s="58"/>
-      <c r="BQ44" s="143"/>
+      <c r="BQ44" s="141"/>
       <c r="BR44" s="6"/>
       <c r="BS44" s="49"/>
       <c r="BT44" s="49"/>
@@ -11924,73 +11918,73 @@
       <c r="F45" s="31">
         <v>44085</v>
       </c>
-      <c r="G45" s="150">
+      <c r="G45" s="148">
         <v>1</v>
       </c>
-      <c r="H45" s="151" t="s">
+      <c r="H45" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I45" s="174"/>
-      <c r="J45" s="175"/>
-      <c r="K45" s="159"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="173"/>
+      <c r="K45" s="157"/>
       <c r="L45" s="58"/>
       <c r="M45" s="58"/>
       <c r="N45" s="58"/>
       <c r="O45" s="58"/>
-      <c r="P45" s="174"/>
-      <c r="Q45" s="175"/>
-      <c r="R45" s="159"/>
+      <c r="P45" s="172"/>
+      <c r="Q45" s="173"/>
+      <c r="R45" s="157"/>
       <c r="S45" s="58"/>
       <c r="T45" s="58"/>
       <c r="U45" s="58"/>
       <c r="V45" s="58"/>
-      <c r="W45" s="174"/>
-      <c r="X45" s="175"/>
+      <c r="W45" s="172"/>
+      <c r="X45" s="173"/>
       <c r="Y45" s="58"/>
       <c r="Z45" s="58"/>
       <c r="AA45" s="58"/>
       <c r="AB45" s="58"/>
       <c r="AC45" s="58"/>
-      <c r="AD45" s="174"/>
-      <c r="AE45" s="175"/>
+      <c r="AD45" s="172"/>
+      <c r="AE45" s="173"/>
       <c r="AF45" s="58"/>
       <c r="AG45" s="58"/>
       <c r="AH45" s="58"/>
       <c r="AI45" s="58"/>
       <c r="AJ45" s="58"/>
-      <c r="AK45" s="174"/>
-      <c r="AL45" s="175"/>
+      <c r="AK45" s="172"/>
+      <c r="AL45" s="173"/>
       <c r="AM45" s="58"/>
       <c r="AN45" s="58"/>
       <c r="AO45" s="58"/>
       <c r="AP45" s="58"/>
       <c r="AQ45" s="58"/>
-      <c r="AR45" s="174"/>
-      <c r="AS45" s="175"/>
+      <c r="AR45" s="172"/>
+      <c r="AS45" s="173"/>
       <c r="AT45" s="58"/>
       <c r="AU45" s="58"/>
-      <c r="AV45" s="72"/>
-      <c r="AW45" s="72"/>
-      <c r="AX45" s="72"/>
-      <c r="AY45" s="174"/>
-      <c r="AZ45" s="175"/>
+      <c r="AV45" s="71"/>
+      <c r="AW45" s="71"/>
+      <c r="AX45" s="71"/>
+      <c r="AY45" s="172"/>
+      <c r="AZ45" s="173"/>
       <c r="BA45" s="58"/>
       <c r="BB45" s="58"/>
       <c r="BC45" s="58"/>
       <c r="BD45" s="58"/>
       <c r="BE45" s="58"/>
-      <c r="BF45" s="174"/>
-      <c r="BG45" s="175"/>
+      <c r="BF45" s="172"/>
+      <c r="BG45" s="173"/>
       <c r="BH45" s="58"/>
       <c r="BI45" s="58"/>
       <c r="BJ45" s="58"/>
       <c r="BK45" s="58"/>
       <c r="BL45" s="58"/>
-      <c r="BM45" s="174"/>
-      <c r="BN45" s="175"/>
+      <c r="BM45" s="172"/>
+      <c r="BN45" s="173"/>
       <c r="BO45" s="58"/>
       <c r="BP45" s="58"/>
-      <c r="BQ45" s="143"/>
+      <c r="BQ45" s="141"/>
       <c r="BR45" s="6"/>
       <c r="BS45" s="49"/>
       <c r="BT45" s="49"/>
@@ -12176,67 +12170,67 @@
       </c>
       <c r="G46" s="34"/>
       <c r="H46" s="61"/>
-      <c r="I46" s="174"/>
-      <c r="J46" s="175"/>
-      <c r="K46" s="158"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="156"/>
       <c r="L46" s="54"/>
       <c r="M46" s="54"/>
       <c r="N46" s="54"/>
       <c r="O46" s="54"/>
-      <c r="P46" s="174"/>
-      <c r="Q46" s="175"/>
-      <c r="R46" s="158"/>
+      <c r="P46" s="172"/>
+      <c r="Q46" s="173"/>
+      <c r="R46" s="156"/>
       <c r="S46" s="54"/>
       <c r="T46" s="54"/>
       <c r="U46" s="54"/>
       <c r="V46" s="54"/>
-      <c r="W46" s="174"/>
-      <c r="X46" s="175"/>
+      <c r="W46" s="172"/>
+      <c r="X46" s="173"/>
       <c r="Y46" s="54"/>
       <c r="Z46" s="54"/>
       <c r="AA46" s="54"/>
       <c r="AB46" s="54"/>
       <c r="AC46" s="54"/>
-      <c r="AD46" s="174"/>
-      <c r="AE46" s="175"/>
+      <c r="AD46" s="172"/>
+      <c r="AE46" s="173"/>
       <c r="AF46" s="54"/>
       <c r="AG46" s="54"/>
       <c r="AH46" s="54"/>
       <c r="AI46" s="54"/>
       <c r="AJ46" s="54"/>
-      <c r="AK46" s="174"/>
-      <c r="AL46" s="175"/>
+      <c r="AK46" s="172"/>
+      <c r="AL46" s="173"/>
       <c r="AM46" s="54"/>
       <c r="AN46" s="54"/>
       <c r="AO46" s="54"/>
       <c r="AP46" s="54"/>
       <c r="AQ46" s="54"/>
-      <c r="AR46" s="174"/>
-      <c r="AS46" s="175"/>
+      <c r="AR46" s="172"/>
+      <c r="AS46" s="173"/>
       <c r="AT46" s="54"/>
       <c r="AU46" s="54"/>
       <c r="AV46" s="54"/>
       <c r="AW46" s="54"/>
       <c r="AX46" s="54"/>
-      <c r="AY46" s="174"/>
-      <c r="AZ46" s="175"/>
+      <c r="AY46" s="172"/>
+      <c r="AZ46" s="173"/>
       <c r="BA46" s="54"/>
       <c r="BB46" s="54"/>
       <c r="BC46" s="54"/>
       <c r="BD46" s="54"/>
       <c r="BE46" s="54"/>
-      <c r="BF46" s="174"/>
-      <c r="BG46" s="175"/>
+      <c r="BF46" s="172"/>
+      <c r="BG46" s="173"/>
       <c r="BH46" s="54"/>
       <c r="BI46" s="54"/>
       <c r="BJ46" s="54"/>
       <c r="BK46" s="54"/>
       <c r="BL46" s="54"/>
-      <c r="BM46" s="174"/>
-      <c r="BN46" s="175"/>
+      <c r="BM46" s="172"/>
+      <c r="BN46" s="173"/>
       <c r="BO46" s="54"/>
       <c r="BP46" s="54"/>
-      <c r="BQ46" s="137"/>
+      <c r="BQ46" s="135"/>
       <c r="BR46" s="6"/>
       <c r="BS46" s="49"/>
       <c r="BT46" s="49"/>
@@ -12420,73 +12414,73 @@
       <c r="F47" s="31">
         <v>44088</v>
       </c>
-      <c r="G47" s="150">
+      <c r="G47" s="148">
         <v>1</v>
       </c>
-      <c r="H47" s="151" t="s">
+      <c r="H47" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I47" s="174"/>
-      <c r="J47" s="175"/>
-      <c r="K47" s="159"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="157"/>
       <c r="L47" s="58"/>
       <c r="M47" s="58"/>
       <c r="N47" s="58"/>
       <c r="O47" s="58"/>
-      <c r="P47" s="174"/>
-      <c r="Q47" s="175"/>
-      <c r="R47" s="159"/>
+      <c r="P47" s="172"/>
+      <c r="Q47" s="173"/>
+      <c r="R47" s="157"/>
       <c r="S47" s="58"/>
       <c r="T47" s="58"/>
       <c r="U47" s="58"/>
       <c r="V47" s="58"/>
-      <c r="W47" s="174"/>
-      <c r="X47" s="175"/>
+      <c r="W47" s="172"/>
+      <c r="X47" s="173"/>
       <c r="Y47" s="58"/>
       <c r="Z47" s="58"/>
       <c r="AA47" s="58"/>
       <c r="AB47" s="58"/>
       <c r="AC47" s="58"/>
-      <c r="AD47" s="174"/>
-      <c r="AE47" s="175"/>
+      <c r="AD47" s="172"/>
+      <c r="AE47" s="173"/>
       <c r="AF47" s="58"/>
       <c r="AG47" s="58"/>
       <c r="AH47" s="58"/>
       <c r="AI47" s="58"/>
       <c r="AJ47" s="58"/>
-      <c r="AK47" s="174"/>
-      <c r="AL47" s="175"/>
+      <c r="AK47" s="172"/>
+      <c r="AL47" s="173"/>
       <c r="AM47" s="58"/>
       <c r="AN47" s="58"/>
       <c r="AO47" s="58"/>
       <c r="AP47" s="58"/>
       <c r="AQ47" s="58"/>
-      <c r="AR47" s="174"/>
-      <c r="AS47" s="175"/>
+      <c r="AR47" s="172"/>
+      <c r="AS47" s="173"/>
       <c r="AT47" s="58"/>
       <c r="AU47" s="58"/>
       <c r="AV47" s="58"/>
       <c r="AW47" s="58"/>
       <c r="AX47" s="58"/>
-      <c r="AY47" s="174"/>
-      <c r="AZ47" s="175"/>
-      <c r="BA47" s="72"/>
+      <c r="AY47" s="172"/>
+      <c r="AZ47" s="173"/>
+      <c r="BA47" s="71"/>
       <c r="BB47" s="58"/>
       <c r="BC47" s="58"/>
       <c r="BD47" s="58"/>
       <c r="BE47" s="58"/>
-      <c r="BF47" s="174"/>
-      <c r="BG47" s="175"/>
+      <c r="BF47" s="172"/>
+      <c r="BG47" s="173"/>
       <c r="BH47" s="58"/>
       <c r="BI47" s="58"/>
       <c r="BJ47" s="58"/>
       <c r="BK47" s="58"/>
       <c r="BL47" s="58"/>
-      <c r="BM47" s="174"/>
-      <c r="BN47" s="175"/>
+      <c r="BM47" s="172"/>
+      <c r="BN47" s="173"/>
       <c r="BO47" s="58"/>
       <c r="BP47" s="58"/>
-      <c r="BQ47" s="143"/>
+      <c r="BQ47" s="141"/>
       <c r="BR47" s="6"/>
       <c r="BS47" s="49"/>
       <c r="BT47" s="49"/>
@@ -12670,73 +12664,73 @@
       <c r="F48" s="31">
         <v>44089</v>
       </c>
-      <c r="G48" s="150">
+      <c r="G48" s="148">
         <v>1</v>
       </c>
-      <c r="H48" s="151" t="s">
+      <c r="H48" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I48" s="174"/>
-      <c r="J48" s="175"/>
-      <c r="K48" s="159"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
+      <c r="K48" s="157"/>
       <c r="L48" s="58"/>
       <c r="M48" s="58"/>
       <c r="N48" s="58"/>
       <c r="O48" s="58"/>
-      <c r="P48" s="174"/>
-      <c r="Q48" s="175"/>
-      <c r="R48" s="159"/>
+      <c r="P48" s="172"/>
+      <c r="Q48" s="173"/>
+      <c r="R48" s="157"/>
       <c r="S48" s="58"/>
       <c r="T48" s="58"/>
       <c r="U48" s="58"/>
       <c r="V48" s="58"/>
-      <c r="W48" s="174"/>
-      <c r="X48" s="175"/>
+      <c r="W48" s="172"/>
+      <c r="X48" s="173"/>
       <c r="Y48" s="58"/>
       <c r="Z48" s="58"/>
       <c r="AA48" s="58"/>
       <c r="AB48" s="58"/>
       <c r="AC48" s="58"/>
-      <c r="AD48" s="174"/>
-      <c r="AE48" s="175"/>
+      <c r="AD48" s="172"/>
+      <c r="AE48" s="173"/>
       <c r="AF48" s="58"/>
       <c r="AG48" s="58"/>
       <c r="AH48" s="58"/>
       <c r="AI48" s="58"/>
       <c r="AJ48" s="58"/>
-      <c r="AK48" s="174"/>
-      <c r="AL48" s="175"/>
+      <c r="AK48" s="172"/>
+      <c r="AL48" s="173"/>
       <c r="AM48" s="58"/>
       <c r="AN48" s="58"/>
       <c r="AO48" s="58"/>
       <c r="AP48" s="58"/>
       <c r="AQ48" s="58"/>
-      <c r="AR48" s="174"/>
-      <c r="AS48" s="175"/>
+      <c r="AR48" s="172"/>
+      <c r="AS48" s="173"/>
       <c r="AT48" s="58"/>
       <c r="AU48" s="58"/>
       <c r="AV48" s="58"/>
       <c r="AW48" s="58"/>
       <c r="AX48" s="58"/>
-      <c r="AY48" s="174"/>
-      <c r="AZ48" s="175"/>
-      <c r="BA48" s="72"/>
-      <c r="BB48" s="72"/>
+      <c r="AY48" s="172"/>
+      <c r="AZ48" s="173"/>
+      <c r="BA48" s="71"/>
+      <c r="BB48" s="71"/>
       <c r="BC48" s="58"/>
       <c r="BD48" s="58"/>
       <c r="BE48" s="58"/>
-      <c r="BF48" s="174"/>
-      <c r="BG48" s="175"/>
+      <c r="BF48" s="172"/>
+      <c r="BG48" s="173"/>
       <c r="BH48" s="58"/>
       <c r="BI48" s="58"/>
       <c r="BJ48" s="58"/>
       <c r="BK48" s="58"/>
       <c r="BL48" s="58"/>
-      <c r="BM48" s="174"/>
-      <c r="BN48" s="175"/>
+      <c r="BM48" s="172"/>
+      <c r="BN48" s="173"/>
       <c r="BO48" s="58"/>
       <c r="BP48" s="58"/>
-      <c r="BQ48" s="143"/>
+      <c r="BQ48" s="141"/>
       <c r="BR48" s="6"/>
       <c r="BS48" s="49"/>
       <c r="BT48" s="49"/>
@@ -12920,71 +12914,73 @@
       <c r="F49" s="31">
         <v>44089</v>
       </c>
-      <c r="G49" s="150">
-        <v>0.85</v>
-      </c>
-      <c r="H49" s="62"/>
-      <c r="I49" s="174"/>
-      <c r="J49" s="175"/>
-      <c r="K49" s="159"/>
+      <c r="G49" s="148">
+        <v>1</v>
+      </c>
+      <c r="H49" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
+      <c r="K49" s="157"/>
       <c r="L49" s="58"/>
       <c r="M49" s="58"/>
       <c r="N49" s="58"/>
       <c r="O49" s="58"/>
-      <c r="P49" s="174"/>
-      <c r="Q49" s="175"/>
-      <c r="R49" s="159"/>
+      <c r="P49" s="172"/>
+      <c r="Q49" s="173"/>
+      <c r="R49" s="157"/>
       <c r="S49" s="58"/>
       <c r="T49" s="58"/>
       <c r="U49" s="58"/>
       <c r="V49" s="58"/>
-      <c r="W49" s="174"/>
-      <c r="X49" s="175"/>
+      <c r="W49" s="172"/>
+      <c r="X49" s="173"/>
       <c r="Y49" s="58"/>
       <c r="Z49" s="58"/>
       <c r="AA49" s="58"/>
       <c r="AB49" s="58"/>
       <c r="AC49" s="58"/>
-      <c r="AD49" s="174"/>
-      <c r="AE49" s="175"/>
+      <c r="AD49" s="172"/>
+      <c r="AE49" s="173"/>
       <c r="AF49" s="58"/>
       <c r="AG49" s="58"/>
       <c r="AH49" s="58"/>
       <c r="AI49" s="58"/>
       <c r="AJ49" s="58"/>
-      <c r="AK49" s="174"/>
-      <c r="AL49" s="175"/>
+      <c r="AK49" s="172"/>
+      <c r="AL49" s="173"/>
       <c r="AM49" s="58"/>
       <c r="AN49" s="58"/>
       <c r="AO49" s="58"/>
       <c r="AP49" s="58"/>
       <c r="AQ49" s="58"/>
-      <c r="AR49" s="174"/>
-      <c r="AS49" s="175"/>
+      <c r="AR49" s="172"/>
+      <c r="AS49" s="173"/>
       <c r="AT49" s="58"/>
       <c r="AU49" s="58"/>
       <c r="AV49" s="58"/>
       <c r="AW49" s="58"/>
       <c r="AX49" s="58"/>
-      <c r="AY49" s="174"/>
-      <c r="AZ49" s="175"/>
-      <c r="BA49" s="72"/>
-      <c r="BB49" s="72"/>
+      <c r="AY49" s="172"/>
+      <c r="AZ49" s="173"/>
+      <c r="BA49" s="71"/>
+      <c r="BB49" s="71"/>
       <c r="BC49" s="58"/>
       <c r="BD49" s="58"/>
       <c r="BE49" s="58"/>
-      <c r="BF49" s="174"/>
-      <c r="BG49" s="175"/>
+      <c r="BF49" s="172"/>
+      <c r="BG49" s="173"/>
       <c r="BH49" s="58"/>
       <c r="BI49" s="58"/>
       <c r="BJ49" s="58"/>
       <c r="BK49" s="58"/>
       <c r="BL49" s="58"/>
-      <c r="BM49" s="174"/>
-      <c r="BN49" s="175"/>
+      <c r="BM49" s="172"/>
+      <c r="BN49" s="173"/>
       <c r="BO49" s="58"/>
       <c r="BP49" s="58"/>
-      <c r="BQ49" s="143"/>
+      <c r="BQ49" s="141"/>
       <c r="BR49" s="6"/>
       <c r="BS49" s="49"/>
       <c r="BT49" s="49"/>
@@ -13168,73 +13164,73 @@
       <c r="F50" s="31">
         <v>44090</v>
       </c>
-      <c r="G50" s="150">
+      <c r="G50" s="148">
         <v>1</v>
       </c>
-      <c r="H50" s="151" t="s">
+      <c r="H50" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="I50" s="174"/>
-      <c r="J50" s="175"/>
-      <c r="K50" s="159"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="173"/>
+      <c r="K50" s="157"/>
       <c r="L50" s="58"/>
       <c r="M50" s="58"/>
       <c r="N50" s="58"/>
       <c r="O50" s="58"/>
-      <c r="P50" s="174"/>
-      <c r="Q50" s="175"/>
-      <c r="R50" s="159"/>
+      <c r="P50" s="172"/>
+      <c r="Q50" s="173"/>
+      <c r="R50" s="157"/>
       <c r="S50" s="58"/>
       <c r="T50" s="58"/>
       <c r="U50" s="58"/>
       <c r="V50" s="58"/>
-      <c r="W50" s="174"/>
-      <c r="X50" s="175"/>
+      <c r="W50" s="172"/>
+      <c r="X50" s="173"/>
       <c r="Y50" s="58"/>
       <c r="Z50" s="58"/>
       <c r="AA50" s="58"/>
       <c r="AB50" s="58"/>
       <c r="AC50" s="58"/>
-      <c r="AD50" s="174"/>
-      <c r="AE50" s="175"/>
+      <c r="AD50" s="172"/>
+      <c r="AE50" s="173"/>
       <c r="AF50" s="58"/>
       <c r="AG50" s="58"/>
       <c r="AH50" s="58"/>
       <c r="AI50" s="58"/>
       <c r="AJ50" s="58"/>
-      <c r="AK50" s="174"/>
-      <c r="AL50" s="175"/>
+      <c r="AK50" s="172"/>
+      <c r="AL50" s="173"/>
       <c r="AM50" s="58"/>
       <c r="AN50" s="58"/>
       <c r="AO50" s="58"/>
       <c r="AP50" s="58"/>
       <c r="AQ50" s="58"/>
-      <c r="AR50" s="174"/>
-      <c r="AS50" s="175"/>
+      <c r="AR50" s="172"/>
+      <c r="AS50" s="173"/>
       <c r="AT50" s="58"/>
       <c r="AU50" s="58"/>
       <c r="AV50" s="58"/>
       <c r="AW50" s="58"/>
       <c r="AX50" s="58"/>
-      <c r="AY50" s="174"/>
-      <c r="AZ50" s="175"/>
+      <c r="AY50" s="172"/>
+      <c r="AZ50" s="173"/>
       <c r="BA50" s="58"/>
-      <c r="BB50" s="72"/>
-      <c r="BC50" s="72"/>
+      <c r="BB50" s="71"/>
+      <c r="BC50" s="71"/>
       <c r="BD50" s="58"/>
       <c r="BE50" s="58"/>
-      <c r="BF50" s="174"/>
-      <c r="BG50" s="175"/>
+      <c r="BF50" s="172"/>
+      <c r="BG50" s="173"/>
       <c r="BH50" s="58"/>
       <c r="BI50" s="58"/>
       <c r="BJ50" s="58"/>
       <c r="BK50" s="58"/>
       <c r="BL50" s="58"/>
-      <c r="BM50" s="174"/>
-      <c r="BN50" s="175"/>
+      <c r="BM50" s="172"/>
+      <c r="BN50" s="173"/>
       <c r="BO50" s="58"/>
       <c r="BP50" s="58"/>
-      <c r="BQ50" s="143"/>
+      <c r="BQ50" s="141"/>
       <c r="BR50" s="6"/>
       <c r="BS50" s="49"/>
       <c r="BT50" s="49"/>
@@ -13418,71 +13414,73 @@
       <c r="F51" s="31">
         <v>44090</v>
       </c>
-      <c r="G51" s="150">
-        <v>0.8</v>
-      </c>
-      <c r="H51" s="62"/>
-      <c r="I51" s="174"/>
-      <c r="J51" s="175"/>
-      <c r="K51" s="159"/>
+      <c r="G51" s="148">
+        <v>1</v>
+      </c>
+      <c r="H51" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="172"/>
+      <c r="J51" s="173"/>
+      <c r="K51" s="157"/>
       <c r="L51" s="58"/>
       <c r="M51" s="58"/>
       <c r="N51" s="58"/>
       <c r="O51" s="58"/>
-      <c r="P51" s="174"/>
-      <c r="Q51" s="175"/>
-      <c r="R51" s="159"/>
+      <c r="P51" s="172"/>
+      <c r="Q51" s="173"/>
+      <c r="R51" s="157"/>
       <c r="S51" s="58"/>
       <c r="T51" s="58"/>
       <c r="U51" s="58"/>
       <c r="V51" s="58"/>
-      <c r="W51" s="174"/>
-      <c r="X51" s="175"/>
+      <c r="W51" s="172"/>
+      <c r="X51" s="173"/>
       <c r="Y51" s="58"/>
       <c r="Z51" s="58"/>
       <c r="AA51" s="58"/>
       <c r="AB51" s="58"/>
       <c r="AC51" s="58"/>
-      <c r="AD51" s="174"/>
-      <c r="AE51" s="175"/>
+      <c r="AD51" s="172"/>
+      <c r="AE51" s="173"/>
       <c r="AF51" s="58"/>
       <c r="AG51" s="58"/>
       <c r="AH51" s="58"/>
       <c r="AI51" s="58"/>
       <c r="AJ51" s="58"/>
-      <c r="AK51" s="174"/>
-      <c r="AL51" s="175"/>
+      <c r="AK51" s="172"/>
+      <c r="AL51" s="173"/>
       <c r="AM51" s="58"/>
       <c r="AN51" s="58"/>
       <c r="AO51" s="58"/>
       <c r="AP51" s="58"/>
       <c r="AQ51" s="58"/>
-      <c r="AR51" s="174"/>
-      <c r="AS51" s="175"/>
+      <c r="AR51" s="172"/>
+      <c r="AS51" s="173"/>
       <c r="AT51" s="58"/>
       <c r="AU51" s="58"/>
       <c r="AV51" s="58"/>
       <c r="AW51" s="58"/>
       <c r="AX51" s="58"/>
-      <c r="AY51" s="174"/>
-      <c r="AZ51" s="175"/>
+      <c r="AY51" s="172"/>
+      <c r="AZ51" s="173"/>
       <c r="BA51" s="58"/>
-      <c r="BB51" s="72"/>
-      <c r="BC51" s="72"/>
+      <c r="BB51" s="71"/>
+      <c r="BC51" s="71"/>
       <c r="BD51" s="58"/>
       <c r="BE51" s="58"/>
-      <c r="BF51" s="174"/>
-      <c r="BG51" s="175"/>
+      <c r="BF51" s="172"/>
+      <c r="BG51" s="173"/>
       <c r="BH51" s="58"/>
       <c r="BI51" s="58"/>
       <c r="BJ51" s="58"/>
       <c r="BK51" s="58"/>
       <c r="BL51" s="58"/>
-      <c r="BM51" s="174"/>
-      <c r="BN51" s="175"/>
+      <c r="BM51" s="172"/>
+      <c r="BN51" s="173"/>
       <c r="BO51" s="58"/>
       <c r="BP51" s="58"/>
-      <c r="BQ51" s="143"/>
+      <c r="BQ51" s="141"/>
       <c r="BR51" s="6"/>
       <c r="BS51" s="49"/>
       <c r="BT51" s="49"/>
@@ -13654,83 +13652,85 @@
       <c r="B52" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C52" s="75">
+      <c r="C52" s="74">
         <v>3</v>
       </c>
-      <c r="D52" s="76" t="s">
+      <c r="D52" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="E52" s="77">
+      <c r="E52" s="76">
         <v>44090</v>
       </c>
-      <c r="F52" s="77">
+      <c r="F52" s="76">
         <v>44090</v>
       </c>
-      <c r="G52" s="173">
-        <v>0.85</v>
-      </c>
-      <c r="H52" s="78"/>
-      <c r="I52" s="174"/>
-      <c r="J52" s="175"/>
-      <c r="K52" s="159"/>
+      <c r="G52" s="171">
+        <v>1</v>
+      </c>
+      <c r="H52" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="172"/>
+      <c r="J52" s="173"/>
+      <c r="K52" s="157"/>
       <c r="L52" s="58"/>
       <c r="M52" s="58"/>
       <c r="N52" s="58"/>
       <c r="O52" s="58"/>
-      <c r="P52" s="174"/>
-      <c r="Q52" s="175"/>
-      <c r="R52" s="159"/>
+      <c r="P52" s="172"/>
+      <c r="Q52" s="173"/>
+      <c r="R52" s="157"/>
       <c r="S52" s="58"/>
       <c r="T52" s="58"/>
       <c r="U52" s="58"/>
       <c r="V52" s="58"/>
-      <c r="W52" s="174"/>
-      <c r="X52" s="175"/>
+      <c r="W52" s="172"/>
+      <c r="X52" s="173"/>
       <c r="Y52" s="58"/>
       <c r="Z52" s="58"/>
       <c r="AA52" s="58"/>
       <c r="AB52" s="58"/>
       <c r="AC52" s="58"/>
-      <c r="AD52" s="174"/>
-      <c r="AE52" s="175"/>
+      <c r="AD52" s="172"/>
+      <c r="AE52" s="173"/>
       <c r="AF52" s="58"/>
       <c r="AG52" s="58"/>
       <c r="AH52" s="58"/>
       <c r="AI52" s="58"/>
       <c r="AJ52" s="58"/>
-      <c r="AK52" s="174"/>
-      <c r="AL52" s="175"/>
+      <c r="AK52" s="172"/>
+      <c r="AL52" s="173"/>
       <c r="AM52" s="58"/>
       <c r="AN52" s="58"/>
       <c r="AO52" s="58"/>
       <c r="AP52" s="58"/>
       <c r="AQ52" s="58"/>
-      <c r="AR52" s="174"/>
-      <c r="AS52" s="175"/>
+      <c r="AR52" s="172"/>
+      <c r="AS52" s="173"/>
       <c r="AT52" s="58"/>
       <c r="AU52" s="58"/>
       <c r="AV52" s="58"/>
       <c r="AW52" s="58"/>
       <c r="AX52" s="58"/>
-      <c r="AY52" s="174"/>
-      <c r="AZ52" s="175"/>
+      <c r="AY52" s="172"/>
+      <c r="AZ52" s="173"/>
       <c r="BA52" s="58"/>
       <c r="BB52" s="58"/>
-      <c r="BC52" s="72"/>
+      <c r="BC52" s="71"/>
       <c r="BD52" s="58"/>
       <c r="BE52" s="58"/>
-      <c r="BF52" s="174"/>
-      <c r="BG52" s="175"/>
+      <c r="BF52" s="172"/>
+      <c r="BG52" s="173"/>
       <c r="BH52" s="58"/>
       <c r="BI52" s="58"/>
       <c r="BJ52" s="58"/>
       <c r="BK52" s="58"/>
       <c r="BL52" s="58"/>
-      <c r="BM52" s="174"/>
-      <c r="BN52" s="175"/>
+      <c r="BM52" s="172"/>
+      <c r="BN52" s="173"/>
       <c r="BO52" s="58"/>
       <c r="BP52" s="58"/>
-      <c r="BQ52" s="143"/>
+      <c r="BQ52" s="141"/>
       <c r="BR52" s="6"/>
       <c r="BS52" s="49"/>
       <c r="BT52" s="49"/>
@@ -13916,67 +13916,67 @@
       </c>
       <c r="G53" s="39"/>
       <c r="H53" s="60"/>
-      <c r="I53" s="174"/>
-      <c r="J53" s="175"/>
-      <c r="K53" s="157"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="173"/>
+      <c r="K53" s="155"/>
       <c r="L53" s="53"/>
       <c r="M53" s="53"/>
       <c r="N53" s="53"/>
       <c r="O53" s="53"/>
-      <c r="P53" s="174"/>
-      <c r="Q53" s="175"/>
-      <c r="R53" s="157"/>
+      <c r="P53" s="172"/>
+      <c r="Q53" s="173"/>
+      <c r="R53" s="155"/>
       <c r="S53" s="53"/>
       <c r="T53" s="53"/>
       <c r="U53" s="53"/>
       <c r="V53" s="53"/>
-      <c r="W53" s="174"/>
-      <c r="X53" s="175"/>
+      <c r="W53" s="172"/>
+      <c r="X53" s="173"/>
       <c r="Y53" s="53"/>
       <c r="Z53" s="53"/>
       <c r="AA53" s="53"/>
       <c r="AB53" s="53"/>
       <c r="AC53" s="53"/>
-      <c r="AD53" s="174"/>
-      <c r="AE53" s="175"/>
+      <c r="AD53" s="172"/>
+      <c r="AE53" s="173"/>
       <c r="AF53" s="53"/>
       <c r="AG53" s="53"/>
       <c r="AH53" s="53"/>
       <c r="AI53" s="53"/>
       <c r="AJ53" s="53"/>
-      <c r="AK53" s="174"/>
-      <c r="AL53" s="175"/>
+      <c r="AK53" s="172"/>
+      <c r="AL53" s="173"/>
       <c r="AM53" s="53"/>
       <c r="AN53" s="53"/>
       <c r="AO53" s="53"/>
       <c r="AP53" s="53"/>
       <c r="AQ53" s="53"/>
-      <c r="AR53" s="174"/>
-      <c r="AS53" s="175"/>
+      <c r="AR53" s="172"/>
+      <c r="AS53" s="173"/>
       <c r="AT53" s="53"/>
       <c r="AU53" s="53"/>
       <c r="AV53" s="53"/>
       <c r="AW53" s="53"/>
       <c r="AX53" s="53"/>
-      <c r="AY53" s="174"/>
-      <c r="AZ53" s="175"/>
+      <c r="AY53" s="172"/>
+      <c r="AZ53" s="173"/>
       <c r="BA53" s="53"/>
       <c r="BB53" s="53"/>
       <c r="BC53" s="53"/>
       <c r="BD53" s="53"/>
       <c r="BE53" s="53"/>
-      <c r="BF53" s="174"/>
-      <c r="BG53" s="175"/>
+      <c r="BF53" s="172"/>
+      <c r="BG53" s="173"/>
       <c r="BH53" s="53"/>
       <c r="BI53" s="53"/>
       <c r="BJ53" s="53"/>
       <c r="BK53" s="53"/>
       <c r="BL53" s="53"/>
-      <c r="BM53" s="174"/>
-      <c r="BN53" s="175"/>
+      <c r="BM53" s="172"/>
+      <c r="BN53" s="173"/>
       <c r="BO53" s="53"/>
       <c r="BP53" s="53"/>
-      <c r="BQ53" s="142"/>
+      <c r="BQ53" s="140"/>
       <c r="BR53" s="6"/>
       <c r="BS53" s="49"/>
       <c r="BT53" s="49"/>
@@ -14162,67 +14162,67 @@
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="61"/>
-      <c r="I54" s="174"/>
-      <c r="J54" s="175"/>
-      <c r="K54" s="158"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="173"/>
+      <c r="K54" s="156"/>
       <c r="L54" s="54"/>
       <c r="M54" s="54"/>
       <c r="N54" s="54"/>
       <c r="O54" s="54"/>
-      <c r="P54" s="174"/>
-      <c r="Q54" s="175"/>
-      <c r="R54" s="158"/>
+      <c r="P54" s="172"/>
+      <c r="Q54" s="173"/>
+      <c r="R54" s="156"/>
       <c r="S54" s="54"/>
       <c r="T54" s="54"/>
       <c r="U54" s="54"/>
       <c r="V54" s="54"/>
-      <c r="W54" s="174"/>
-      <c r="X54" s="175"/>
+      <c r="W54" s="172"/>
+      <c r="X54" s="173"/>
       <c r="Y54" s="54"/>
       <c r="Z54" s="54"/>
       <c r="AA54" s="54"/>
       <c r="AB54" s="54"/>
       <c r="AC54" s="54"/>
-      <c r="AD54" s="174"/>
-      <c r="AE54" s="175"/>
+      <c r="AD54" s="172"/>
+      <c r="AE54" s="173"/>
       <c r="AF54" s="54"/>
       <c r="AG54" s="54"/>
       <c r="AH54" s="54"/>
       <c r="AI54" s="54"/>
       <c r="AJ54" s="54"/>
-      <c r="AK54" s="174"/>
-      <c r="AL54" s="175"/>
+      <c r="AK54" s="172"/>
+      <c r="AL54" s="173"/>
       <c r="AM54" s="54"/>
       <c r="AN54" s="54"/>
       <c r="AO54" s="54"/>
       <c r="AP54" s="54"/>
       <c r="AQ54" s="54"/>
-      <c r="AR54" s="174"/>
-      <c r="AS54" s="175"/>
+      <c r="AR54" s="172"/>
+      <c r="AS54" s="173"/>
       <c r="AT54" s="54"/>
       <c r="AU54" s="54"/>
       <c r="AV54" s="54"/>
       <c r="AW54" s="54"/>
       <c r="AX54" s="54"/>
-      <c r="AY54" s="174"/>
-      <c r="AZ54" s="175"/>
+      <c r="AY54" s="172"/>
+      <c r="AZ54" s="173"/>
       <c r="BA54" s="54"/>
       <c r="BB54" s="54"/>
       <c r="BC54" s="54"/>
       <c r="BD54" s="54"/>
       <c r="BE54" s="54"/>
-      <c r="BF54" s="174"/>
-      <c r="BG54" s="175"/>
+      <c r="BF54" s="172"/>
+      <c r="BG54" s="173"/>
       <c r="BH54" s="54"/>
       <c r="BI54" s="54"/>
       <c r="BJ54" s="54"/>
       <c r="BK54" s="54"/>
       <c r="BL54" s="54"/>
-      <c r="BM54" s="174"/>
-      <c r="BN54" s="175"/>
+      <c r="BM54" s="172"/>
+      <c r="BN54" s="173"/>
       <c r="BO54" s="54"/>
       <c r="BP54" s="54"/>
-      <c r="BQ54" s="137"/>
+      <c r="BQ54" s="135"/>
       <c r="BR54" s="6"/>
       <c r="BS54" s="49"/>
       <c r="BT54" s="49"/>
@@ -14406,69 +14406,73 @@
       <c r="F55" s="31">
         <v>44091</v>
       </c>
-      <c r="G55" s="173"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="174"/>
-      <c r="J55" s="175"/>
-      <c r="K55" s="159"/>
+      <c r="G55" s="171">
+        <v>1</v>
+      </c>
+      <c r="H55" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="172"/>
+      <c r="J55" s="173"/>
+      <c r="K55" s="157"/>
       <c r="L55" s="58"/>
       <c r="M55" s="58"/>
       <c r="N55" s="58"/>
       <c r="O55" s="58"/>
-      <c r="P55" s="174"/>
-      <c r="Q55" s="175"/>
-      <c r="R55" s="159"/>
+      <c r="P55" s="172"/>
+      <c r="Q55" s="173"/>
+      <c r="R55" s="157"/>
       <c r="S55" s="58"/>
       <c r="T55" s="58"/>
       <c r="U55" s="58"/>
       <c r="V55" s="58"/>
-      <c r="W55" s="174"/>
-      <c r="X55" s="175"/>
+      <c r="W55" s="172"/>
+      <c r="X55" s="173"/>
       <c r="Y55" s="58"/>
       <c r="Z55" s="58"/>
       <c r="AA55" s="58"/>
       <c r="AB55" s="58"/>
       <c r="AC55" s="58"/>
-      <c r="AD55" s="174"/>
-      <c r="AE55" s="175"/>
+      <c r="AD55" s="172"/>
+      <c r="AE55" s="173"/>
       <c r="AF55" s="58"/>
       <c r="AG55" s="58"/>
       <c r="AH55" s="58"/>
       <c r="AI55" s="58"/>
       <c r="AJ55" s="58"/>
-      <c r="AK55" s="174"/>
-      <c r="AL55" s="175"/>
+      <c r="AK55" s="172"/>
+      <c r="AL55" s="173"/>
       <c r="AM55" s="58"/>
       <c r="AN55" s="58"/>
       <c r="AO55" s="58"/>
       <c r="AP55" s="58"/>
       <c r="AQ55" s="58"/>
-      <c r="AR55" s="174"/>
-      <c r="AS55" s="175"/>
+      <c r="AR55" s="172"/>
+      <c r="AS55" s="173"/>
       <c r="AT55" s="58"/>
       <c r="AU55" s="58"/>
       <c r="AV55" s="58"/>
       <c r="AW55" s="58"/>
       <c r="AX55" s="58"/>
-      <c r="AY55" s="174"/>
-      <c r="AZ55" s="175"/>
+      <c r="AY55" s="172"/>
+      <c r="AZ55" s="173"/>
       <c r="BA55" s="58"/>
       <c r="BB55" s="58"/>
       <c r="BC55" s="58"/>
-      <c r="BD55" s="72"/>
+      <c r="BD55" s="71"/>
       <c r="BE55" s="58"/>
-      <c r="BF55" s="174"/>
-      <c r="BG55" s="175"/>
+      <c r="BF55" s="172"/>
+      <c r="BG55" s="173"/>
       <c r="BH55" s="58"/>
       <c r="BI55" s="58"/>
       <c r="BJ55" s="58"/>
       <c r="BK55" s="58"/>
       <c r="BL55" s="58"/>
-      <c r="BM55" s="174"/>
-      <c r="BN55" s="175"/>
+      <c r="BM55" s="172"/>
+      <c r="BN55" s="173"/>
       <c r="BO55" s="58"/>
       <c r="BP55" s="58"/>
-      <c r="BQ55" s="143"/>
+      <c r="BQ55" s="141"/>
       <c r="BR55" s="6"/>
       <c r="BS55" s="49"/>
       <c r="BT55" s="49"/>
@@ -14654,67 +14658,67 @@
       </c>
       <c r="G56" s="34"/>
       <c r="H56" s="61"/>
-      <c r="I56" s="174"/>
-      <c r="J56" s="175"/>
-      <c r="K56" s="158"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="173"/>
+      <c r="K56" s="156"/>
       <c r="L56" s="54"/>
       <c r="M56" s="54"/>
       <c r="N56" s="54"/>
       <c r="O56" s="54"/>
-      <c r="P56" s="174"/>
-      <c r="Q56" s="175"/>
-      <c r="R56" s="158"/>
+      <c r="P56" s="172"/>
+      <c r="Q56" s="173"/>
+      <c r="R56" s="156"/>
       <c r="S56" s="54"/>
       <c r="T56" s="54"/>
       <c r="U56" s="54"/>
       <c r="V56" s="54"/>
-      <c r="W56" s="174"/>
-      <c r="X56" s="175"/>
+      <c r="W56" s="172"/>
+      <c r="X56" s="173"/>
       <c r="Y56" s="54"/>
       <c r="Z56" s="54"/>
       <c r="AA56" s="54"/>
       <c r="AB56" s="54"/>
       <c r="AC56" s="54"/>
-      <c r="AD56" s="174"/>
-      <c r="AE56" s="175"/>
+      <c r="AD56" s="172"/>
+      <c r="AE56" s="173"/>
       <c r="AF56" s="54"/>
       <c r="AG56" s="54"/>
       <c r="AH56" s="54"/>
       <c r="AI56" s="54"/>
       <c r="AJ56" s="54"/>
-      <c r="AK56" s="174"/>
-      <c r="AL56" s="175"/>
+      <c r="AK56" s="172"/>
+      <c r="AL56" s="173"/>
       <c r="AM56" s="54"/>
       <c r="AN56" s="54"/>
       <c r="AO56" s="54"/>
       <c r="AP56" s="54"/>
       <c r="AQ56" s="54"/>
-      <c r="AR56" s="174"/>
-      <c r="AS56" s="175"/>
+      <c r="AR56" s="172"/>
+      <c r="AS56" s="173"/>
       <c r="AT56" s="54"/>
       <c r="AU56" s="54"/>
       <c r="AV56" s="54"/>
       <c r="AW56" s="54"/>
       <c r="AX56" s="54"/>
-      <c r="AY56" s="174"/>
-      <c r="AZ56" s="175"/>
+      <c r="AY56" s="172"/>
+      <c r="AZ56" s="173"/>
       <c r="BA56" s="54"/>
       <c r="BB56" s="54"/>
       <c r="BC56" s="54"/>
       <c r="BD56" s="54"/>
       <c r="BE56" s="54"/>
-      <c r="BF56" s="174"/>
-      <c r="BG56" s="175"/>
+      <c r="BF56" s="172"/>
+      <c r="BG56" s="173"/>
       <c r="BH56" s="54"/>
       <c r="BI56" s="54"/>
       <c r="BJ56" s="54"/>
       <c r="BK56" s="54"/>
       <c r="BL56" s="54"/>
-      <c r="BM56" s="174"/>
-      <c r="BN56" s="175"/>
+      <c r="BM56" s="172"/>
+      <c r="BN56" s="173"/>
       <c r="BO56" s="54"/>
       <c r="BP56" s="54"/>
-      <c r="BQ56" s="137"/>
+      <c r="BQ56" s="135"/>
       <c r="BR56" s="6"/>
       <c r="BS56" s="49"/>
       <c r="BT56" s="49"/>
@@ -14886,80 +14890,84 @@
       <c r="B57" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="75">
+      <c r="C57" s="74">
         <v>3</v>
       </c>
-      <c r="D57" s="76" t="s">
+      <c r="D57" s="75" t="s">
         <v>96</v>
       </c>
-      <c r="E57" s="77">
+      <c r="E57" s="76">
         <v>44092</v>
       </c>
-      <c r="F57" s="77">
+      <c r="F57" s="76">
         <v>44092</v>
       </c>
-      <c r="G57" s="173"/>
-      <c r="H57" s="78"/>
-      <c r="I57" s="174"/>
-      <c r="J57" s="175"/>
-      <c r="K57" s="160"/>
-      <c r="L57" s="88"/>
-      <c r="M57" s="88"/>
-      <c r="N57" s="88"/>
-      <c r="O57" s="88"/>
-      <c r="P57" s="174"/>
-      <c r="Q57" s="175"/>
-      <c r="R57" s="160"/>
-      <c r="S57" s="88"/>
-      <c r="T57" s="88"/>
-      <c r="U57" s="88"/>
-      <c r="V57" s="88"/>
-      <c r="W57" s="174"/>
-      <c r="X57" s="175"/>
-      <c r="Y57" s="88"/>
-      <c r="Z57" s="88"/>
-      <c r="AA57" s="88"/>
-      <c r="AB57" s="88"/>
-      <c r="AC57" s="88"/>
-      <c r="AD57" s="174"/>
-      <c r="AE57" s="175"/>
-      <c r="AF57" s="88"/>
-      <c r="AG57" s="88"/>
-      <c r="AH57" s="88"/>
-      <c r="AI57" s="88"/>
-      <c r="AJ57" s="88"/>
-      <c r="AK57" s="174"/>
-      <c r="AL57" s="175"/>
-      <c r="AM57" s="88"/>
-      <c r="AN57" s="88"/>
-      <c r="AO57" s="88"/>
-      <c r="AP57" s="88"/>
-      <c r="AQ57" s="88"/>
-      <c r="AR57" s="174"/>
-      <c r="AS57" s="175"/>
-      <c r="AT57" s="88"/>
-      <c r="AU57" s="88"/>
-      <c r="AV57" s="88"/>
-      <c r="AW57" s="88"/>
-      <c r="AX57" s="88"/>
-      <c r="AY57" s="185"/>
-      <c r="AZ57" s="186"/>
-      <c r="BA57" s="88"/>
-      <c r="BC57" s="88"/>
-      <c r="BD57" s="88"/>
-      <c r="BE57" s="89"/>
-      <c r="BF57" s="185"/>
-      <c r="BG57" s="186"/>
-      <c r="BH57" s="88"/>
-      <c r="BI57" s="88"/>
-      <c r="BJ57" s="88"/>
-      <c r="BK57" s="88"/>
-      <c r="BL57" s="88"/>
-      <c r="BM57" s="185"/>
-      <c r="BN57" s="186"/>
-      <c r="BO57" s="88"/>
-      <c r="BP57" s="88"/>
-      <c r="BQ57" s="144"/>
+      <c r="G57" s="171">
+        <v>1</v>
+      </c>
+      <c r="H57" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="I57" s="172"/>
+      <c r="J57" s="173"/>
+      <c r="K57" s="158"/>
+      <c r="L57" s="86"/>
+      <c r="M57" s="86"/>
+      <c r="N57" s="86"/>
+      <c r="O57" s="86"/>
+      <c r="P57" s="172"/>
+      <c r="Q57" s="173"/>
+      <c r="R57" s="158"/>
+      <c r="S57" s="86"/>
+      <c r="T57" s="86"/>
+      <c r="U57" s="86"/>
+      <c r="V57" s="86"/>
+      <c r="W57" s="172"/>
+      <c r="X57" s="173"/>
+      <c r="Y57" s="86"/>
+      <c r="Z57" s="86"/>
+      <c r="AA57" s="86"/>
+      <c r="AB57" s="86"/>
+      <c r="AC57" s="86"/>
+      <c r="AD57" s="172"/>
+      <c r="AE57" s="173"/>
+      <c r="AF57" s="86"/>
+      <c r="AG57" s="86"/>
+      <c r="AH57" s="86"/>
+      <c r="AI57" s="86"/>
+      <c r="AJ57" s="86"/>
+      <c r="AK57" s="172"/>
+      <c r="AL57" s="173"/>
+      <c r="AM57" s="86"/>
+      <c r="AN57" s="86"/>
+      <c r="AO57" s="86"/>
+      <c r="AP57" s="86"/>
+      <c r="AQ57" s="86"/>
+      <c r="AR57" s="172"/>
+      <c r="AS57" s="173"/>
+      <c r="AT57" s="86"/>
+      <c r="AU57" s="86"/>
+      <c r="AV57" s="86"/>
+      <c r="AW57" s="86"/>
+      <c r="AX57" s="86"/>
+      <c r="AY57" s="183"/>
+      <c r="AZ57" s="184"/>
+      <c r="BA57" s="86"/>
+      <c r="BC57" s="86"/>
+      <c r="BD57" s="86"/>
+      <c r="BE57" s="87"/>
+      <c r="BF57" s="183"/>
+      <c r="BG57" s="184"/>
+      <c r="BH57" s="86"/>
+      <c r="BI57" s="86"/>
+      <c r="BJ57" s="86"/>
+      <c r="BK57" s="86"/>
+      <c r="BL57" s="86"/>
+      <c r="BM57" s="183"/>
+      <c r="BN57" s="184"/>
+      <c r="BO57" s="86"/>
+      <c r="BP57" s="86"/>
+      <c r="BQ57" s="142"/>
       <c r="BR57" s="6"/>
       <c r="BS57" s="49"/>
       <c r="BT57" s="49"/>
@@ -15126,76 +15134,76 @@
       <c r="HY57" s="6"/>
       <c r="HZ57" s="6"/>
     </row>
-    <row r="58" spans="1:235" s="91" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:235" s="89" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6"/>
-      <c r="B58" s="124"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="126"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="128"/>
-      <c r="H58" s="129"/>
-      <c r="I58" s="165"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="161"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="131"/>
-      <c r="Q58" s="131"/>
-      <c r="R58" s="161"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="130"/>
-      <c r="V58" s="130"/>
-      <c r="W58" s="131"/>
-      <c r="X58" s="131"/>
-      <c r="Y58" s="130"/>
-      <c r="Z58" s="130"/>
-      <c r="AA58" s="130"/>
-      <c r="AB58" s="130"/>
-      <c r="AC58" s="130"/>
-      <c r="AD58" s="131"/>
-      <c r="AE58" s="131"/>
-      <c r="AF58" s="130"/>
-      <c r="AG58" s="130"/>
-      <c r="AH58" s="130"/>
-      <c r="AI58" s="130"/>
-      <c r="AJ58" s="130"/>
-      <c r="AK58" s="169"/>
-      <c r="AL58" s="131"/>
-      <c r="AM58" s="130"/>
-      <c r="AN58" s="130"/>
-      <c r="AO58" s="130"/>
-      <c r="AP58" s="130"/>
-      <c r="AQ58" s="130"/>
-      <c r="AR58" s="131"/>
-      <c r="AS58" s="131"/>
-      <c r="AT58" s="130"/>
-      <c r="AU58" s="130"/>
-      <c r="AV58" s="130"/>
-      <c r="AW58" s="130"/>
-      <c r="AX58" s="130"/>
-      <c r="AY58" s="131"/>
-      <c r="AZ58" s="131"/>
-      <c r="BA58" s="130"/>
-      <c r="BB58" s="130"/>
-      <c r="BC58" s="130"/>
-      <c r="BD58" s="130"/>
-      <c r="BE58" s="130"/>
-      <c r="BF58" s="131"/>
-      <c r="BG58" s="131"/>
-      <c r="BH58" s="130"/>
-      <c r="BI58" s="130"/>
-      <c r="BJ58" s="130"/>
-      <c r="BK58" s="130"/>
-      <c r="BL58" s="130"/>
-      <c r="BM58" s="131"/>
-      <c r="BN58" s="131"/>
-      <c r="BO58" s="130"/>
-      <c r="BP58" s="130"/>
-      <c r="BQ58" s="130"/>
+      <c r="B58" s="122"/>
+      <c r="C58" s="123"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="163"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="159"/>
+      <c r="L58" s="128"/>
+      <c r="M58" s="128"/>
+      <c r="N58" s="128"/>
+      <c r="O58" s="128"/>
+      <c r="P58" s="129"/>
+      <c r="Q58" s="129"/>
+      <c r="R58" s="159"/>
+      <c r="S58" s="128"/>
+      <c r="T58" s="128"/>
+      <c r="U58" s="128"/>
+      <c r="V58" s="128"/>
+      <c r="W58" s="129"/>
+      <c r="X58" s="129"/>
+      <c r="Y58" s="128"/>
+      <c r="Z58" s="128"/>
+      <c r="AA58" s="128"/>
+      <c r="AB58" s="128"/>
+      <c r="AC58" s="128"/>
+      <c r="AD58" s="129"/>
+      <c r="AE58" s="129"/>
+      <c r="AF58" s="128"/>
+      <c r="AG58" s="128"/>
+      <c r="AH58" s="128"/>
+      <c r="AI58" s="128"/>
+      <c r="AJ58" s="128"/>
+      <c r="AK58" s="167"/>
+      <c r="AL58" s="129"/>
+      <c r="AM58" s="128"/>
+      <c r="AN58" s="128"/>
+      <c r="AO58" s="128"/>
+      <c r="AP58" s="128"/>
+      <c r="AQ58" s="128"/>
+      <c r="AR58" s="129"/>
+      <c r="AS58" s="129"/>
+      <c r="AT58" s="128"/>
+      <c r="AU58" s="128"/>
+      <c r="AV58" s="128"/>
+      <c r="AW58" s="128"/>
+      <c r="AX58" s="128"/>
+      <c r="AY58" s="129"/>
+      <c r="AZ58" s="129"/>
+      <c r="BA58" s="128"/>
+      <c r="BB58" s="128"/>
+      <c r="BC58" s="128"/>
+      <c r="BD58" s="128"/>
+      <c r="BE58" s="128"/>
+      <c r="BF58" s="129"/>
+      <c r="BG58" s="129"/>
+      <c r="BH58" s="128"/>
+      <c r="BI58" s="128"/>
+      <c r="BJ58" s="128"/>
+      <c r="BK58" s="128"/>
+      <c r="BL58" s="128"/>
+      <c r="BM58" s="129"/>
+      <c r="BN58" s="129"/>
+      <c r="BO58" s="128"/>
+      <c r="BP58" s="128"/>
+      <c r="BQ58" s="128"/>
       <c r="BR58" s="6"/>
       <c r="BS58" s="6"/>
       <c r="BT58" s="6"/>
@@ -15361,75 +15369,75 @@
       <c r="HX58" s="6"/>
       <c r="HY58" s="6"/>
       <c r="HZ58" s="6"/>
-      <c r="IA58" s="93"/>
+      <c r="IA58" s="91"/>
     </row>
     <row r="59" spans="1:235" s="58" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="98"/>
-      <c r="F59" s="98"/>
-      <c r="G59" s="99"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="166"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="153"/>
+      <c r="B59" s="93"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="95"/>
+      <c r="E59" s="96"/>
+      <c r="F59" s="96"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="98"/>
+      <c r="I59" s="164"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="151"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
       <c r="O59" s="6"/>
-      <c r="P59" s="101"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="153"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="99"/>
+      <c r="R59" s="151"/>
       <c r="S59" s="6"/>
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="101"/>
-      <c r="X59" s="101"/>
+      <c r="W59" s="99"/>
+      <c r="X59" s="99"/>
       <c r="Y59" s="6"/>
       <c r="Z59" s="6"/>
       <c r="AA59" s="6"/>
       <c r="AB59" s="6"/>
       <c r="AC59" s="6"/>
-      <c r="AD59" s="101"/>
-      <c r="AE59" s="101"/>
+      <c r="AD59" s="99"/>
+      <c r="AE59" s="99"/>
       <c r="AF59" s="6"/>
       <c r="AG59" s="6"/>
       <c r="AH59" s="6"/>
       <c r="AI59" s="6"/>
       <c r="AJ59" s="6"/>
-      <c r="AK59" s="170"/>
-      <c r="AL59" s="101"/>
+      <c r="AK59" s="168"/>
+      <c r="AL59" s="99"/>
       <c r="AM59" s="6"/>
       <c r="AN59" s="6"/>
       <c r="AO59" s="6"/>
       <c r="AP59" s="6"/>
       <c r="AQ59" s="6"/>
-      <c r="AR59" s="101"/>
-      <c r="AS59" s="101"/>
+      <c r="AR59" s="99"/>
+      <c r="AS59" s="99"/>
       <c r="AT59" s="6"/>
       <c r="AU59" s="6"/>
       <c r="AV59" s="6"/>
       <c r="AW59" s="6"/>
       <c r="AX59" s="6"/>
-      <c r="AY59" s="101"/>
-      <c r="AZ59" s="101"/>
+      <c r="AY59" s="99"/>
+      <c r="AZ59" s="99"/>
       <c r="BA59" s="6"/>
       <c r="BB59" s="6"/>
       <c r="BC59" s="6"/>
       <c r="BD59" s="6"/>
       <c r="BE59" s="6"/>
-      <c r="BF59" s="101"/>
-      <c r="BG59" s="101"/>
+      <c r="BF59" s="99"/>
+      <c r="BG59" s="99"/>
       <c r="BH59" s="6"/>
       <c r="BI59" s="6"/>
       <c r="BJ59" s="6"/>
       <c r="BK59" s="6"/>
       <c r="BL59" s="6"/>
-      <c r="BM59" s="101"/>
-      <c r="BN59" s="101"/>
+      <c r="BM59" s="99"/>
+      <c r="BN59" s="99"/>
       <c r="BO59" s="6"/>
       <c r="BP59" s="6"/>
       <c r="BQ59" s="6"/>
@@ -15598,27 +15606,27 @@
       <c r="HX59" s="6"/>
       <c r="HY59" s="6"/>
       <c r="HZ59" s="6"/>
-      <c r="IA59" s="64"/>
+      <c r="IA59" s="63"/>
     </row>
     <row r="60" spans="1:235" s="59" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11"/>
-      <c r="B60" s="95"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="98"/>
-      <c r="F60" s="98"/>
-      <c r="G60" s="103"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="164"/>
+      <c r="B60" s="93"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="96"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="162"/>
       <c r="J60" s="6"/>
-      <c r="K60" s="153"/>
+      <c r="K60" s="151"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
       <c r="O60" s="6"/>
       <c r="P60" s="6"/>
       <c r="Q60" s="6"/>
-      <c r="R60" s="153"/>
+      <c r="R60" s="151"/>
       <c r="S60" s="6"/>
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
@@ -15637,7 +15645,7 @@
       <c r="AH60" s="6"/>
       <c r="AI60" s="6"/>
       <c r="AJ60" s="6"/>
-      <c r="AK60" s="164"/>
+      <c r="AK60" s="162"/>
       <c r="AL60" s="6"/>
       <c r="AM60" s="6"/>
       <c r="AN60" s="6"/>
@@ -15838,23 +15846,23 @@
     </row>
     <row r="61" spans="1:235" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="12"/>
-      <c r="B61" s="95"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="98"/>
-      <c r="F61" s="98"/>
-      <c r="G61" s="103"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="164"/>
+      <c r="B61" s="93"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="100"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="162"/>
       <c r="J61" s="6"/>
-      <c r="K61" s="153"/>
+      <c r="K61" s="151"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
       <c r="O61" s="6"/>
       <c r="P61" s="6"/>
       <c r="Q61" s="6"/>
-      <c r="R61" s="153"/>
+      <c r="R61" s="151"/>
       <c r="S61" s="6"/>
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
@@ -15873,7 +15881,7 @@
       <c r="AH61" s="6"/>
       <c r="AI61" s="6"/>
       <c r="AJ61" s="6"/>
-      <c r="AK61" s="164"/>
+      <c r="AK61" s="162"/>
       <c r="AL61" s="6"/>
       <c r="AM61" s="6"/>
       <c r="AN61" s="6"/>
@@ -16074,23 +16082,23 @@
     </row>
     <row r="62" spans="1:235" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="12"/>
-      <c r="B62" s="95"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="98"/>
-      <c r="F62" s="98"/>
-      <c r="G62" s="103"/>
-      <c r="H62" s="104"/>
-      <c r="I62" s="164"/>
+      <c r="B62" s="93"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="100"/>
+      <c r="E62" s="96"/>
+      <c r="F62" s="96"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="102"/>
+      <c r="I62" s="162"/>
       <c r="J62" s="6"/>
-      <c r="K62" s="153"/>
+      <c r="K62" s="151"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
       <c r="O62" s="6"/>
       <c r="P62" s="6"/>
       <c r="Q62" s="6"/>
-      <c r="R62" s="153"/>
+      <c r="R62" s="151"/>
       <c r="S62" s="6"/>
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
@@ -16109,7 +16117,7 @@
       <c r="AH62" s="6"/>
       <c r="AI62" s="6"/>
       <c r="AJ62" s="6"/>
-      <c r="AK62" s="164"/>
+      <c r="AK62" s="162"/>
       <c r="AL62" s="6"/>
       <c r="AM62" s="6"/>
       <c r="AN62" s="6"/>
@@ -16309,23 +16317,23 @@
       <c r="HZ62" s="6"/>
     </row>
     <row r="63" spans="1:235" x14ac:dyDescent="0.3">
-      <c r="B63" s="95"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="98"/>
-      <c r="F63" s="105"/>
-      <c r="G63" s="103"/>
-      <c r="H63" s="104"/>
-      <c r="I63" s="164"/>
+      <c r="B63" s="93"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="100"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="103"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="162"/>
       <c r="J63" s="6"/>
-      <c r="K63" s="153"/>
+      <c r="K63" s="151"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
       <c r="O63" s="6"/>
       <c r="P63" s="6"/>
       <c r="Q63" s="6"/>
-      <c r="R63" s="153"/>
+      <c r="R63" s="151"/>
       <c r="S63" s="6"/>
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
@@ -16344,7 +16352,7 @@
       <c r="AH63" s="6"/>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6"/>
-      <c r="AK63" s="164"/>
+      <c r="AK63" s="162"/>
       <c r="AL63" s="6"/>
       <c r="AM63" s="6"/>
       <c r="AN63" s="6"/>
@@ -16544,23 +16552,23 @@
       <c r="HZ63" s="6"/>
     </row>
     <row r="64" spans="1:235" x14ac:dyDescent="0.3">
-      <c r="B64" s="95"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="98"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="103"/>
-      <c r="H64" s="104"/>
-      <c r="I64" s="164"/>
+      <c r="B64" s="93"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="100"/>
+      <c r="E64" s="96"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="162"/>
       <c r="J64" s="6"/>
-      <c r="K64" s="153"/>
+      <c r="K64" s="151"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
       <c r="O64" s="6"/>
       <c r="P64" s="6"/>
       <c r="Q64" s="6"/>
-      <c r="R64" s="153"/>
+      <c r="R64" s="151"/>
       <c r="S64" s="6"/>
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
@@ -16579,7 +16587,7 @@
       <c r="AH64" s="6"/>
       <c r="AI64" s="6"/>
       <c r="AJ64" s="6"/>
-      <c r="AK64" s="164"/>
+      <c r="AK64" s="162"/>
       <c r="AL64" s="6"/>
       <c r="AM64" s="6"/>
       <c r="AN64" s="6"/>
@@ -16780,23 +16788,23 @@
     </row>
     <row r="65" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
-      <c r="B65" s="95"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="98"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="103"/>
-      <c r="H65" s="104"/>
-      <c r="I65" s="164"/>
+      <c r="B65" s="93"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="100"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="101"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="162"/>
       <c r="J65" s="6"/>
-      <c r="K65" s="153"/>
+      <c r="K65" s="151"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
       <c r="O65" s="6"/>
       <c r="P65" s="6"/>
       <c r="Q65" s="6"/>
-      <c r="R65" s="153"/>
+      <c r="R65" s="151"/>
       <c r="S65" s="6"/>
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
@@ -16815,7 +16823,7 @@
       <c r="AH65" s="6"/>
       <c r="AI65" s="6"/>
       <c r="AJ65" s="6"/>
-      <c r="AK65" s="164"/>
+      <c r="AK65" s="162"/>
       <c r="AL65" s="6"/>
       <c r="AM65" s="6"/>
       <c r="AN65" s="6"/>
@@ -17015,23 +17023,23 @@
       <c r="HZ65" s="6"/>
     </row>
     <row r="66" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B66" s="95"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="105"/>
-      <c r="F66" s="105"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="104"/>
-      <c r="I66" s="164"/>
+      <c r="B66" s="93"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="100"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="102"/>
+      <c r="I66" s="162"/>
       <c r="J66" s="6"/>
-      <c r="K66" s="153"/>
+      <c r="K66" s="151"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
       <c r="O66" s="6"/>
       <c r="P66" s="6"/>
       <c r="Q66" s="6"/>
-      <c r="R66" s="153"/>
+      <c r="R66" s="151"/>
       <c r="S66" s="6"/>
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
@@ -17050,7 +17058,7 @@
       <c r="AH66" s="6"/>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6"/>
-      <c r="AK66" s="164"/>
+      <c r="AK66" s="162"/>
       <c r="AL66" s="6"/>
       <c r="AM66" s="6"/>
       <c r="AN66" s="6"/>
@@ -17251,23 +17259,23 @@
     </row>
     <row r="67" spans="1:234" s="35" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="12"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="98"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="103"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="164"/>
+      <c r="B67" s="93"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="100"/>
+      <c r="E67" s="96"/>
+      <c r="F67" s="103"/>
+      <c r="G67" s="101"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="162"/>
       <c r="J67" s="6"/>
-      <c r="K67" s="153"/>
+      <c r="K67" s="151"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
       <c r="Q67" s="6"/>
-      <c r="R67" s="153"/>
+      <c r="R67" s="151"/>
       <c r="S67" s="6"/>
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
@@ -17286,7 +17294,7 @@
       <c r="AH67" s="6"/>
       <c r="AI67" s="6"/>
       <c r="AJ67" s="6"/>
-      <c r="AK67" s="164"/>
+      <c r="AK67" s="162"/>
       <c r="AL67" s="6"/>
       <c r="AM67" s="6"/>
       <c r="AN67" s="6"/>
@@ -17487,23 +17495,23 @@
     </row>
     <row r="68" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="12"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="98"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="104"/>
-      <c r="I68" s="164"/>
+      <c r="B68" s="93"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="100"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="102"/>
+      <c r="I68" s="162"/>
       <c r="J68" s="6"/>
-      <c r="K68" s="153"/>
+      <c r="K68" s="151"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
       <c r="Q68" s="6"/>
-      <c r="R68" s="153"/>
+      <c r="R68" s="151"/>
       <c r="S68" s="6"/>
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
@@ -17522,7 +17530,7 @@
       <c r="AH68" s="6"/>
       <c r="AI68" s="6"/>
       <c r="AJ68" s="6"/>
-      <c r="AK68" s="164"/>
+      <c r="AK68" s="162"/>
       <c r="AL68" s="6"/>
       <c r="AM68" s="6"/>
       <c r="AN68" s="6"/>
@@ -17722,23 +17730,23 @@
       <c r="HZ68" s="6"/>
     </row>
     <row r="69" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B69" s="95"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="98"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="103"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="164"/>
+      <c r="B69" s="93"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="100"/>
+      <c r="E69" s="96"/>
+      <c r="F69" s="103"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="162"/>
       <c r="J69" s="6"/>
-      <c r="K69" s="153"/>
+      <c r="K69" s="151"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
       <c r="O69" s="6"/>
       <c r="P69" s="6"/>
       <c r="Q69" s="6"/>
-      <c r="R69" s="153"/>
+      <c r="R69" s="151"/>
       <c r="S69" s="6"/>
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
@@ -17757,7 +17765,7 @@
       <c r="AH69" s="6"/>
       <c r="AI69" s="6"/>
       <c r="AJ69" s="6"/>
-      <c r="AK69" s="164"/>
+      <c r="AK69" s="162"/>
       <c r="AL69" s="6"/>
       <c r="AM69" s="6"/>
       <c r="AN69" s="6"/>
@@ -17957,23 +17965,23 @@
       <c r="HZ69" s="6"/>
     </row>
     <row r="70" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B70" s="95"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="98"/>
-      <c r="F70" s="105"/>
-      <c r="G70" s="103"/>
-      <c r="H70" s="104"/>
-      <c r="I70" s="164"/>
+      <c r="B70" s="93"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="104"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="102"/>
+      <c r="I70" s="162"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="153"/>
+      <c r="K70" s="151"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
       <c r="O70" s="6"/>
       <c r="P70" s="6"/>
       <c r="Q70" s="6"/>
-      <c r="R70" s="153"/>
+      <c r="R70" s="151"/>
       <c r="S70" s="6"/>
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
@@ -17992,7 +18000,7 @@
       <c r="AH70" s="6"/>
       <c r="AI70" s="6"/>
       <c r="AJ70" s="6"/>
-      <c r="AK70" s="164"/>
+      <c r="AK70" s="162"/>
       <c r="AL70" s="6"/>
       <c r="AM70" s="6"/>
       <c r="AN70" s="6"/>
@@ -18193,23 +18201,23 @@
     </row>
     <row r="71" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="12"/>
-      <c r="B71" s="95"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="102"/>
-      <c r="E71" s="98"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="103"/>
-      <c r="H71" s="100"/>
-      <c r="I71" s="164"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="100"/>
+      <c r="E71" s="96"/>
+      <c r="F71" s="103"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="98"/>
+      <c r="I71" s="162"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="153"/>
+      <c r="K71" s="151"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
       <c r="O71" s="6"/>
       <c r="P71" s="6"/>
       <c r="Q71" s="6"/>
-      <c r="R71" s="153"/>
+      <c r="R71" s="151"/>
       <c r="S71" s="6"/>
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
@@ -18228,7 +18236,7 @@
       <c r="AH71" s="6"/>
       <c r="AI71" s="6"/>
       <c r="AJ71" s="6"/>
-      <c r="AK71" s="164"/>
+      <c r="AK71" s="162"/>
       <c r="AL71" s="6"/>
       <c r="AM71" s="6"/>
       <c r="AN71" s="6"/>
@@ -18428,23 +18436,23 @@
       <c r="HZ71" s="6"/>
     </row>
     <row r="72" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B72" s="95"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="102"/>
-      <c r="E72" s="98"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="103"/>
-      <c r="H72" s="100"/>
-      <c r="I72" s="164"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="100"/>
+      <c r="E72" s="96"/>
+      <c r="F72" s="103"/>
+      <c r="G72" s="101"/>
+      <c r="H72" s="98"/>
+      <c r="I72" s="162"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="153"/>
+      <c r="K72" s="151"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
       <c r="O72" s="6"/>
       <c r="P72" s="6"/>
       <c r="Q72" s="6"/>
-      <c r="R72" s="153"/>
+      <c r="R72" s="151"/>
       <c r="S72" s="6"/>
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
@@ -18463,7 +18471,7 @@
       <c r="AH72" s="6"/>
       <c r="AI72" s="6"/>
       <c r="AJ72" s="6"/>
-      <c r="AK72" s="164"/>
+      <c r="AK72" s="162"/>
       <c r="AL72" s="6"/>
       <c r="AM72" s="6"/>
       <c r="AN72" s="6"/>
@@ -18664,23 +18672,23 @@
     </row>
     <row r="73" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="12"/>
-      <c r="B73" s="95"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="102"/>
-      <c r="E73" s="98"/>
-      <c r="F73" s="98"/>
-      <c r="G73" s="103"/>
-      <c r="H73" s="100"/>
-      <c r="I73" s="164"/>
+      <c r="B73" s="93"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="100"/>
+      <c r="E73" s="96"/>
+      <c r="F73" s="96"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="98"/>
+      <c r="I73" s="162"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="153"/>
+      <c r="K73" s="151"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
       <c r="O73" s="6"/>
       <c r="P73" s="6"/>
       <c r="Q73" s="6"/>
-      <c r="R73" s="153"/>
+      <c r="R73" s="151"/>
       <c r="S73" s="6"/>
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
@@ -18699,7 +18707,7 @@
       <c r="AH73" s="6"/>
       <c r="AI73" s="6"/>
       <c r="AJ73" s="6"/>
-      <c r="AK73" s="164"/>
+      <c r="AK73" s="162"/>
       <c r="AL73" s="6"/>
       <c r="AM73" s="6"/>
       <c r="AN73" s="6"/>
@@ -18899,23 +18907,23 @@
       <c r="HZ73" s="6"/>
     </row>
     <row r="74" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B74" s="95"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="102"/>
-      <c r="E74" s="98"/>
-      <c r="F74" s="98"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="100"/>
-      <c r="I74" s="164"/>
+      <c r="B74" s="93"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="100"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="98"/>
+      <c r="I74" s="162"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="153"/>
+      <c r="K74" s="151"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
       <c r="O74" s="6"/>
       <c r="P74" s="6"/>
       <c r="Q74" s="6"/>
-      <c r="R74" s="153"/>
+      <c r="R74" s="151"/>
       <c r="S74" s="6"/>
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
@@ -18934,7 +18942,7 @@
       <c r="AH74" s="6"/>
       <c r="AI74" s="6"/>
       <c r="AJ74" s="6"/>
-      <c r="AK74" s="164"/>
+      <c r="AK74" s="162"/>
       <c r="AL74" s="6"/>
       <c r="AM74" s="6"/>
       <c r="AN74" s="6"/>
@@ -19134,23 +19142,23 @@
       <c r="HZ74" s="6"/>
     </row>
     <row r="75" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B75" s="95"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="98"/>
-      <c r="F75" s="105"/>
-      <c r="G75" s="103"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="164"/>
+      <c r="B75" s="93"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="100"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="103"/>
+      <c r="G75" s="101"/>
+      <c r="H75" s="98"/>
+      <c r="I75" s="162"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="153"/>
+      <c r="K75" s="151"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
       <c r="O75" s="6"/>
       <c r="P75" s="6"/>
       <c r="Q75" s="6"/>
-      <c r="R75" s="153"/>
+      <c r="R75" s="151"/>
       <c r="S75" s="6"/>
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
@@ -19169,7 +19177,7 @@
       <c r="AH75" s="6"/>
       <c r="AI75" s="6"/>
       <c r="AJ75" s="6"/>
-      <c r="AK75" s="164"/>
+      <c r="AK75" s="162"/>
       <c r="AL75" s="6"/>
       <c r="AM75" s="6"/>
       <c r="AN75" s="6"/>
@@ -19369,23 +19377,23 @@
       <c r="HZ75" s="6"/>
     </row>
     <row r="76" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B76" s="95"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="103"/>
-      <c r="H76" s="100"/>
-      <c r="I76" s="164"/>
+      <c r="B76" s="93"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="100"/>
+      <c r="E76" s="96"/>
+      <c r="F76" s="103"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="98"/>
+      <c r="I76" s="162"/>
       <c r="J76" s="6"/>
-      <c r="K76" s="153"/>
+      <c r="K76" s="151"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
       <c r="O76" s="6"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6"/>
-      <c r="R76" s="153"/>
+      <c r="R76" s="151"/>
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
@@ -19404,7 +19412,7 @@
       <c r="AH76" s="6"/>
       <c r="AI76" s="6"/>
       <c r="AJ76" s="6"/>
-      <c r="AK76" s="164"/>
+      <c r="AK76" s="162"/>
       <c r="AL76" s="6"/>
       <c r="AM76" s="6"/>
       <c r="AN76" s="6"/>
@@ -19605,23 +19613,23 @@
     </row>
     <row r="77" spans="1:234" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="12"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="164"/>
+      <c r="I77" s="162"/>
       <c r="J77" s="6"/>
-      <c r="K77" s="153"/>
+      <c r="K77" s="151"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
       <c r="O77" s="6"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6"/>
-      <c r="R77" s="153"/>
+      <c r="R77" s="151"/>
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
@@ -19640,7 +19648,7 @@
       <c r="AH77" s="6"/>
       <c r="AI77" s="6"/>
       <c r="AJ77" s="6"/>
-      <c r="AK77" s="164"/>
+      <c r="AK77" s="162"/>
       <c r="AL77" s="6"/>
       <c r="AM77" s="6"/>
       <c r="AN77" s="6"/>
@@ -19841,23 +19849,23 @@
     </row>
     <row r="78" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="98"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="103"/>
-      <c r="H78" s="100"/>
-      <c r="I78" s="164"/>
+      <c r="B78" s="93"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="100"/>
+      <c r="E78" s="96"/>
+      <c r="F78" s="103"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="98"/>
+      <c r="I78" s="162"/>
       <c r="J78" s="6"/>
-      <c r="K78" s="153"/>
+      <c r="K78" s="151"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
       <c r="O78" s="6"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6"/>
-      <c r="R78" s="153"/>
+      <c r="R78" s="151"/>
       <c r="S78" s="6"/>
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
@@ -19876,7 +19884,7 @@
       <c r="AH78" s="6"/>
       <c r="AI78" s="6"/>
       <c r="AJ78" s="6"/>
-      <c r="AK78" s="164"/>
+      <c r="AK78" s="162"/>
       <c r="AL78" s="6"/>
       <c r="AM78" s="6"/>
       <c r="AN78" s="6"/>
@@ -20077,23 +20085,23 @@
     </row>
     <row r="79" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12"/>
-      <c r="B79" s="95"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="110"/>
-      <c r="E79" s="98"/>
-      <c r="F79" s="105"/>
-      <c r="G79" s="103"/>
-      <c r="H79" s="100"/>
-      <c r="I79" s="164"/>
+      <c r="B79" s="93"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="108"/>
+      <c r="E79" s="96"/>
+      <c r="F79" s="103"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="98"/>
+      <c r="I79" s="162"/>
       <c r="J79" s="6"/>
-      <c r="K79" s="153"/>
+      <c r="K79" s="151"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
       <c r="O79" s="6"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6"/>
-      <c r="R79" s="153"/>
+      <c r="R79" s="151"/>
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
@@ -20112,7 +20120,7 @@
       <c r="AH79" s="6"/>
       <c r="AI79" s="6"/>
       <c r="AJ79" s="6"/>
-      <c r="AK79" s="164"/>
+      <c r="AK79" s="162"/>
       <c r="AL79" s="6"/>
       <c r="AM79" s="6"/>
       <c r="AN79" s="6"/>
@@ -20313,23 +20321,23 @@
     </row>
     <row r="80" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="12"/>
-      <c r="B80" s="95"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="102"/>
-      <c r="E80" s="98"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="103"/>
-      <c r="H80" s="100"/>
-      <c r="I80" s="164"/>
+      <c r="B80" s="93"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="100"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="103"/>
+      <c r="G80" s="101"/>
+      <c r="H80" s="98"/>
+      <c r="I80" s="162"/>
       <c r="J80" s="6"/>
-      <c r="K80" s="153"/>
+      <c r="K80" s="151"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
       <c r="O80" s="6"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6"/>
-      <c r="R80" s="153"/>
+      <c r="R80" s="151"/>
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
@@ -20348,7 +20356,7 @@
       <c r="AH80" s="6"/>
       <c r="AI80" s="6"/>
       <c r="AJ80" s="6"/>
-      <c r="AK80" s="164"/>
+      <c r="AK80" s="162"/>
       <c r="AL80" s="6"/>
       <c r="AM80" s="6"/>
       <c r="AN80" s="6"/>
@@ -20549,23 +20557,23 @@
     </row>
     <row r="81" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="12"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="102"/>
-      <c r="E81" s="98"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="100"/>
-      <c r="I81" s="164"/>
+      <c r="B81" s="93"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="100"/>
+      <c r="E81" s="96"/>
+      <c r="F81" s="103"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="98"/>
+      <c r="I81" s="162"/>
       <c r="J81" s="6"/>
-      <c r="K81" s="153"/>
+      <c r="K81" s="151"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
       <c r="O81" s="6"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6"/>
-      <c r="R81" s="153"/>
+      <c r="R81" s="151"/>
       <c r="S81" s="6"/>
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
@@ -20584,7 +20592,7 @@
       <c r="AH81" s="6"/>
       <c r="AI81" s="6"/>
       <c r="AJ81" s="6"/>
-      <c r="AK81" s="164"/>
+      <c r="AK81" s="162"/>
       <c r="AL81" s="6"/>
       <c r="AM81" s="6"/>
       <c r="AN81" s="6"/>
@@ -20785,23 +20793,23 @@
     </row>
     <row r="82" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="102"/>
-      <c r="E82" s="98"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="100"/>
-      <c r="I82" s="164"/>
+      <c r="B82" s="93"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="100"/>
+      <c r="E82" s="96"/>
+      <c r="F82" s="103"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="162"/>
       <c r="J82" s="6"/>
-      <c r="K82" s="153"/>
+      <c r="K82" s="151"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
       <c r="O82" s="6"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6"/>
-      <c r="R82" s="153"/>
+      <c r="R82" s="151"/>
       <c r="S82" s="6"/>
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
@@ -20820,7 +20828,7 @@
       <c r="AH82" s="6"/>
       <c r="AI82" s="6"/>
       <c r="AJ82" s="6"/>
-      <c r="AK82" s="164"/>
+      <c r="AK82" s="162"/>
       <c r="AL82" s="6"/>
       <c r="AM82" s="6"/>
       <c r="AN82" s="6"/>
@@ -21021,23 +21029,23 @@
     </row>
     <row r="83" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12"/>
-      <c r="B83" s="95"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="98"/>
-      <c r="F83" s="105"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="164"/>
+      <c r="B83" s="93"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="100"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="98"/>
+      <c r="I83" s="162"/>
       <c r="J83" s="6"/>
-      <c r="K83" s="153"/>
+      <c r="K83" s="151"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
       <c r="O83" s="6"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6"/>
-      <c r="R83" s="153"/>
+      <c r="R83" s="151"/>
       <c r="S83" s="6"/>
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
@@ -21056,7 +21064,7 @@
       <c r="AH83" s="6"/>
       <c r="AI83" s="6"/>
       <c r="AJ83" s="6"/>
-      <c r="AK83" s="164"/>
+      <c r="AK83" s="162"/>
       <c r="AL83" s="6"/>
       <c r="AM83" s="6"/>
       <c r="AN83" s="6"/>
@@ -21257,23 +21265,23 @@
     </row>
     <row r="84" spans="1:234" s="19" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12"/>
-      <c r="B84" s="95"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="102"/>
-      <c r="E84" s="98"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="103"/>
-      <c r="H84" s="100"/>
-      <c r="I84" s="164"/>
+      <c r="B84" s="93"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="100"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="103"/>
+      <c r="G84" s="101"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="162"/>
       <c r="J84" s="6"/>
-      <c r="K84" s="153"/>
+      <c r="K84" s="151"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6"/>
-      <c r="R84" s="153"/>
+      <c r="R84" s="151"/>
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
@@ -21292,7 +21300,7 @@
       <c r="AH84" s="6"/>
       <c r="AI84" s="6"/>
       <c r="AJ84" s="6"/>
-      <c r="AK84" s="164"/>
+      <c r="AK84" s="162"/>
       <c r="AL84" s="6"/>
       <c r="AM84" s="6"/>
       <c r="AN84" s="6"/>
@@ -21481,24 +21489,24 @@
       <c r="HO84" s="49"/>
     </row>
     <row r="85" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="A85" s="132"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="111"/>
-      <c r="D85" s="112"/>
-      <c r="E85" s="105"/>
-      <c r="F85" s="113"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="114"/>
-      <c r="I85" s="164"/>
+      <c r="A85" s="130"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="109"/>
+      <c r="D85" s="110"/>
+      <c r="E85" s="103"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="98"/>
+      <c r="H85" s="112"/>
+      <c r="I85" s="162"/>
       <c r="J85" s="6"/>
-      <c r="K85" s="153"/>
+      <c r="K85" s="151"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6"/>
-      <c r="R85" s="153"/>
+      <c r="R85" s="151"/>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
@@ -21517,7 +21525,7 @@
       <c r="AH85" s="6"/>
       <c r="AI85" s="6"/>
       <c r="AJ85" s="6"/>
-      <c r="AK85" s="164"/>
+      <c r="AK85" s="162"/>
       <c r="AL85" s="6"/>
       <c r="AM85" s="6"/>
       <c r="AN85" s="6"/>
@@ -21706,23 +21714,23 @@
       <c r="HO85" s="49"/>
     </row>
     <row r="86" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B86" s="95"/>
-      <c r="C86" s="96"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="98"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="103"/>
-      <c r="H86" s="100"/>
-      <c r="I86" s="164"/>
+      <c r="B86" s="93"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="109"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="103"/>
+      <c r="G86" s="101"/>
+      <c r="H86" s="98"/>
+      <c r="I86" s="162"/>
       <c r="J86" s="6"/>
-      <c r="K86" s="153"/>
+      <c r="K86" s="151"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
       <c r="O86" s="6"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6"/>
-      <c r="R86" s="153"/>
+      <c r="R86" s="151"/>
       <c r="S86" s="6"/>
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
@@ -21741,7 +21749,7 @@
       <c r="AH86" s="6"/>
       <c r="AI86" s="6"/>
       <c r="AJ86" s="6"/>
-      <c r="AK86" s="164"/>
+      <c r="AK86" s="162"/>
       <c r="AL86" s="6"/>
       <c r="AM86" s="6"/>
       <c r="AN86" s="6"/>
@@ -21922,23 +21930,23 @@
       <c r="HO86" s="49"/>
     </row>
     <row r="87" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="111"/>
-      <c r="E87" s="98"/>
-      <c r="F87" s="105"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="100"/>
-      <c r="I87" s="164"/>
+      <c r="B87" s="93"/>
+      <c r="C87" s="93"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="101"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="162"/>
       <c r="J87" s="6"/>
-      <c r="K87" s="153"/>
+      <c r="K87" s="151"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
       <c r="O87" s="6"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="153"/>
+      <c r="R87" s="151"/>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
@@ -21957,7 +21965,7 @@
       <c r="AH87" s="6"/>
       <c r="AI87" s="6"/>
       <c r="AJ87" s="6"/>
-      <c r="AK87" s="164"/>
+      <c r="AK87" s="162"/>
       <c r="AL87" s="6"/>
       <c r="AM87" s="6"/>
       <c r="AN87" s="6"/>
@@ -22138,23 +22146,23 @@
       <c r="HO87" s="49"/>
     </row>
     <row r="88" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B88" s="95"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="98"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="103"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="164"/>
+      <c r="B88" s="93"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="103"/>
+      <c r="G88" s="101"/>
+      <c r="H88" s="98"/>
+      <c r="I88" s="162"/>
       <c r="J88" s="6"/>
-      <c r="K88" s="153"/>
+      <c r="K88" s="151"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
       <c r="N88" s="6"/>
       <c r="O88" s="6"/>
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
-      <c r="R88" s="153"/>
+      <c r="R88" s="151"/>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
@@ -22173,7 +22181,7 @@
       <c r="AH88" s="6"/>
       <c r="AI88" s="6"/>
       <c r="AJ88" s="6"/>
-      <c r="AK88" s="164"/>
+      <c r="AK88" s="162"/>
       <c r="AL88" s="6"/>
       <c r="AM88" s="6"/>
       <c r="AN88" s="6"/>
@@ -22354,23 +22362,23 @@
       <c r="HO88" s="49"/>
     </row>
     <row r="89" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B89" s="95"/>
-      <c r="C89" s="96"/>
-      <c r="D89" s="115"/>
-      <c r="E89" s="116"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="103"/>
-      <c r="H89" s="100"/>
-      <c r="I89" s="164"/>
+      <c r="B89" s="93"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="113"/>
+      <c r="E89" s="114"/>
+      <c r="F89" s="103"/>
+      <c r="G89" s="101"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="162"/>
       <c r="J89" s="6"/>
-      <c r="K89" s="153"/>
+      <c r="K89" s="151"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
       <c r="N89" s="6"/>
       <c r="O89" s="6"/>
       <c r="P89" s="6"/>
       <c r="Q89" s="6"/>
-      <c r="R89" s="153"/>
+      <c r="R89" s="151"/>
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
@@ -22389,7 +22397,7 @@
       <c r="AH89" s="6"/>
       <c r="AI89" s="6"/>
       <c r="AJ89" s="6"/>
-      <c r="AK89" s="164"/>
+      <c r="AK89" s="162"/>
       <c r="AL89" s="6"/>
       <c r="AM89" s="6"/>
       <c r="AN89" s="6"/>
@@ -22424,23 +22432,23 @@
       <c r="BQ89" s="6"/>
     </row>
     <row r="90" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B90" s="95"/>
-      <c r="C90" s="96"/>
-      <c r="D90" s="111"/>
-      <c r="E90" s="98"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="100"/>
-      <c r="I90" s="164"/>
+      <c r="B90" s="93"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="109"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="103"/>
+      <c r="G90" s="101"/>
+      <c r="H90" s="98"/>
+      <c r="I90" s="162"/>
       <c r="J90" s="6"/>
-      <c r="K90" s="153"/>
+      <c r="K90" s="151"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
       <c r="O90" s="6"/>
       <c r="P90" s="6"/>
       <c r="Q90" s="6"/>
-      <c r="R90" s="153"/>
+      <c r="R90" s="151"/>
       <c r="S90" s="6"/>
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
@@ -22459,7 +22467,7 @@
       <c r="AH90" s="6"/>
       <c r="AI90" s="6"/>
       <c r="AJ90" s="6"/>
-      <c r="AK90" s="164"/>
+      <c r="AK90" s="162"/>
       <c r="AL90" s="6"/>
       <c r="AM90" s="6"/>
       <c r="AN90" s="6"/>
@@ -22494,23 +22502,23 @@
       <c r="BQ90" s="6"/>
     </row>
     <row r="91" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B91" s="95"/>
-      <c r="C91" s="96"/>
-      <c r="D91" s="111"/>
-      <c r="E91" s="98"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="103"/>
-      <c r="H91" s="100"/>
-      <c r="I91" s="164"/>
+      <c r="B91" s="93"/>
+      <c r="C91" s="94"/>
+      <c r="D91" s="109"/>
+      <c r="E91" s="96"/>
+      <c r="F91" s="103"/>
+      <c r="G91" s="101"/>
+      <c r="H91" s="98"/>
+      <c r="I91" s="162"/>
       <c r="J91" s="6"/>
-      <c r="K91" s="153"/>
+      <c r="K91" s="151"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
       <c r="N91" s="6"/>
       <c r="O91" s="6"/>
       <c r="P91" s="6"/>
       <c r="Q91" s="6"/>
-      <c r="R91" s="153"/>
+      <c r="R91" s="151"/>
       <c r="S91" s="6"/>
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
@@ -22529,7 +22537,7 @@
       <c r="AH91" s="6"/>
       <c r="AI91" s="6"/>
       <c r="AJ91" s="6"/>
-      <c r="AK91" s="164"/>
+      <c r="AK91" s="162"/>
       <c r="AL91" s="6"/>
       <c r="AM91" s="6"/>
       <c r="AN91" s="6"/>
@@ -22564,23 +22572,23 @@
       <c r="BQ91" s="6"/>
     </row>
     <row r="92" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B92" s="95"/>
-      <c r="C92" s="96"/>
-      <c r="D92" s="111"/>
-      <c r="E92" s="98"/>
-      <c r="F92" s="105"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="164"/>
+      <c r="B92" s="93"/>
+      <c r="C92" s="94"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="101"/>
+      <c r="H92" s="98"/>
+      <c r="I92" s="162"/>
       <c r="J92" s="6"/>
-      <c r="K92" s="153"/>
+      <c r="K92" s="151"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
       <c r="N92" s="6"/>
       <c r="O92" s="6"/>
       <c r="P92" s="6"/>
       <c r="Q92" s="6"/>
-      <c r="R92" s="153"/>
+      <c r="R92" s="151"/>
       <c r="S92" s="6"/>
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
@@ -22599,7 +22607,7 @@
       <c r="AH92" s="6"/>
       <c r="AI92" s="6"/>
       <c r="AJ92" s="6"/>
-      <c r="AK92" s="164"/>
+      <c r="AK92" s="162"/>
       <c r="AL92" s="6"/>
       <c r="AM92" s="6"/>
       <c r="AN92" s="6"/>
@@ -22634,23 +22642,23 @@
       <c r="BQ92" s="6"/>
     </row>
     <row r="93" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B93" s="95"/>
-      <c r="C93" s="96"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="116"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="103"/>
-      <c r="H93" s="100"/>
-      <c r="I93" s="164"/>
+      <c r="B93" s="93"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="103"/>
+      <c r="G93" s="101"/>
+      <c r="H93" s="98"/>
+      <c r="I93" s="162"/>
       <c r="J93" s="6"/>
-      <c r="K93" s="153"/>
+      <c r="K93" s="151"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
       <c r="O93" s="6"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6"/>
-      <c r="R93" s="153"/>
+      <c r="R93" s="151"/>
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
@@ -22669,7 +22677,7 @@
       <c r="AH93" s="6"/>
       <c r="AI93" s="6"/>
       <c r="AJ93" s="6"/>
-      <c r="AK93" s="164"/>
+      <c r="AK93" s="162"/>
       <c r="AL93" s="6"/>
       <c r="AM93" s="6"/>
       <c r="AN93" s="6"/>
@@ -22704,23 +22712,23 @@
       <c r="BQ93" s="6"/>
     </row>
     <row r="94" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B94" s="95"/>
-      <c r="C94" s="96"/>
-      <c r="D94" s="111"/>
-      <c r="E94" s="98"/>
-      <c r="F94" s="105"/>
-      <c r="G94" s="103"/>
-      <c r="H94" s="100"/>
-      <c r="I94" s="164"/>
+      <c r="B94" s="93"/>
+      <c r="C94" s="94"/>
+      <c r="D94" s="109"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="103"/>
+      <c r="G94" s="101"/>
+      <c r="H94" s="98"/>
+      <c r="I94" s="162"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="153"/>
+      <c r="K94" s="151"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
       <c r="O94" s="6"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
-      <c r="R94" s="153"/>
+      <c r="R94" s="151"/>
       <c r="S94" s="6"/>
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
@@ -22739,7 +22747,7 @@
       <c r="AH94" s="6"/>
       <c r="AI94" s="6"/>
       <c r="AJ94" s="6"/>
-      <c r="AK94" s="164"/>
+      <c r="AK94" s="162"/>
       <c r="AL94" s="6"/>
       <c r="AM94" s="6"/>
       <c r="AN94" s="6"/>
@@ -22774,23 +22782,23 @@
       <c r="BQ94" s="6"/>
     </row>
     <row r="95" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B95" s="95"/>
-      <c r="C95" s="96"/>
-      <c r="D95" s="117"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="105"/>
-      <c r="G95" s="103"/>
-      <c r="H95" s="100"/>
-      <c r="I95" s="164"/>
+      <c r="B95" s="93"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="115"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="103"/>
+      <c r="G95" s="101"/>
+      <c r="H95" s="98"/>
+      <c r="I95" s="162"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="153"/>
+      <c r="K95" s="151"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
       <c r="O95" s="6"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6"/>
-      <c r="R95" s="153"/>
+      <c r="R95" s="151"/>
       <c r="S95" s="6"/>
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
@@ -22809,7 +22817,7 @@
       <c r="AH95" s="6"/>
       <c r="AI95" s="6"/>
       <c r="AJ95" s="6"/>
-      <c r="AK95" s="164"/>
+      <c r="AK95" s="162"/>
       <c r="AL95" s="6"/>
       <c r="AM95" s="6"/>
       <c r="AN95" s="6"/>
@@ -22844,23 +22852,23 @@
       <c r="BQ95" s="6"/>
     </row>
     <row r="96" spans="1:234" x14ac:dyDescent="0.3">
-      <c r="B96" s="95"/>
-      <c r="C96" s="96"/>
-      <c r="D96" s="111"/>
-      <c r="E96" s="105"/>
-      <c r="F96" s="109"/>
-      <c r="G96" s="103"/>
-      <c r="H96" s="118"/>
-      <c r="I96" s="164"/>
+      <c r="B96" s="93"/>
+      <c r="C96" s="94"/>
+      <c r="D96" s="109"/>
+      <c r="E96" s="103"/>
+      <c r="F96" s="107"/>
+      <c r="G96" s="101"/>
+      <c r="H96" s="116"/>
+      <c r="I96" s="162"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="153"/>
+      <c r="K96" s="151"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
       <c r="O96" s="6"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6"/>
-      <c r="R96" s="153"/>
+      <c r="R96" s="151"/>
       <c r="S96" s="6"/>
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
@@ -22879,7 +22887,7 @@
       <c r="AH96" s="6"/>
       <c r="AI96" s="6"/>
       <c r="AJ96" s="6"/>
-      <c r="AK96" s="164"/>
+      <c r="AK96" s="162"/>
       <c r="AL96" s="6"/>
       <c r="AM96" s="6"/>
       <c r="AN96" s="6"/>
@@ -22914,23 +22922,23 @@
       <c r="BQ96" s="6"/>
     </row>
     <row r="97" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B97" s="95"/>
-      <c r="C97" s="96"/>
-      <c r="D97" s="111"/>
-      <c r="E97" s="98"/>
-      <c r="F97" s="105"/>
-      <c r="G97" s="103"/>
-      <c r="H97" s="104"/>
-      <c r="I97" s="164"/>
+      <c r="B97" s="93"/>
+      <c r="C97" s="94"/>
+      <c r="D97" s="109"/>
+      <c r="E97" s="96"/>
+      <c r="F97" s="103"/>
+      <c r="G97" s="101"/>
+      <c r="H97" s="102"/>
+      <c r="I97" s="162"/>
       <c r="J97" s="6"/>
-      <c r="K97" s="153"/>
+      <c r="K97" s="151"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
       <c r="O97" s="6"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6"/>
-      <c r="R97" s="153"/>
+      <c r="R97" s="151"/>
       <c r="S97" s="6"/>
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
@@ -22949,7 +22957,7 @@
       <c r="AH97" s="6"/>
       <c r="AI97" s="6"/>
       <c r="AJ97" s="6"/>
-      <c r="AK97" s="164"/>
+      <c r="AK97" s="162"/>
       <c r="AL97" s="6"/>
       <c r="AM97" s="6"/>
       <c r="AN97" s="6"/>
@@ -22984,23 +22992,23 @@
       <c r="BQ97" s="6"/>
     </row>
     <row r="98" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B98" s="95"/>
-      <c r="C98" s="96"/>
-      <c r="D98" s="111"/>
-      <c r="E98" s="98"/>
-      <c r="F98" s="105"/>
-      <c r="G98" s="103"/>
-      <c r="H98" s="100"/>
-      <c r="I98" s="164"/>
+      <c r="B98" s="93"/>
+      <c r="C98" s="94"/>
+      <c r="D98" s="109"/>
+      <c r="E98" s="96"/>
+      <c r="F98" s="103"/>
+      <c r="G98" s="101"/>
+      <c r="H98" s="98"/>
+      <c r="I98" s="162"/>
       <c r="J98" s="6"/>
-      <c r="K98" s="153"/>
+      <c r="K98" s="151"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
       <c r="O98" s="6"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6"/>
-      <c r="R98" s="153"/>
+      <c r="R98" s="151"/>
       <c r="S98" s="6"/>
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
@@ -23019,7 +23027,7 @@
       <c r="AH98" s="6"/>
       <c r="AI98" s="6"/>
       <c r="AJ98" s="6"/>
-      <c r="AK98" s="164"/>
+      <c r="AK98" s="162"/>
       <c r="AL98" s="6"/>
       <c r="AM98" s="6"/>
       <c r="AN98" s="6"/>
@@ -23054,23 +23062,23 @@
       <c r="BQ98" s="6"/>
     </row>
     <row r="99" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B99" s="95"/>
-      <c r="C99" s="96"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="98"/>
-      <c r="F99" s="105"/>
-      <c r="G99" s="103"/>
-      <c r="H99" s="118"/>
-      <c r="I99" s="164"/>
+      <c r="B99" s="93"/>
+      <c r="C99" s="94"/>
+      <c r="D99" s="115"/>
+      <c r="E99" s="96"/>
+      <c r="F99" s="103"/>
+      <c r="G99" s="101"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="162"/>
       <c r="J99" s="6"/>
-      <c r="K99" s="153"/>
+      <c r="K99" s="151"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
       <c r="O99" s="6"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6"/>
-      <c r="R99" s="153"/>
+      <c r="R99" s="151"/>
       <c r="S99" s="6"/>
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
@@ -23089,7 +23097,7 @@
       <c r="AH99" s="6"/>
       <c r="AI99" s="6"/>
       <c r="AJ99" s="6"/>
-      <c r="AK99" s="164"/>
+      <c r="AK99" s="162"/>
       <c r="AL99" s="6"/>
       <c r="AM99" s="6"/>
       <c r="AN99" s="6"/>
@@ -23124,23 +23132,23 @@
       <c r="BQ99" s="6"/>
     </row>
     <row r="100" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B100" s="95"/>
-      <c r="C100" s="96"/>
-      <c r="D100" s="111"/>
-      <c r="E100" s="98"/>
-      <c r="F100" s="105"/>
-      <c r="G100" s="103"/>
-      <c r="H100" s="118"/>
-      <c r="I100" s="164"/>
+      <c r="B100" s="93"/>
+      <c r="C100" s="94"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="96"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="101"/>
+      <c r="H100" s="116"/>
+      <c r="I100" s="162"/>
       <c r="J100" s="6"/>
-      <c r="K100" s="153"/>
+      <c r="K100" s="151"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
       <c r="O100" s="6"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6"/>
-      <c r="R100" s="153"/>
+      <c r="R100" s="151"/>
       <c r="S100" s="6"/>
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
@@ -23159,7 +23167,7 @@
       <c r="AH100" s="6"/>
       <c r="AI100" s="6"/>
       <c r="AJ100" s="6"/>
-      <c r="AK100" s="164"/>
+      <c r="AK100" s="162"/>
       <c r="AL100" s="6"/>
       <c r="AM100" s="6"/>
       <c r="AN100" s="6"/>
@@ -23194,23 +23202,23 @@
       <c r="BQ100" s="6"/>
     </row>
     <row r="101" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B101" s="95"/>
-      <c r="C101" s="96"/>
-      <c r="D101" s="119"/>
-      <c r="E101" s="98"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="103"/>
-      <c r="H101" s="118"/>
-      <c r="I101" s="164"/>
+      <c r="B101" s="93"/>
+      <c r="C101" s="94"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="96"/>
+      <c r="F101" s="103"/>
+      <c r="G101" s="101"/>
+      <c r="H101" s="116"/>
+      <c r="I101" s="162"/>
       <c r="J101" s="6"/>
-      <c r="K101" s="153"/>
+      <c r="K101" s="151"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
       <c r="Q101" s="6"/>
-      <c r="R101" s="153"/>
+      <c r="R101" s="151"/>
       <c r="S101" s="6"/>
       <c r="T101" s="6"/>
       <c r="U101" s="6"/>
@@ -23229,7 +23237,7 @@
       <c r="AH101" s="6"/>
       <c r="AI101" s="6"/>
       <c r="AJ101" s="6"/>
-      <c r="AK101" s="164"/>
+      <c r="AK101" s="162"/>
       <c r="AL101" s="6"/>
       <c r="AM101" s="6"/>
       <c r="AN101" s="6"/>
@@ -23264,23 +23272,23 @@
       <c r="BQ101" s="6"/>
     </row>
     <row r="102" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B102" s="95"/>
-      <c r="C102" s="96"/>
-      <c r="D102" s="119"/>
-      <c r="E102" s="98"/>
-      <c r="F102" s="105"/>
-      <c r="G102" s="103"/>
-      <c r="H102" s="118"/>
-      <c r="I102" s="164"/>
+      <c r="B102" s="93"/>
+      <c r="C102" s="94"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="103"/>
+      <c r="G102" s="101"/>
+      <c r="H102" s="116"/>
+      <c r="I102" s="162"/>
       <c r="J102" s="6"/>
-      <c r="K102" s="153"/>
+      <c r="K102" s="151"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
       <c r="Q102" s="6"/>
-      <c r="R102" s="153"/>
+      <c r="R102" s="151"/>
       <c r="S102" s="6"/>
       <c r="T102" s="6"/>
       <c r="U102" s="6"/>
@@ -23299,7 +23307,7 @@
       <c r="AH102" s="6"/>
       <c r="AI102" s="6"/>
       <c r="AJ102" s="6"/>
-      <c r="AK102" s="164"/>
+      <c r="AK102" s="162"/>
       <c r="AL102" s="6"/>
       <c r="AM102" s="6"/>
       <c r="AN102" s="6"/>
@@ -23334,23 +23342,23 @@
       <c r="BQ102" s="6"/>
     </row>
     <row r="103" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B103" s="95"/>
-      <c r="C103" s="96"/>
-      <c r="D103" s="119"/>
-      <c r="E103" s="98"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="103"/>
-      <c r="H103" s="100"/>
-      <c r="I103" s="164"/>
+      <c r="B103" s="93"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="96"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="101"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="162"/>
       <c r="J103" s="6"/>
-      <c r="K103" s="153"/>
+      <c r="K103" s="151"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
       <c r="N103" s="6"/>
       <c r="O103" s="6"/>
       <c r="P103" s="6"/>
       <c r="Q103" s="6"/>
-      <c r="R103" s="153"/>
+      <c r="R103" s="151"/>
       <c r="S103" s="6"/>
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
@@ -23369,7 +23377,7 @@
       <c r="AH103" s="6"/>
       <c r="AI103" s="6"/>
       <c r="AJ103" s="6"/>
-      <c r="AK103" s="164"/>
+      <c r="AK103" s="162"/>
       <c r="AL103" s="6"/>
       <c r="AM103" s="6"/>
       <c r="AN103" s="6"/>
@@ -23404,23 +23412,23 @@
       <c r="BQ103" s="6"/>
     </row>
     <row r="104" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B104" s="95"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="111"/>
-      <c r="E104" s="98"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="103"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="164"/>
+      <c r="B104" s="93"/>
+      <c r="C104" s="93"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="101"/>
+      <c r="H104" s="98"/>
+      <c r="I104" s="162"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="153"/>
+      <c r="K104" s="151"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
       <c r="N104" s="6"/>
       <c r="O104" s="6"/>
       <c r="P104" s="6"/>
       <c r="Q104" s="6"/>
-      <c r="R104" s="153"/>
+      <c r="R104" s="151"/>
       <c r="S104" s="6"/>
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
@@ -23439,7 +23447,7 @@
       <c r="AH104" s="6"/>
       <c r="AI104" s="6"/>
       <c r="AJ104" s="6"/>
-      <c r="AK104" s="164"/>
+      <c r="AK104" s="162"/>
       <c r="AL104" s="6"/>
       <c r="AM104" s="6"/>
       <c r="AN104" s="6"/>
@@ -23474,23 +23482,23 @@
       <c r="BQ104" s="6"/>
     </row>
     <row r="105" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B105" s="95"/>
-      <c r="C105" s="95"/>
-      <c r="D105" s="119"/>
-      <c r="E105" s="98"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="103"/>
-      <c r="H105" s="118"/>
-      <c r="I105" s="164"/>
+      <c r="B105" s="93"/>
+      <c r="C105" s="93"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="96"/>
+      <c r="F105" s="103"/>
+      <c r="G105" s="101"/>
+      <c r="H105" s="116"/>
+      <c r="I105" s="162"/>
       <c r="J105" s="6"/>
-      <c r="K105" s="153"/>
+      <c r="K105" s="151"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
       <c r="N105" s="6"/>
       <c r="O105" s="6"/>
       <c r="P105" s="6"/>
       <c r="Q105" s="6"/>
-      <c r="R105" s="153"/>
+      <c r="R105" s="151"/>
       <c r="S105" s="6"/>
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
@@ -23509,7 +23517,7 @@
       <c r="AH105" s="6"/>
       <c r="AI105" s="6"/>
       <c r="AJ105" s="6"/>
-      <c r="AK105" s="164"/>
+      <c r="AK105" s="162"/>
       <c r="AL105" s="6"/>
       <c r="AM105" s="6"/>
       <c r="AN105" s="6"/>
@@ -23544,23 +23552,23 @@
       <c r="BQ105" s="6"/>
     </row>
     <row r="106" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B106" s="95"/>
-      <c r="C106" s="95"/>
-      <c r="D106" s="119"/>
-      <c r="E106" s="98"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="103"/>
-      <c r="H106" s="100"/>
-      <c r="I106" s="164"/>
+      <c r="B106" s="93"/>
+      <c r="C106" s="93"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="96"/>
+      <c r="F106" s="103"/>
+      <c r="G106" s="101"/>
+      <c r="H106" s="98"/>
+      <c r="I106" s="162"/>
       <c r="J106" s="6"/>
-      <c r="K106" s="153"/>
+      <c r="K106" s="151"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
       <c r="N106" s="6"/>
       <c r="O106" s="6"/>
       <c r="P106" s="6"/>
       <c r="Q106" s="6"/>
-      <c r="R106" s="153"/>
+      <c r="R106" s="151"/>
       <c r="S106" s="6"/>
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
@@ -23579,7 +23587,7 @@
       <c r="AH106" s="6"/>
       <c r="AI106" s="6"/>
       <c r="AJ106" s="6"/>
-      <c r="AK106" s="164"/>
+      <c r="AK106" s="162"/>
       <c r="AL106" s="6"/>
       <c r="AM106" s="6"/>
       <c r="AN106" s="6"/>
@@ -23614,23 +23622,23 @@
       <c r="BQ106" s="6"/>
     </row>
     <row r="107" spans="2:70" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="95"/>
-      <c r="C107" s="96"/>
-      <c r="D107" s="120"/>
-      <c r="E107" s="98"/>
-      <c r="F107" s="105"/>
-      <c r="G107" s="103"/>
-      <c r="H107" s="100"/>
-      <c r="I107" s="164"/>
+      <c r="B107" s="93"/>
+      <c r="C107" s="94"/>
+      <c r="D107" s="118"/>
+      <c r="E107" s="96"/>
+      <c r="F107" s="103"/>
+      <c r="G107" s="101"/>
+      <c r="H107" s="98"/>
+      <c r="I107" s="162"/>
       <c r="J107" s="6"/>
-      <c r="K107" s="153"/>
+      <c r="K107" s="151"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
       <c r="N107" s="6"/>
       <c r="O107" s="6"/>
       <c r="P107" s="6"/>
       <c r="Q107" s="6"/>
-      <c r="R107" s="153"/>
+      <c r="R107" s="151"/>
       <c r="S107" s="6"/>
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
@@ -23649,7 +23657,7 @@
       <c r="AH107" s="6"/>
       <c r="AI107" s="6"/>
       <c r="AJ107" s="6"/>
-      <c r="AK107" s="164"/>
+      <c r="AK107" s="162"/>
       <c r="AL107" s="6"/>
       <c r="AM107" s="6"/>
       <c r="AN107" s="6"/>
@@ -23685,23 +23693,23 @@
       <c r="BR107" s="11"/>
     </row>
     <row r="108" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B108" s="95"/>
-      <c r="C108" s="96"/>
-      <c r="D108" s="121"/>
-      <c r="E108" s="98"/>
-      <c r="F108" s="105"/>
-      <c r="G108" s="103"/>
-      <c r="H108" s="100"/>
-      <c r="I108" s="164"/>
+      <c r="B108" s="93"/>
+      <c r="C108" s="94"/>
+      <c r="D108" s="119"/>
+      <c r="E108" s="96"/>
+      <c r="F108" s="103"/>
+      <c r="G108" s="101"/>
+      <c r="H108" s="98"/>
+      <c r="I108" s="162"/>
       <c r="J108" s="6"/>
-      <c r="K108" s="153"/>
+      <c r="K108" s="151"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
       <c r="N108" s="6"/>
       <c r="O108" s="6"/>
       <c r="P108" s="6"/>
       <c r="Q108" s="6"/>
-      <c r="R108" s="153"/>
+      <c r="R108" s="151"/>
       <c r="S108" s="6"/>
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
@@ -23720,7 +23728,7 @@
       <c r="AH108" s="6"/>
       <c r="AI108" s="6"/>
       <c r="AJ108" s="6"/>
-      <c r="AK108" s="164"/>
+      <c r="AK108" s="162"/>
       <c r="AL108" s="6"/>
       <c r="AM108" s="6"/>
       <c r="AN108" s="6"/>
@@ -23755,23 +23763,23 @@
       <c r="BQ108" s="6"/>
     </row>
     <row r="109" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B109" s="95"/>
-      <c r="C109" s="96"/>
-      <c r="D109" s="111"/>
-      <c r="E109" s="98"/>
-      <c r="F109" s="105"/>
-      <c r="G109" s="103"/>
-      <c r="H109" s="100"/>
-      <c r="I109" s="164"/>
+      <c r="B109" s="93"/>
+      <c r="C109" s="94"/>
+      <c r="D109" s="109"/>
+      <c r="E109" s="96"/>
+      <c r="F109" s="103"/>
+      <c r="G109" s="101"/>
+      <c r="H109" s="98"/>
+      <c r="I109" s="162"/>
       <c r="J109" s="6"/>
-      <c r="K109" s="153"/>
+      <c r="K109" s="151"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
       <c r="N109" s="6"/>
       <c r="O109" s="6"/>
       <c r="P109" s="6"/>
       <c r="Q109" s="6"/>
-      <c r="R109" s="153"/>
+      <c r="R109" s="151"/>
       <c r="S109" s="6"/>
       <c r="T109" s="6"/>
       <c r="U109" s="6"/>
@@ -23790,7 +23798,7 @@
       <c r="AH109" s="6"/>
       <c r="AI109" s="6"/>
       <c r="AJ109" s="6"/>
-      <c r="AK109" s="164"/>
+      <c r="AK109" s="162"/>
       <c r="AL109" s="6"/>
       <c r="AM109" s="6"/>
       <c r="AN109" s="6"/>
@@ -23825,23 +23833,23 @@
       <c r="BQ109" s="6"/>
     </row>
     <row r="110" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B110" s="95"/>
-      <c r="C110" s="96"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="98"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="103"/>
-      <c r="H110" s="100"/>
-      <c r="I110" s="164"/>
+      <c r="B110" s="93"/>
+      <c r="C110" s="94"/>
+      <c r="D110" s="109"/>
+      <c r="E110" s="96"/>
+      <c r="F110" s="103"/>
+      <c r="G110" s="101"/>
+      <c r="H110" s="98"/>
+      <c r="I110" s="162"/>
       <c r="J110" s="6"/>
-      <c r="K110" s="153"/>
+      <c r="K110" s="151"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
       <c r="N110" s="6"/>
       <c r="O110" s="6"/>
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
-      <c r="R110" s="153"/>
+      <c r="R110" s="151"/>
       <c r="S110" s="6"/>
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
@@ -23860,7 +23868,7 @@
       <c r="AH110" s="6"/>
       <c r="AI110" s="6"/>
       <c r="AJ110" s="6"/>
-      <c r="AK110" s="164"/>
+      <c r="AK110" s="162"/>
       <c r="AL110" s="6"/>
       <c r="AM110" s="6"/>
       <c r="AN110" s="6"/>
@@ -23895,23 +23903,23 @@
       <c r="BQ110" s="6"/>
     </row>
     <row r="111" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B111" s="95"/>
-      <c r="C111" s="96"/>
-      <c r="D111" s="111"/>
-      <c r="E111" s="98"/>
-      <c r="F111" s="105"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="164"/>
+      <c r="B111" s="93"/>
+      <c r="C111" s="94"/>
+      <c r="D111" s="109"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="101"/>
+      <c r="H111" s="98"/>
+      <c r="I111" s="162"/>
       <c r="J111" s="6"/>
-      <c r="K111" s="153"/>
+      <c r="K111" s="151"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="6"/>
       <c r="O111" s="6"/>
       <c r="P111" s="6"/>
       <c r="Q111" s="6"/>
-      <c r="R111" s="153"/>
+      <c r="R111" s="151"/>
       <c r="S111" s="6"/>
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
@@ -23930,7 +23938,7 @@
       <c r="AH111" s="6"/>
       <c r="AI111" s="6"/>
       <c r="AJ111" s="6"/>
-      <c r="AK111" s="164"/>
+      <c r="AK111" s="162"/>
       <c r="AL111" s="6"/>
       <c r="AM111" s="6"/>
       <c r="AN111" s="6"/>
@@ -23965,23 +23973,23 @@
       <c r="BQ111" s="6"/>
     </row>
     <row r="112" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B112" s="95"/>
-      <c r="C112" s="96"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="98"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="103"/>
-      <c r="H112" s="100"/>
-      <c r="I112" s="164"/>
+      <c r="B112" s="93"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="119"/>
+      <c r="E112" s="96"/>
+      <c r="F112" s="103"/>
+      <c r="G112" s="101"/>
+      <c r="H112" s="98"/>
+      <c r="I112" s="162"/>
       <c r="J112" s="6"/>
-      <c r="K112" s="153"/>
+      <c r="K112" s="151"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
       <c r="N112" s="6"/>
       <c r="O112" s="6"/>
       <c r="P112" s="6"/>
       <c r="Q112" s="6"/>
-      <c r="R112" s="153"/>
+      <c r="R112" s="151"/>
       <c r="S112" s="6"/>
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
@@ -24000,7 +24008,7 @@
       <c r="AH112" s="6"/>
       <c r="AI112" s="6"/>
       <c r="AJ112" s="6"/>
-      <c r="AK112" s="164"/>
+      <c r="AK112" s="162"/>
       <c r="AL112" s="6"/>
       <c r="AM112" s="6"/>
       <c r="AN112" s="6"/>
@@ -24035,23 +24043,23 @@
       <c r="BQ112" s="6"/>
     </row>
     <row r="113" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B113" s="95"/>
-      <c r="C113" s="96"/>
-      <c r="D113" s="111"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="105"/>
-      <c r="G113" s="103"/>
-      <c r="H113" s="100"/>
-      <c r="I113" s="164"/>
+      <c r="B113" s="93"/>
+      <c r="C113" s="94"/>
+      <c r="D113" s="109"/>
+      <c r="E113" s="96"/>
+      <c r="F113" s="103"/>
+      <c r="G113" s="101"/>
+      <c r="H113" s="98"/>
+      <c r="I113" s="162"/>
       <c r="J113" s="6"/>
-      <c r="K113" s="153"/>
+      <c r="K113" s="151"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
       <c r="N113" s="6"/>
       <c r="O113" s="6"/>
       <c r="P113" s="6"/>
       <c r="Q113" s="6"/>
-      <c r="R113" s="153"/>
+      <c r="R113" s="151"/>
       <c r="S113" s="6"/>
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
@@ -24070,7 +24078,7 @@
       <c r="AH113" s="6"/>
       <c r="AI113" s="6"/>
       <c r="AJ113" s="6"/>
-      <c r="AK113" s="164"/>
+      <c r="AK113" s="162"/>
       <c r="AL113" s="6"/>
       <c r="AM113" s="6"/>
       <c r="AN113" s="6"/>
@@ -24105,23 +24113,23 @@
       <c r="BQ113" s="6"/>
     </row>
     <row r="114" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B114" s="95"/>
-      <c r="C114" s="96"/>
-      <c r="D114" s="111"/>
-      <c r="E114" s="98"/>
-      <c r="F114" s="105"/>
-      <c r="G114" s="103"/>
-      <c r="H114" s="100"/>
-      <c r="I114" s="164"/>
+      <c r="B114" s="93"/>
+      <c r="C114" s="94"/>
+      <c r="D114" s="109"/>
+      <c r="E114" s="96"/>
+      <c r="F114" s="103"/>
+      <c r="G114" s="101"/>
+      <c r="H114" s="98"/>
+      <c r="I114" s="162"/>
       <c r="J114" s="6"/>
-      <c r="K114" s="153"/>
+      <c r="K114" s="151"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
       <c r="N114" s="6"/>
       <c r="O114" s="6"/>
       <c r="P114" s="6"/>
       <c r="Q114" s="6"/>
-      <c r="R114" s="153"/>
+      <c r="R114" s="151"/>
       <c r="S114" s="6"/>
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
@@ -24140,7 +24148,7 @@
       <c r="AH114" s="6"/>
       <c r="AI114" s="6"/>
       <c r="AJ114" s="6"/>
-      <c r="AK114" s="164"/>
+      <c r="AK114" s="162"/>
       <c r="AL114" s="6"/>
       <c r="AM114" s="6"/>
       <c r="AN114" s="6"/>
@@ -24175,23 +24183,23 @@
       <c r="BQ114" s="6"/>
     </row>
     <row r="115" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B115" s="95"/>
-      <c r="C115" s="96"/>
-      <c r="D115" s="111"/>
-      <c r="E115" s="98"/>
-      <c r="F115" s="105"/>
-      <c r="G115" s="103"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="164"/>
+      <c r="B115" s="93"/>
+      <c r="C115" s="94"/>
+      <c r="D115" s="109"/>
+      <c r="E115" s="96"/>
+      <c r="F115" s="103"/>
+      <c r="G115" s="101"/>
+      <c r="H115" s="98"/>
+      <c r="I115" s="162"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="153"/>
+      <c r="K115" s="151"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
       <c r="N115" s="6"/>
       <c r="O115" s="6"/>
       <c r="P115" s="6"/>
       <c r="Q115" s="6"/>
-      <c r="R115" s="153"/>
+      <c r="R115" s="151"/>
       <c r="S115" s="6"/>
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
@@ -24210,7 +24218,7 @@
       <c r="AH115" s="6"/>
       <c r="AI115" s="6"/>
       <c r="AJ115" s="6"/>
-      <c r="AK115" s="164"/>
+      <c r="AK115" s="162"/>
       <c r="AL115" s="6"/>
       <c r="AM115" s="6"/>
       <c r="AN115" s="6"/>
@@ -24245,23 +24253,23 @@
       <c r="BQ115" s="6"/>
     </row>
     <row r="116" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B116" s="95"/>
-      <c r="C116" s="96"/>
-      <c r="D116" s="111"/>
-      <c r="E116" s="98"/>
-      <c r="F116" s="105"/>
-      <c r="G116" s="103"/>
-      <c r="H116" s="100"/>
-      <c r="I116" s="164"/>
+      <c r="B116" s="93"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="109"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="103"/>
+      <c r="G116" s="101"/>
+      <c r="H116" s="98"/>
+      <c r="I116" s="162"/>
       <c r="J116" s="6"/>
-      <c r="K116" s="153"/>
+      <c r="K116" s="151"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
       <c r="N116" s="6"/>
       <c r="O116" s="6"/>
       <c r="P116" s="6"/>
       <c r="Q116" s="6"/>
-      <c r="R116" s="153"/>
+      <c r="R116" s="151"/>
       <c r="S116" s="6"/>
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
@@ -24280,7 +24288,7 @@
       <c r="AH116" s="6"/>
       <c r="AI116" s="6"/>
       <c r="AJ116" s="6"/>
-      <c r="AK116" s="164"/>
+      <c r="AK116" s="162"/>
       <c r="AL116" s="6"/>
       <c r="AM116" s="6"/>
       <c r="AN116" s="6"/>
@@ -24315,23 +24323,23 @@
       <c r="BQ116" s="6"/>
     </row>
     <row r="117" spans="2:70" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="95"/>
-      <c r="C117" s="96"/>
-      <c r="D117" s="120"/>
-      <c r="E117" s="98"/>
-      <c r="F117" s="105"/>
-      <c r="G117" s="103"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="164"/>
+      <c r="B117" s="93"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="118"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="103"/>
+      <c r="G117" s="101"/>
+      <c r="H117" s="98"/>
+      <c r="I117" s="162"/>
       <c r="J117" s="6"/>
-      <c r="K117" s="153"/>
+      <c r="K117" s="151"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
       <c r="N117" s="6"/>
       <c r="O117" s="6"/>
       <c r="P117" s="6"/>
       <c r="Q117" s="6"/>
-      <c r="R117" s="153"/>
+      <c r="R117" s="151"/>
       <c r="S117" s="6"/>
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
@@ -24350,7 +24358,7 @@
       <c r="AH117" s="6"/>
       <c r="AI117" s="6"/>
       <c r="AJ117" s="6"/>
-      <c r="AK117" s="164"/>
+      <c r="AK117" s="162"/>
       <c r="AL117" s="6"/>
       <c r="AM117" s="6"/>
       <c r="AN117" s="6"/>
@@ -24386,23 +24394,23 @@
       <c r="BR117" s="11"/>
     </row>
     <row r="118" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B118" s="95"/>
-      <c r="C118" s="96"/>
-      <c r="D118" s="121"/>
-      <c r="E118" s="98"/>
-      <c r="F118" s="105"/>
-      <c r="G118" s="103"/>
-      <c r="H118" s="100"/>
-      <c r="I118" s="164"/>
+      <c r="B118" s="93"/>
+      <c r="C118" s="94"/>
+      <c r="D118" s="119"/>
+      <c r="E118" s="96"/>
+      <c r="F118" s="103"/>
+      <c r="G118" s="101"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="162"/>
       <c r="J118" s="6"/>
-      <c r="K118" s="153"/>
+      <c r="K118" s="151"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
       <c r="N118" s="6"/>
       <c r="O118" s="6"/>
       <c r="P118" s="6"/>
       <c r="Q118" s="6"/>
-      <c r="R118" s="153"/>
+      <c r="R118" s="151"/>
       <c r="S118" s="6"/>
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
@@ -24421,7 +24429,7 @@
       <c r="AH118" s="6"/>
       <c r="AI118" s="6"/>
       <c r="AJ118" s="6"/>
-      <c r="AK118" s="164"/>
+      <c r="AK118" s="162"/>
       <c r="AL118" s="6"/>
       <c r="AM118" s="6"/>
       <c r="AN118" s="6"/>
@@ -24456,23 +24464,23 @@
       <c r="BQ118" s="6"/>
     </row>
     <row r="119" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B119" s="95"/>
-      <c r="C119" s="96"/>
-      <c r="D119" s="121"/>
-      <c r="E119" s="98"/>
-      <c r="F119" s="105"/>
-      <c r="G119" s="103"/>
-      <c r="H119" s="100"/>
-      <c r="I119" s="164"/>
+      <c r="B119" s="93"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="119"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="103"/>
+      <c r="G119" s="101"/>
+      <c r="H119" s="98"/>
+      <c r="I119" s="162"/>
       <c r="J119" s="6"/>
-      <c r="K119" s="153"/>
+      <c r="K119" s="151"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
       <c r="N119" s="6"/>
       <c r="O119" s="6"/>
       <c r="P119" s="6"/>
       <c r="Q119" s="6"/>
-      <c r="R119" s="153"/>
+      <c r="R119" s="151"/>
       <c r="S119" s="6"/>
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
@@ -24491,7 +24499,7 @@
       <c r="AH119" s="6"/>
       <c r="AI119" s="6"/>
       <c r="AJ119" s="6"/>
-      <c r="AK119" s="164"/>
+      <c r="AK119" s="162"/>
       <c r="AL119" s="6"/>
       <c r="AM119" s="6"/>
       <c r="AN119" s="6"/>
@@ -24526,23 +24534,23 @@
       <c r="BQ119" s="6"/>
     </row>
     <row r="120" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B120" s="95"/>
-      <c r="C120" s="96"/>
-      <c r="D120" s="111"/>
-      <c r="E120" s="116"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="103"/>
-      <c r="H120" s="118"/>
-      <c r="I120" s="164"/>
+      <c r="B120" s="93"/>
+      <c r="C120" s="94"/>
+      <c r="D120" s="109"/>
+      <c r="E120" s="114"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="101"/>
+      <c r="H120" s="116"/>
+      <c r="I120" s="162"/>
       <c r="J120" s="6"/>
-      <c r="K120" s="153"/>
+      <c r="K120" s="151"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
       <c r="N120" s="6"/>
       <c r="O120" s="6"/>
       <c r="P120" s="6"/>
       <c r="Q120" s="6"/>
-      <c r="R120" s="153"/>
+      <c r="R120" s="151"/>
       <c r="S120" s="6"/>
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
@@ -24561,7 +24569,7 @@
       <c r="AH120" s="6"/>
       <c r="AI120" s="6"/>
       <c r="AJ120" s="6"/>
-      <c r="AK120" s="164"/>
+      <c r="AK120" s="162"/>
       <c r="AL120" s="6"/>
       <c r="AM120" s="6"/>
       <c r="AN120" s="6"/>
@@ -24596,23 +24604,23 @@
       <c r="BQ120" s="6"/>
     </row>
     <row r="121" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B121" s="95"/>
-      <c r="C121" s="96"/>
-      <c r="D121" s="111"/>
-      <c r="E121" s="98"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="103"/>
-      <c r="H121" s="100"/>
-      <c r="I121" s="164"/>
+      <c r="B121" s="93"/>
+      <c r="C121" s="94"/>
+      <c r="D121" s="109"/>
+      <c r="E121" s="96"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="101"/>
+      <c r="H121" s="98"/>
+      <c r="I121" s="162"/>
       <c r="J121" s="6"/>
-      <c r="K121" s="153"/>
+      <c r="K121" s="151"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
       <c r="N121" s="6"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
       <c r="Q121" s="6"/>
-      <c r="R121" s="153"/>
+      <c r="R121" s="151"/>
       <c r="S121" s="6"/>
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
@@ -24631,7 +24639,7 @@
       <c r="AH121" s="6"/>
       <c r="AI121" s="6"/>
       <c r="AJ121" s="6"/>
-      <c r="AK121" s="164"/>
+      <c r="AK121" s="162"/>
       <c r="AL121" s="6"/>
       <c r="AM121" s="6"/>
       <c r="AN121" s="6"/>
@@ -24666,23 +24674,23 @@
       <c r="BQ121" s="6"/>
     </row>
     <row r="122" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B122" s="95"/>
-      <c r="C122" s="96"/>
-      <c r="D122" s="121"/>
-      <c r="E122" s="98"/>
-      <c r="F122" s="105"/>
-      <c r="G122" s="103"/>
-      <c r="H122" s="100"/>
-      <c r="I122" s="164"/>
+      <c r="B122" s="93"/>
+      <c r="C122" s="94"/>
+      <c r="D122" s="119"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="103"/>
+      <c r="G122" s="101"/>
+      <c r="H122" s="98"/>
+      <c r="I122" s="162"/>
       <c r="J122" s="6"/>
-      <c r="K122" s="153"/>
+      <c r="K122" s="151"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
       <c r="N122" s="6"/>
       <c r="O122" s="6"/>
       <c r="P122" s="6"/>
       <c r="Q122" s="6"/>
-      <c r="R122" s="153"/>
+      <c r="R122" s="151"/>
       <c r="S122" s="6"/>
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
@@ -24701,7 +24709,7 @@
       <c r="AH122" s="6"/>
       <c r="AI122" s="6"/>
       <c r="AJ122" s="6"/>
-      <c r="AK122" s="164"/>
+      <c r="AK122" s="162"/>
       <c r="AL122" s="6"/>
       <c r="AM122" s="6"/>
       <c r="AN122" s="6"/>
@@ -24736,23 +24744,23 @@
       <c r="BQ122" s="6"/>
     </row>
     <row r="123" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B123" s="95"/>
-      <c r="C123" s="96"/>
-      <c r="D123" s="111"/>
-      <c r="E123" s="98"/>
-      <c r="F123" s="105"/>
-      <c r="G123" s="103"/>
-      <c r="H123" s="100"/>
-      <c r="I123" s="164"/>
+      <c r="B123" s="93"/>
+      <c r="C123" s="94"/>
+      <c r="D123" s="109"/>
+      <c r="E123" s="96"/>
+      <c r="F123" s="103"/>
+      <c r="G123" s="101"/>
+      <c r="H123" s="98"/>
+      <c r="I123" s="162"/>
       <c r="J123" s="6"/>
-      <c r="K123" s="153"/>
+      <c r="K123" s="151"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
       <c r="N123" s="6"/>
       <c r="O123" s="6"/>
       <c r="P123" s="6"/>
       <c r="Q123" s="6"/>
-      <c r="R123" s="153"/>
+      <c r="R123" s="151"/>
       <c r="S123" s="6"/>
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
@@ -24771,7 +24779,7 @@
       <c r="AH123" s="6"/>
       <c r="AI123" s="6"/>
       <c r="AJ123" s="6"/>
-      <c r="AK123" s="164"/>
+      <c r="AK123" s="162"/>
       <c r="AL123" s="6"/>
       <c r="AM123" s="6"/>
       <c r="AN123" s="6"/>
@@ -24806,23 +24814,23 @@
       <c r="BQ123" s="6"/>
     </row>
     <row r="124" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B124" s="95"/>
-      <c r="C124" s="96"/>
-      <c r="D124" s="111"/>
-      <c r="E124" s="98"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="103"/>
-      <c r="H124" s="100"/>
-      <c r="I124" s="164"/>
+      <c r="B124" s="93"/>
+      <c r="C124" s="94"/>
+      <c r="D124" s="109"/>
+      <c r="E124" s="96"/>
+      <c r="F124" s="103"/>
+      <c r="G124" s="101"/>
+      <c r="H124" s="98"/>
+      <c r="I124" s="162"/>
       <c r="J124" s="6"/>
-      <c r="K124" s="153"/>
+      <c r="K124" s="151"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
       <c r="N124" s="6"/>
       <c r="O124" s="6"/>
       <c r="P124" s="6"/>
       <c r="Q124" s="6"/>
-      <c r="R124" s="153"/>
+      <c r="R124" s="151"/>
       <c r="S124" s="6"/>
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
@@ -24841,7 +24849,7 @@
       <c r="AH124" s="6"/>
       <c r="AI124" s="6"/>
       <c r="AJ124" s="6"/>
-      <c r="AK124" s="164"/>
+      <c r="AK124" s="162"/>
       <c r="AL124" s="6"/>
       <c r="AM124" s="6"/>
       <c r="AN124" s="6"/>
@@ -24876,23 +24884,23 @@
       <c r="BQ124" s="6"/>
     </row>
     <row r="125" spans="2:70" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="95"/>
-      <c r="C125" s="96"/>
-      <c r="D125" s="120"/>
-      <c r="E125" s="122"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="103"/>
-      <c r="H125" s="123"/>
-      <c r="I125" s="164"/>
+      <c r="B125" s="93"/>
+      <c r="C125" s="94"/>
+      <c r="D125" s="118"/>
+      <c r="E125" s="120"/>
+      <c r="F125" s="103"/>
+      <c r="G125" s="101"/>
+      <c r="H125" s="121"/>
+      <c r="I125" s="162"/>
       <c r="J125" s="6"/>
-      <c r="K125" s="153"/>
+      <c r="K125" s="151"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
       <c r="O125" s="6"/>
       <c r="P125" s="6"/>
       <c r="Q125" s="6"/>
-      <c r="R125" s="153"/>
+      <c r="R125" s="151"/>
       <c r="S125" s="6"/>
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
@@ -24911,7 +24919,7 @@
       <c r="AH125" s="6"/>
       <c r="AI125" s="6"/>
       <c r="AJ125" s="6"/>
-      <c r="AK125" s="164"/>
+      <c r="AK125" s="162"/>
       <c r="AL125" s="6"/>
       <c r="AM125" s="6"/>
       <c r="AN125" s="6"/>
@@ -24947,23 +24955,23 @@
       <c r="BR125" s="11"/>
     </row>
     <row r="126" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B126" s="95"/>
-      <c r="C126" s="96"/>
-      <c r="D126" s="111"/>
-      <c r="E126" s="98"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="103"/>
-      <c r="H126" s="100"/>
-      <c r="I126" s="164"/>
+      <c r="B126" s="93"/>
+      <c r="C126" s="94"/>
+      <c r="D126" s="109"/>
+      <c r="E126" s="96"/>
+      <c r="F126" s="103"/>
+      <c r="G126" s="101"/>
+      <c r="H126" s="98"/>
+      <c r="I126" s="162"/>
       <c r="J126" s="6"/>
-      <c r="K126" s="153"/>
+      <c r="K126" s="151"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
       <c r="N126" s="6"/>
       <c r="O126" s="6"/>
       <c r="P126" s="6"/>
       <c r="Q126" s="6"/>
-      <c r="R126" s="153"/>
+      <c r="R126" s="151"/>
       <c r="S126" s="6"/>
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
@@ -24982,7 +24990,7 @@
       <c r="AH126" s="6"/>
       <c r="AI126" s="6"/>
       <c r="AJ126" s="6"/>
-      <c r="AK126" s="164"/>
+      <c r="AK126" s="162"/>
       <c r="AL126" s="6"/>
       <c r="AM126" s="6"/>
       <c r="AN126" s="6"/>
@@ -25017,23 +25025,23 @@
       <c r="BQ126" s="6"/>
     </row>
     <row r="127" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B127" s="95"/>
-      <c r="C127" s="96"/>
-      <c r="D127" s="111"/>
-      <c r="E127" s="98"/>
-      <c r="F127" s="105"/>
-      <c r="G127" s="103"/>
-      <c r="H127" s="100"/>
-      <c r="I127" s="164"/>
+      <c r="B127" s="93"/>
+      <c r="C127" s="94"/>
+      <c r="D127" s="109"/>
+      <c r="E127" s="96"/>
+      <c r="F127" s="103"/>
+      <c r="G127" s="101"/>
+      <c r="H127" s="98"/>
+      <c r="I127" s="162"/>
       <c r="J127" s="6"/>
-      <c r="K127" s="153"/>
+      <c r="K127" s="151"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
       <c r="O127" s="6"/>
       <c r="P127" s="6"/>
       <c r="Q127" s="6"/>
-      <c r="R127" s="153"/>
+      <c r="R127" s="151"/>
       <c r="S127" s="6"/>
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
@@ -25052,7 +25060,7 @@
       <c r="AH127" s="6"/>
       <c r="AI127" s="6"/>
       <c r="AJ127" s="6"/>
-      <c r="AK127" s="164"/>
+      <c r="AK127" s="162"/>
       <c r="AL127" s="6"/>
       <c r="AM127" s="6"/>
       <c r="AN127" s="6"/>
@@ -25087,23 +25095,23 @@
       <c r="BQ127" s="6"/>
     </row>
     <row r="128" spans="2:70" x14ac:dyDescent="0.3">
-      <c r="B128" s="95"/>
-      <c r="C128" s="96"/>
-      <c r="D128" s="117"/>
-      <c r="E128" s="98"/>
-      <c r="F128" s="105"/>
-      <c r="G128" s="103"/>
-      <c r="H128" s="100"/>
-      <c r="I128" s="164"/>
+      <c r="B128" s="93"/>
+      <c r="C128" s="94"/>
+      <c r="D128" s="115"/>
+      <c r="E128" s="96"/>
+      <c r="F128" s="103"/>
+      <c r="G128" s="101"/>
+      <c r="H128" s="98"/>
+      <c r="I128" s="162"/>
       <c r="J128" s="6"/>
-      <c r="K128" s="153"/>
+      <c r="K128" s="151"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
       <c r="O128" s="6"/>
       <c r="P128" s="6"/>
       <c r="Q128" s="6"/>
-      <c r="R128" s="153"/>
+      <c r="R128" s="151"/>
       <c r="S128" s="6"/>
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
@@ -25122,7 +25130,7 @@
       <c r="AH128" s="6"/>
       <c r="AI128" s="6"/>
       <c r="AJ128" s="6"/>
-      <c r="AK128" s="164"/>
+      <c r="AK128" s="162"/>
       <c r="AL128" s="6"/>
       <c r="AM128" s="6"/>
       <c r="AN128" s="6"/>
@@ -25157,23 +25165,23 @@
       <c r="BQ128" s="6"/>
     </row>
     <row r="129" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B129" s="95"/>
-      <c r="C129" s="96"/>
-      <c r="D129" s="111"/>
-      <c r="E129" s="98"/>
-      <c r="F129" s="105"/>
-      <c r="G129" s="103"/>
-      <c r="H129" s="100"/>
-      <c r="I129" s="164"/>
+      <c r="B129" s="93"/>
+      <c r="C129" s="94"/>
+      <c r="D129" s="109"/>
+      <c r="E129" s="96"/>
+      <c r="F129" s="103"/>
+      <c r="G129" s="101"/>
+      <c r="H129" s="98"/>
+      <c r="I129" s="162"/>
       <c r="J129" s="6"/>
-      <c r="K129" s="153"/>
+      <c r="K129" s="151"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
       <c r="O129" s="6"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6"/>
-      <c r="R129" s="153"/>
+      <c r="R129" s="151"/>
       <c r="S129" s="6"/>
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
@@ -25192,7 +25200,7 @@
       <c r="AH129" s="6"/>
       <c r="AI129" s="6"/>
       <c r="AJ129" s="6"/>
-      <c r="AK129" s="164"/>
+      <c r="AK129" s="162"/>
       <c r="AL129" s="6"/>
       <c r="AM129" s="6"/>
       <c r="AN129" s="6"/>
@@ -25227,23 +25235,23 @@
       <c r="BQ129" s="6"/>
     </row>
     <row r="130" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B130" s="95"/>
-      <c r="C130" s="96"/>
-      <c r="D130" s="111"/>
-      <c r="E130" s="98"/>
-      <c r="F130" s="105"/>
-      <c r="G130" s="103"/>
-      <c r="H130" s="100"/>
-      <c r="I130" s="164"/>
+      <c r="B130" s="93"/>
+      <c r="C130" s="94"/>
+      <c r="D130" s="109"/>
+      <c r="E130" s="96"/>
+      <c r="F130" s="103"/>
+      <c r="G130" s="101"/>
+      <c r="H130" s="98"/>
+      <c r="I130" s="162"/>
       <c r="J130" s="6"/>
-      <c r="K130" s="153"/>
+      <c r="K130" s="151"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
       <c r="N130" s="6"/>
       <c r="O130" s="6"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6"/>
-      <c r="R130" s="153"/>
+      <c r="R130" s="151"/>
       <c r="S130" s="6"/>
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
@@ -25262,7 +25270,7 @@
       <c r="AH130" s="6"/>
       <c r="AI130" s="6"/>
       <c r="AJ130" s="6"/>
-      <c r="AK130" s="164"/>
+      <c r="AK130" s="162"/>
       <c r="AL130" s="6"/>
       <c r="AM130" s="6"/>
       <c r="AN130" s="6"/>
@@ -25297,23 +25305,23 @@
       <c r="BQ130" s="6"/>
     </row>
     <row r="131" spans="1:69" x14ac:dyDescent="0.3">
-      <c r="B131" s="95"/>
-      <c r="C131" s="96"/>
-      <c r="D131" s="111"/>
-      <c r="E131" s="98"/>
-      <c r="F131" s="105"/>
-      <c r="G131" s="103"/>
-      <c r="H131" s="100"/>
-      <c r="I131" s="164"/>
+      <c r="B131" s="93"/>
+      <c r="C131" s="94"/>
+      <c r="D131" s="109"/>
+      <c r="E131" s="96"/>
+      <c r="F131" s="103"/>
+      <c r="G131" s="101"/>
+      <c r="H131" s="98"/>
+      <c r="I131" s="162"/>
       <c r="J131" s="6"/>
-      <c r="K131" s="153"/>
+      <c r="K131" s="151"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
       <c r="O131" s="6"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6"/>
-      <c r="R131" s="153"/>
+      <c r="R131" s="151"/>
       <c r="S131" s="6"/>
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
@@ -25332,7 +25340,7 @@
       <c r="AH131" s="6"/>
       <c r="AI131" s="6"/>
       <c r="AJ131" s="6"/>
-      <c r="AK131" s="164"/>
+      <c r="AK131" s="162"/>
       <c r="AL131" s="6"/>
       <c r="AM131" s="6"/>
       <c r="AN131" s="6"/>
